--- a/xls/tmp-export.xlsx
+++ b/xls/tmp-export.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="object 25" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="object 11" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t>date time</t>
   </si>
@@ -1013,6 +1013,72 @@
   </si>
   <si>
     <t>08.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>09.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>10.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>11.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>12.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>13.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>14.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>15.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>16.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>17.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>18.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>19.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>20.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>21.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>22.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>23.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>24.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>25.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>26.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>27.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>28.02.23 00:00:00</t>
+  </si>
+  <si>
+    <t>01.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>02.03.23 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D356"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,13 +1477,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-3.9</v>
+        <v>-7.4</v>
       </c>
       <c r="C2">
-        <v>2.1</v>
+        <v>-1.2</v>
       </c>
       <c r="D2">
-        <v>-0.9</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4</v>
+        <v>-6.8</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>-1.9000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +1505,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-2.4</v>
+        <v>-3.1</v>
       </c>
       <c r="C4">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="D4">
-        <v>2.8000000000000003</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,13 +1519,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-2.7</v>
+        <v>-6.3</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>-3.8000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +1533,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-5.4</v>
+        <v>-8.2</v>
       </c>
       <c r="C6">
-        <v>1.2</v>
+        <v>-4</v>
       </c>
       <c r="D6">
-        <v>-2.1</v>
+        <v>-6.1000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,13 +1547,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-6.1000000000000005</v>
+        <v>-7.5</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="D7">
-        <v>-2.3000000000000003</v>
+        <v>-4.6000000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +1561,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-5.5</v>
+        <v>-7.1000000000000005</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D8">
-        <v>-0.7000000000000001</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +1575,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-3.8000000000000003</v>
+        <v>-5.2</v>
       </c>
       <c r="C9">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="D9">
-        <v>1.9000000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,13 +1589,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-2</v>
+        <v>-3.2</v>
       </c>
       <c r="C10">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="D10">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +1603,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>12.4</v>
+        <v>7.4</v>
       </c>
       <c r="D11">
-        <v>6.5</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,13 +1617,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>-2.7</v>
       </c>
       <c r="C12">
-        <v>14.1</v>
+        <v>10.4</v>
       </c>
       <c r="D12">
-        <v>7.1000000000000005</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,13 +1631,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>-3.5</v>
       </c>
       <c r="C13">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="D13">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,13 +1645,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>-1.3</v>
       </c>
       <c r="C14">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,13 +1659,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>-1.1</v>
       </c>
       <c r="C15">
         <v>13.700000000000001</v>
       </c>
       <c r="D15">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,13 +1673,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.2</v>
+        <v>-1.6</v>
       </c>
       <c r="C16">
-        <v>7.6000000000000005</v>
+        <v>8.6</v>
       </c>
       <c r="D16">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,13 +1687,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.8</v>
+        <v>-2.7</v>
       </c>
       <c r="C17">
-        <v>12.5</v>
+        <v>5.3</v>
       </c>
       <c r="D17">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,13 +1701,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="C18">
-        <v>15.9</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="D18">
-        <v>10.5</v>
+        <v>8.700000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,13 +1715,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="C19">
-        <v>13.5</v>
+        <v>17.7</v>
       </c>
       <c r="D19">
-        <v>9.700000000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,13 +1729,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6.1000000000000005</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="C20">
-        <v>15.1</v>
+        <v>16.9</v>
       </c>
       <c r="D20">
-        <v>10.6</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,13 +1743,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7.7</v>
+        <v>10.1</v>
       </c>
       <c r="C21">
-        <v>15.4</v>
+        <v>21.3</v>
       </c>
       <c r="D21">
-        <v>11.6</v>
+        <v>15.700000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,13 +1757,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>5.1000000000000005</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="C22">
-        <v>11.700000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="D22">
-        <v>8.4</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,13 +1771,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.7</v>
+        <v>9.3</v>
       </c>
       <c r="C23">
-        <v>5.9</v>
+        <v>17.2</v>
       </c>
       <c r="D23">
-        <v>3.8000000000000003</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,13 +1785,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-1.1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>5.7</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="D24">
-        <v>2.3000000000000003</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,13 +1799,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="C25">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="D25">
-        <v>4.6000000000000005</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,13 +1813,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C26">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D26">
-        <v>8.4</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,10 +1827,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="C27">
-        <v>17.5</v>
+        <v>18.8</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -1775,13 +1841,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="C28">
-        <v>15.6</v>
+        <v>18.2</v>
       </c>
       <c r="D28">
-        <v>10.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,13 +1855,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6.1000000000000005</v>
+        <v>9.8</v>
       </c>
       <c r="C29">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>11.3</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,13 +1869,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="C30">
-        <v>13.200000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="D30">
-        <v>9.700000000000001</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,13 +1883,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3.4</v>
+        <v>13.3</v>
       </c>
       <c r="C31">
-        <v>10.4</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>6.9</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,13 +1897,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.5</v>
+        <v>7.7</v>
       </c>
       <c r="C32">
-        <v>9.4</v>
+        <v>18.6</v>
       </c>
       <c r="D32">
-        <v>5.9</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,13 +1911,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>11.3</v>
+        <v>8.6</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,13 +1925,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4.6000000000000005</v>
+        <v>4.3</v>
       </c>
       <c r="C34">
-        <v>14.3</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="D34">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,13 +1939,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6.1000000000000005</v>
+        <v>6.3</v>
       </c>
       <c r="C35">
         <v>16.8</v>
       </c>
       <c r="D35">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,13 +1953,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="C36">
-        <v>12.200000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,13 +1967,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.9</v>
+        <v>7.4</v>
       </c>
       <c r="C37">
-        <v>8.700000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="D37">
-        <v>5.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +1981,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>11.3</v>
       </c>
       <c r="C38">
-        <v>8.1</v>
+        <v>17.1</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +1995,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2.3000000000000003</v>
+        <v>11.9</v>
       </c>
       <c r="C39">
-        <v>10.3</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="D39">
-        <v>6.3</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,13 +2009,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>9.700000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="D40">
-        <v>6.4</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,13 +2023,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="D41">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,13 +2037,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5.2</v>
+        <v>8.3</v>
       </c>
       <c r="C42">
-        <v>12.700000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,13 +2051,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>13.4</v>
+        <v>17.5</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>11.200000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,13 +2065,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="D44">
-        <v>11.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,13 +2079,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10.8</v>
+        <v>9.8</v>
       </c>
       <c r="C45">
-        <v>21.5</v>
+        <v>22.8</v>
       </c>
       <c r="D45">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,13 +2093,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>10.700000000000001</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>19.5</v>
+        <v>24.2</v>
       </c>
       <c r="D46">
-        <v>15.1</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,13 +2107,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="C47">
-        <v>16.3</v>
+        <v>22.3</v>
       </c>
       <c r="D47">
-        <v>12.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,13 +2121,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7.7</v>
+        <v>10.1</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="D48">
-        <v>11.9</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,13 +2135,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="C49">
-        <v>15.3</v>
+        <v>19.6</v>
       </c>
       <c r="D49">
-        <v>11.1</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +2149,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6.7</v>
+        <v>9.3</v>
       </c>
       <c r="C50">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D50">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,13 +2163,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C51">
         <v>16.4</v>
       </c>
       <c r="D51">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,13 +2177,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7.3</v>
+        <v>4.4</v>
       </c>
       <c r="C52">
-        <v>17.7</v>
+        <v>16.3</v>
       </c>
       <c r="D52">
-        <v>12.5</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,13 +2191,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>8.3</v>
+        <v>5.2</v>
       </c>
       <c r="C53">
-        <v>18.6</v>
+        <v>17.1</v>
       </c>
       <c r="D53">
-        <v>13.4</v>
+        <v>11.200000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,13 +2205,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>8.2</v>
+        <v>6.4</v>
       </c>
       <c r="C54">
-        <v>17.400000000000002</v>
+        <v>18.1</v>
       </c>
       <c r="D54">
-        <v>12.8</v>
+        <v>12.200000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,13 +2219,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="C55">
-        <v>16.7</v>
+        <v>17.2</v>
       </c>
       <c r="D55">
-        <v>11.1</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,13 +2233,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="C56">
-        <v>18.400000000000002</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,13 +2247,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7.6000000000000005</v>
+        <v>3.5</v>
       </c>
       <c r="C57">
-        <v>18.400000000000002</v>
+        <v>17.2</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,13 +2261,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8.8</v>
+        <v>4.4</v>
       </c>
       <c r="C58">
-        <v>20.3</v>
+        <v>19.5</v>
       </c>
       <c r="D58">
-        <v>14.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,13 +2275,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="C59">
-        <v>19.2</v>
+        <v>22.8</v>
       </c>
       <c r="D59">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2223,13 +2289,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="D60">
-        <v>11.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,13 +2303,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>6.6000000000000005</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="C61">
-        <v>19.7</v>
+        <v>15.8</v>
       </c>
       <c r="D61">
-        <v>13.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,13 +2317,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>10.3</v>
+        <v>7.3</v>
       </c>
       <c r="C62">
-        <v>26.400000000000002</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>18.400000000000002</v>
+        <v>15.200000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,13 +2331,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>12.3</v>
+        <v>12.9</v>
       </c>
       <c r="C63">
-        <v>22.3</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="D63">
-        <v>17.3</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,13 +2345,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>11.6</v>
+        <v>10.4</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>16.1</v>
       </c>
       <c r="D64">
-        <v>15.3</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,13 +2359,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>8.8</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="C65">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="D65">
-        <v>13.8</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,13 +2373,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>8.2</v>
+        <v>8.1</v>
       </c>
       <c r="C66">
-        <v>19.5</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="D66">
-        <v>13.9</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,13 +2387,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>8.8</v>
+        <v>7.3</v>
       </c>
       <c r="C67">
-        <v>19.6</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="D67">
-        <v>14.200000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,13 +2401,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>5.6000000000000005</v>
+        <v>8.2</v>
       </c>
       <c r="C68">
-        <v>14.6</v>
+        <v>16.3</v>
       </c>
       <c r="D68">
-        <v>10.1</v>
+        <v>12.200000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,13 +2415,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>5.8</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="C69">
-        <v>19.8</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="D69">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,13 +2429,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="C70">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="D70">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,13 +2443,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>24.3</v>
+        <v>20.8</v>
       </c>
       <c r="D71">
-        <v>18.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,13 +2457,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>10.6</v>
+        <v>13.1</v>
       </c>
       <c r="C72">
-        <v>16.7</v>
+        <v>18.6</v>
       </c>
       <c r="D72">
-        <v>13.6</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,13 +2471,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="C73">
-        <v>16.3</v>
+        <v>17.8</v>
       </c>
       <c r="D73">
-        <v>12.1</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,13 +2485,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="C74">
-        <v>20.2</v>
+        <v>19.5</v>
       </c>
       <c r="D74">
-        <v>13.8</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,13 +2499,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>10.700000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C75">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,13 +2513,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>12.1</v>
+        <v>10.3</v>
       </c>
       <c r="C76">
-        <v>20.8</v>
+        <v>24.3</v>
       </c>
       <c r="D76">
-        <v>16.4</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,13 +2527,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>12.9</v>
+        <v>11.6</v>
       </c>
       <c r="C77">
-        <v>21.7</v>
+        <v>22.900000000000002</v>
       </c>
       <c r="D77">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,13 +2541,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>12.3</v>
       </c>
       <c r="C78">
-        <v>19.8</v>
+        <v>24.1</v>
       </c>
       <c r="D78">
-        <v>15.4</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2555,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>8.9</v>
+        <v>13.9</v>
       </c>
       <c r="C79">
-        <v>18.900000000000002</v>
+        <v>25.3</v>
       </c>
       <c r="D79">
-        <v>13.9</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +2569,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>10.3</v>
+        <v>11.5</v>
       </c>
       <c r="C80">
-        <v>19.7</v>
+        <v>27.1</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2583,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>13.4</v>
+        <v>15.8</v>
       </c>
       <c r="C81">
-        <v>20.7</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="D81">
-        <v>17.1</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,13 +2597,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>13.4</v>
+        <v>17.6</v>
       </c>
       <c r="C82">
-        <v>26.400000000000002</v>
+        <v>28.5</v>
       </c>
       <c r="D82">
-        <v>19.900000000000002</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,13 +2611,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>15.5</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C83">
-        <v>27.900000000000002</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,13 +2625,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>14.3</v>
+        <v>16.7</v>
       </c>
       <c r="C84">
-        <v>25</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="D84">
-        <v>19.7</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,13 +2639,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>13.3</v>
+        <v>16.1</v>
       </c>
       <c r="C85">
-        <v>24.7</v>
+        <v>28.8</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,13 +2653,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>14.700000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="C86">
-        <v>22.1</v>
+        <v>27.5</v>
       </c>
       <c r="D86">
-        <v>18.400000000000002</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,13 +2667,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="C87">
-        <v>24.3</v>
+        <v>25.7</v>
       </c>
       <c r="D87">
-        <v>18.400000000000002</v>
+        <v>19.400000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,13 +2681,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>13.9</v>
+        <v>12.6</v>
       </c>
       <c r="C88">
-        <v>26.1</v>
+        <v>26.8</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +2695,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>15.3</v>
+        <v>13.6</v>
       </c>
       <c r="C89">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D89">
-        <v>21.5</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,13 +2709,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>16.4</v>
+        <v>14.4</v>
       </c>
       <c r="C90">
-        <v>28.5</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="D90">
-        <v>22.400000000000002</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,13 +2723,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>15.6</v>
+        <v>13.9</v>
       </c>
       <c r="C91">
-        <v>28.400000000000002</v>
+        <v>29.7</v>
       </c>
       <c r="D91">
-        <v>22</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +2737,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>16.1</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C92">
-        <v>28.3</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="D92">
-        <v>22.2</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,13 +2751,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>16.3</v>
+        <v>18.2</v>
       </c>
       <c r="C93">
-        <v>28.400000000000002</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="D93">
-        <v>22.400000000000002</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,13 +2765,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>15.3</v>
+        <v>16.6</v>
       </c>
       <c r="C94">
-        <v>28</v>
+        <v>30.8</v>
       </c>
       <c r="D94">
-        <v>21.7</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,13 +2779,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>15.200000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="C95">
-        <v>24.6</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="D95">
-        <v>19.900000000000002</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,13 +2793,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>11.200000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="C96">
-        <v>21.7</v>
+        <v>25.2</v>
       </c>
       <c r="D96">
-        <v>16.5</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,13 +2807,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>11.200000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="C97">
-        <v>23.8</v>
+        <v>24.7</v>
       </c>
       <c r="D97">
-        <v>17.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,13 +2821,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="C98">
-        <v>23.3</v>
+        <v>27.1</v>
       </c>
       <c r="D98">
-        <v>18.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,13 +2835,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>12.9</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="C99">
-        <v>23.8</v>
+        <v>27.7</v>
       </c>
       <c r="D99">
-        <v>18.400000000000002</v>
+        <v>21.400000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,13 +2849,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>13.6</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="C100">
-        <v>28.400000000000002</v>
+        <v>29.6</v>
       </c>
       <c r="D100">
-        <v>21</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,13 +2863,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="C101">
-        <v>30.7</v>
+        <v>31.6</v>
       </c>
       <c r="D101">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,13 +2877,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>15.6</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="C102">
-        <v>26.5</v>
+        <v>32.8</v>
       </c>
       <c r="D102">
-        <v>21.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2825,13 +2891,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>11.9</v>
+        <v>16.8</v>
       </c>
       <c r="C103">
-        <v>20.7</v>
+        <v>27.1</v>
       </c>
       <c r="D103">
-        <v>16.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,13 +2905,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>11.700000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="C104">
-        <v>22</v>
+        <v>23.3</v>
       </c>
       <c r="D104">
-        <v>16.9</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,13 +2919,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>13.5</v>
+        <v>11.8</v>
       </c>
       <c r="C105">
-        <v>24.400000000000002</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="D105">
-        <v>19</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,13 +2933,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>14</v>
+        <v>14.6</v>
       </c>
       <c r="C106">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,13 +2947,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>15.700000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="C107">
-        <v>27.6</v>
+        <v>30.1</v>
       </c>
       <c r="D107">
-        <v>21.7</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,13 +2961,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>17.3</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="C108">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="D108">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,13 +2975,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>18.1</v>
+        <v>15.6</v>
       </c>
       <c r="C109">
-        <v>31.8</v>
+        <v>33.2</v>
       </c>
       <c r="D109">
-        <v>25</v>
+        <v>24.400000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,13 +2989,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>18.3</v>
       </c>
       <c r="C110">
-        <v>32.1</v>
+        <v>29.6</v>
       </c>
       <c r="D110">
-        <v>25.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,13 +3003,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>18.400000000000002</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="C111">
-        <v>29.900000000000002</v>
+        <v>28.3</v>
       </c>
       <c r="D111">
-        <v>24.2</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,13 +3017,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>17.400000000000002</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="C112">
-        <v>29.900000000000002</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="D112">
-        <v>23.7</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,13 +3031,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>16.2</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="C113">
-        <v>27.400000000000002</v>
+        <v>24.900000000000002</v>
       </c>
       <c r="D113">
-        <v>21.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,13 +3045,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>15.6</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="C114">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D114">
-        <v>21.6</v>
+        <v>20.400000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,10 +3059,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>15.4</v>
       </c>
       <c r="C115">
-        <v>30.3</v>
+        <v>32</v>
       </c>
       <c r="D115">
         <v>23.7</v>
@@ -3007,13 +3073,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>19</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="C116">
-        <v>31.6</v>
+        <v>32.5</v>
       </c>
       <c r="D116">
-        <v>25.3</v>
+        <v>25.400000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,13 +3087,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>18.400000000000002</v>
+        <v>17.8</v>
       </c>
       <c r="C117">
-        <v>29.6</v>
+        <v>33.2</v>
       </c>
       <c r="D117">
-        <v>24</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3035,13 +3101,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>16.6</v>
+        <v>17.2</v>
       </c>
       <c r="C118">
-        <v>26.8</v>
+        <v>33</v>
       </c>
       <c r="D118">
-        <v>21.7</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,13 +3115,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>15.8</v>
+        <v>17.6</v>
       </c>
       <c r="C119">
-        <v>27.7</v>
+        <v>32.7</v>
       </c>
       <c r="D119">
-        <v>21.7</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3063,13 +3129,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="C120">
-        <v>26.8</v>
+        <v>34.1</v>
       </c>
       <c r="D120">
-        <v>21.7</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,13 +3143,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>19.400000000000002</v>
       </c>
       <c r="C121">
-        <v>25.1</v>
+        <v>33.1</v>
       </c>
       <c r="D121">
-        <v>20.1</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,13 +3157,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>14.5</v>
+        <v>20.6</v>
       </c>
       <c r="C122">
-        <v>21.400000000000002</v>
+        <v>27.400000000000002</v>
       </c>
       <c r="D122">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,13 +3171,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>11.6</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C123">
-        <v>21.400000000000002</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="D123">
-        <v>16.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3119,13 +3185,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>13.4</v>
+        <v>15.3</v>
       </c>
       <c r="C124">
-        <v>22.400000000000002</v>
+        <v>30</v>
       </c>
       <c r="D124">
-        <v>17.900000000000002</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3133,13 +3199,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="C125">
-        <v>26</v>
+        <v>24.900000000000002</v>
       </c>
       <c r="D125">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,13 +3213,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="C126">
-        <v>26.400000000000002</v>
+        <v>30</v>
       </c>
       <c r="D126">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3161,13 +3227,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>14.4</v>
+        <v>18.3</v>
       </c>
       <c r="C127">
-        <v>24.8</v>
+        <v>32.2</v>
       </c>
       <c r="D127">
-        <v>19.6</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,13 +3241,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>13.6</v>
+        <v>16.2</v>
       </c>
       <c r="C128">
-        <v>21.900000000000002</v>
+        <v>31.7</v>
       </c>
       <c r="D128">
-        <v>17.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3189,13 +3255,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>11.200000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="C129">
-        <v>23.400000000000002</v>
+        <v>26.5</v>
       </c>
       <c r="D129">
-        <v>17.3</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3203,13 +3269,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>13.1</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="C130">
-        <v>24.5</v>
+        <v>27.1</v>
       </c>
       <c r="D130">
-        <v>18.8</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3217,13 +3283,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>14.700000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="C131">
-        <v>27.900000000000002</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="D131">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3231,13 +3297,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>13.200000000000001</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="C132">
-        <v>25.2</v>
+        <v>23.8</v>
       </c>
       <c r="D132">
-        <v>19.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,13 +3311,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>15.200000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="C133">
-        <v>26.900000000000002</v>
+        <v>23.6</v>
       </c>
       <c r="D133">
-        <v>21</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,13 +3325,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>15.700000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="C134">
-        <v>29.1</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="D134">
-        <v>22.400000000000002</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,13 +3339,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>17.3</v>
+        <v>14.3</v>
       </c>
       <c r="C135">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="D135">
-        <v>22.3</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,13 +3353,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>16.1</v>
+        <v>17.7</v>
       </c>
       <c r="C136">
-        <v>25.5</v>
+        <v>30.8</v>
       </c>
       <c r="D136">
-        <v>20.8</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,13 +3367,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>15</v>
+        <v>16.1</v>
       </c>
       <c r="C137">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D137">
-        <v>21</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,13 +3381,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="C138">
-        <v>26.5</v>
+        <v>29.8</v>
       </c>
       <c r="D138">
-        <v>21.6</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,13 +3395,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>16.8</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="C139">
-        <v>28.1</v>
+        <v>33.2</v>
       </c>
       <c r="D139">
-        <v>22.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,13 +3409,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>16.8</v>
+        <v>20.2</v>
       </c>
       <c r="C140">
-        <v>27.7</v>
+        <v>32.2</v>
       </c>
       <c r="D140">
-        <v>22.3</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3357,13 +3423,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>16.9</v>
+        <v>18.1</v>
       </c>
       <c r="C141">
-        <v>28.7</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="D141">
-        <v>22.8</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,13 +3437,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="C142">
-        <v>26.900000000000002</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="D142">
-        <v>22.2</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3385,13 +3451,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>17.2</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="C143">
-        <v>25.400000000000002</v>
+        <v>33.9</v>
       </c>
       <c r="D143">
-        <v>21.3</v>
+        <v>25.900000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,13 +3465,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>17</v>
+        <v>21.1</v>
       </c>
       <c r="C144">
-        <v>24.8</v>
+        <v>32.7</v>
       </c>
       <c r="D144">
-        <v>20.900000000000002</v>
+        <v>26.900000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,13 +3479,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>16.1</v>
+        <v>18.7</v>
       </c>
       <c r="C145">
-        <v>25.6</v>
+        <v>31.3</v>
       </c>
       <c r="D145">
-        <v>20.900000000000002</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,13 +3493,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>16.7</v>
+        <v>19.1</v>
       </c>
       <c r="C146">
-        <v>26.6</v>
+        <v>32</v>
       </c>
       <c r="D146">
-        <v>21.6</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3441,13 +3507,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>17.6</v>
+        <v>19.400000000000002</v>
       </c>
       <c r="C147">
-        <v>27.400000000000002</v>
+        <v>25.400000000000002</v>
       </c>
       <c r="D147">
-        <v>22.5</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,13 +3521,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>18.1</v>
+        <v>19.6</v>
       </c>
       <c r="C148">
-        <v>30.5</v>
+        <v>33.3</v>
       </c>
       <c r="D148">
-        <v>24.3</v>
+        <v>26.400000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3469,13 +3535,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>18.400000000000002</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="C149">
-        <v>28.3</v>
+        <v>34.5</v>
       </c>
       <c r="D149">
-        <v>23.3</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,13 +3549,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>17.400000000000002</v>
+        <v>20.3</v>
       </c>
       <c r="C150">
-        <v>27.7</v>
+        <v>35</v>
       </c>
       <c r="D150">
-        <v>22.6</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3497,13 +3563,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>17.3</v>
+        <v>19.7</v>
       </c>
       <c r="C151">
-        <v>26.2</v>
+        <v>34.5</v>
       </c>
       <c r="D151">
-        <v>21.7</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,13 +3577,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>16.8</v>
+        <v>21</v>
       </c>
       <c r="C152">
-        <v>26.3</v>
+        <v>35.2</v>
       </c>
       <c r="D152">
-        <v>21.6</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,13 +3591,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>17.1</v>
+        <v>23.3</v>
       </c>
       <c r="C153">
-        <v>26.8</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="D153">
-        <v>21.900000000000002</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,13 +3605,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>18.3</v>
+        <v>24.3</v>
       </c>
       <c r="C154">
-        <v>26.1</v>
+        <v>34.1</v>
       </c>
       <c r="D154">
-        <v>22.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3553,13 +3619,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>19.1</v>
+        <v>23.8</v>
       </c>
       <c r="C155">
-        <v>26.900000000000002</v>
+        <v>34.4</v>
       </c>
       <c r="D155">
-        <v>23</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,13 +3633,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>19.5</v>
+        <v>23.6</v>
       </c>
       <c r="C156">
+        <v>34.5</v>
+      </c>
+      <c r="D156">
         <v>29</v>
-      </c>
-      <c r="D156">
-        <v>24.2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,13 +3647,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>19.900000000000002</v>
+        <v>22.6</v>
       </c>
       <c r="C157">
-        <v>29</v>
+        <v>37.1</v>
       </c>
       <c r="D157">
-        <v>24.5</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3595,13 +3661,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>19.900000000000002</v>
+        <v>24.5</v>
       </c>
       <c r="C158">
-        <v>26.2</v>
+        <v>34.5</v>
       </c>
       <c r="D158">
-        <v>23</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3609,13 +3675,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>18.3</v>
+        <v>21.3</v>
       </c>
       <c r="C159">
-        <v>26.8</v>
+        <v>35</v>
       </c>
       <c r="D159">
-        <v>22.5</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3623,13 +3689,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>18.5</v>
+        <v>21.8</v>
       </c>
       <c r="C160">
-        <v>29</v>
+        <v>32.7</v>
       </c>
       <c r="D160">
-        <v>23.8</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3637,13 +3703,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="C161">
-        <v>28.7</v>
+        <v>30.8</v>
       </c>
       <c r="D161">
-        <v>23.6</v>
+        <v>24.900000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3651,13 +3717,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="C162">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="D162">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3665,13 +3731,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>17.7</v>
+        <v>19.5</v>
       </c>
       <c r="C163">
-        <v>26.7</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="D163">
-        <v>22.2</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3679,13 +3745,13 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>18.400000000000002</v>
+        <v>18.8</v>
       </c>
       <c r="C164">
-        <v>29.3</v>
+        <v>33.2</v>
       </c>
       <c r="D164">
-        <v>23.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3693,13 +3759,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>19.1</v>
+        <v>20.5</v>
       </c>
       <c r="C165">
-        <v>30.400000000000002</v>
+        <v>33.5</v>
       </c>
       <c r="D165">
-        <v>24.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3707,13 +3773,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>18.900000000000002</v>
+        <v>20</v>
       </c>
       <c r="C166">
-        <v>31.2</v>
+        <v>32.7</v>
       </c>
       <c r="D166">
-        <v>25.1</v>
+        <v>26.400000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3721,13 +3787,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>17.8</v>
+        <v>19.6</v>
       </c>
       <c r="C167">
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="D167">
-        <v>24.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3735,13 +3801,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>17.900000000000002</v>
+        <v>19.8</v>
       </c>
       <c r="C168">
-        <v>29.900000000000002</v>
+        <v>31.2</v>
       </c>
       <c r="D168">
-        <v>23.900000000000002</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3749,13 +3815,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>17.900000000000002</v>
+        <v>19.1</v>
       </c>
       <c r="C169">
-        <v>29.900000000000002</v>
+        <v>32.7</v>
       </c>
       <c r="D169">
-        <v>23.900000000000002</v>
+        <v>25.900000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3763,13 +3829,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>17.7</v>
+        <v>21.900000000000002</v>
       </c>
       <c r="C170">
-        <v>29.1</v>
+        <v>31.5</v>
       </c>
       <c r="D170">
-        <v>23.400000000000002</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,13 +3843,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>17.5</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="C171">
-        <v>28.900000000000002</v>
+        <v>32.9</v>
       </c>
       <c r="D171">
-        <v>23.2</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3791,13 +3857,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>17.400000000000002</v>
+        <v>15.5</v>
       </c>
       <c r="C172">
-        <v>27.900000000000002</v>
+        <v>33.4</v>
       </c>
       <c r="D172">
-        <v>22.7</v>
+        <v>24.400000000000002</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3805,13 +3871,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>16.2</v>
+        <v>17.6</v>
       </c>
       <c r="C173">
+        <v>33.3</v>
+      </c>
+      <c r="D173">
         <v>25.400000000000002</v>
-      </c>
-      <c r="D173">
-        <v>20.8</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,13 +3885,13 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>13.9</v>
+        <v>18.7</v>
       </c>
       <c r="C174">
+        <v>25.400000000000002</v>
+      </c>
+      <c r="D174">
         <v>22</v>
-      </c>
-      <c r="D174">
-        <v>17.900000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,13 +3899,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="C175">
-        <v>20.5</v>
+        <v>23.6</v>
       </c>
       <c r="D175">
-        <v>15.5</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3847,13 +3913,13 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C176">
-        <v>17.900000000000002</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="D176">
-        <v>14.700000000000001</v>
+        <v>17.400000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3864,10 +3930,10 @@
         <v>9.8</v>
       </c>
       <c r="C177">
-        <v>18.6</v>
+        <v>16.7</v>
       </c>
       <c r="D177">
-        <v>14.200000000000001</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3875,13 +3941,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>9.8</v>
+        <v>6</v>
       </c>
       <c r="C178">
         <v>19.3</v>
       </c>
       <c r="D178">
-        <v>14.6</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3889,13 +3955,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7.6000000000000005</v>
+        <v>7</v>
       </c>
       <c r="C179">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="D179">
-        <v>12.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3903,13 +3969,13 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="C180">
-        <v>18.5</v>
+        <v>17.3</v>
       </c>
       <c r="D180">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3917,13 +3983,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="C181">
-        <v>21</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="D181">
-        <v>15</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,13 +3997,13 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>10.700000000000001</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="C182">
-        <v>18</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="D182">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,13 +4011,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>10.8</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="C183">
-        <v>16.9</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="D183">
-        <v>13.9</v>
+        <v>12.200000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,13 +4025,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>11.3</v>
+        <v>8</v>
       </c>
       <c r="C184">
-        <v>17.3</v>
+        <v>20.8</v>
       </c>
       <c r="D184">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,13 +4039,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>10.8</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="C185">
-        <v>15.700000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="D185">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,13 +4053,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>10.3</v>
+        <v>13</v>
       </c>
       <c r="C186">
-        <v>15.200000000000001</v>
+        <v>20.900000000000002</v>
       </c>
       <c r="D186">
-        <v>12.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4001,13 +4067,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="C187">
-        <v>18.7</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="D187">
-        <v>14.6</v>
+        <v>15.200000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4015,13 +4081,13 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>13.700000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="C188">
-        <v>20.5</v>
+        <v>23.3</v>
       </c>
       <c r="D188">
-        <v>17.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,13 +4095,13 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>14.3</v>
+        <v>17.1</v>
       </c>
       <c r="C189">
-        <v>20.6</v>
+        <v>24.5</v>
       </c>
       <c r="D189">
-        <v>17.5</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4043,13 +4109,13 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>12.6</v>
+        <v>14.5</v>
       </c>
       <c r="C190">
-        <v>18.2</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="D190">
-        <v>15.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4057,13 +4123,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>11.3</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="C191">
-        <v>18.8</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>23.900000000000002</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,13 +4137,13 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="C192">
-        <v>15.8</v>
+        <v>22.2</v>
       </c>
       <c r="D192">
-        <v>12.200000000000001</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4085,13 +4151,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7.8</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="C193">
-        <v>14.9</v>
+        <v>22.400000000000002</v>
       </c>
       <c r="D193">
-        <v>11.4</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4099,13 +4165,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7.7</v>
+        <v>10.6</v>
       </c>
       <c r="C194">
-        <v>14.200000000000001</v>
+        <v>21.7</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4113,13 +4179,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="C195">
-        <v>14.200000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D195">
-        <v>11</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4127,13 +4193,13 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7.4</v>
+        <v>8.3</v>
       </c>
       <c r="C196">
-        <v>13.200000000000001</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="D196">
-        <v>10.3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4141,13 +4207,13 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="C197">
-        <v>13.6</v>
+        <v>16.3</v>
       </c>
       <c r="D197">
-        <v>10.1</v>
+        <v>12.200000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,13 +4221,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="C198">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="D198">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,13 +4235,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>10.6</v>
+        <v>9.8</v>
       </c>
       <c r="C199">
-        <v>17.400000000000002</v>
+        <v>19.8</v>
       </c>
       <c r="D199">
-        <v>14</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4183,13 +4249,13 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>12</v>
+        <v>13.9</v>
       </c>
       <c r="C200">
-        <v>17.1</v>
+        <v>20.6</v>
       </c>
       <c r="D200">
-        <v>14.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4197,13 +4263,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>11.5</v>
+        <v>15.3</v>
       </c>
       <c r="C201">
-        <v>17.1</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="D201">
-        <v>14.3</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,13 +4277,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="C202">
-        <v>19.3</v>
+        <v>21.5</v>
       </c>
       <c r="D202">
-        <v>14.9</v>
+        <v>17.400000000000002</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,10 +4294,10 @@
         <v>12.3</v>
       </c>
       <c r="C203">
-        <v>20.6</v>
+        <v>24.1</v>
       </c>
       <c r="D203">
-        <v>16.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,13 +4305,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>13.5</v>
+        <v>15.6</v>
       </c>
       <c r="C204">
-        <v>21.1</v>
+        <v>25.3</v>
       </c>
       <c r="D204">
-        <v>17.3</v>
+        <v>20.400000000000002</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4253,13 +4319,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>11.4</v>
+        <v>16.4</v>
       </c>
       <c r="C205">
-        <v>17</v>
+        <v>25.6</v>
       </c>
       <c r="D205">
-        <v>14.200000000000001</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4267,13 +4333,13 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>8.8</v>
+        <v>10.4</v>
       </c>
       <c r="C206">
-        <v>13.700000000000001</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="D206">
-        <v>11.200000000000001</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4281,13 +4347,13 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>7.9</v>
+        <v>10.3</v>
       </c>
       <c r="C207">
-        <v>13.1</v>
+        <v>18.6</v>
       </c>
       <c r="D207">
-        <v>10.5</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,13 +4361,13 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="C208">
-        <v>15</v>
+        <v>16.1</v>
       </c>
       <c r="D208">
-        <v>11.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,13 +4375,13 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="C209">
-        <v>19.400000000000002</v>
+        <v>16.9</v>
       </c>
       <c r="D209">
-        <v>14</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,13 +4389,13 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="C210">
-        <v>18.6</v>
+        <v>20</v>
       </c>
       <c r="D210">
-        <v>13.8</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4337,13 +4403,13 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>7.8</v>
+        <v>8.2</v>
       </c>
       <c r="C211">
-        <v>19.5</v>
+        <v>20.2</v>
       </c>
       <c r="D211">
-        <v>13.700000000000001</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,13 +4417,13 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="C212">
-        <v>17</v>
+        <v>19.1</v>
       </c>
       <c r="D212">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,13 +4431,13 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="C213">
-        <v>14.4</v>
+        <v>15.9</v>
       </c>
       <c r="D213">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4379,13 +4445,13 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="C214">
-        <v>15</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="D214">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,13 +4459,13 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C215">
-        <v>15.1</v>
+        <v>14.3</v>
       </c>
       <c r="D215">
-        <v>10.5</v>
+        <v>10.200000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,13 +4473,13 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="C216">
-        <v>13.9</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="D216">
-        <v>9.700000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,13 +4487,13 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C217">
-        <v>13.700000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="D217">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,13 +4501,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="C218">
-        <v>13.6</v>
+        <v>11</v>
       </c>
       <c r="D218">
-        <v>9.200000000000001</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,13 +4515,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C219">
-        <v>14.700000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="D219">
-        <v>9.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4463,13 +4529,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>6.3</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="C220">
-        <v>17.2</v>
+        <v>13.3</v>
       </c>
       <c r="D220">
-        <v>11.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4477,13 +4543,13 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>8.3</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="C221">
-        <v>18.7</v>
+        <v>15.5</v>
       </c>
       <c r="D221">
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,13 +4557,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>9.1</v>
+        <v>8.3</v>
       </c>
       <c r="C222">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D222">
-        <v>12.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4505,13 +4571,13 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>7.6000000000000005</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="C223">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D223">
-        <v>10.700000000000001</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4519,13 +4585,13 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>2.8000000000000003</v>
+        <v>4.7</v>
       </c>
       <c r="C224">
-        <v>10.200000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="D224">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4533,13 +4599,13 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="C225">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D225">
-        <v>8.9</v>
+        <v>6.1000000000000005</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,13 +4613,13 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>8.8</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="C226">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="D226">
-        <v>10.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,13 +4627,13 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>9.1</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="C227">
-        <v>14.9</v>
+        <v>11.4</v>
       </c>
       <c r="D227">
-        <v>12</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,13 +4641,13 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="C228">
-        <v>14.700000000000001</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="D228">
-        <v>12.3</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,13 +4655,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>10.200000000000001</v>
+        <v>10</v>
       </c>
       <c r="C229">
-        <v>14.1</v>
+        <v>11.1</v>
       </c>
       <c r="D229">
-        <v>12.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4603,13 +4669,13 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>8.3</v>
+        <v>8.4</v>
       </c>
       <c r="C230">
-        <v>13.5</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="D230">
-        <v>10.9</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4617,13 +4683,13 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="C231">
-        <v>14</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="D231">
-        <v>11</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4631,13 +4697,13 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="C232">
-        <v>16.3</v>
+        <v>10.3</v>
       </c>
       <c r="D232">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4645,13 +4711,13 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="C233">
-        <v>14.700000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="D233">
-        <v>12.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,13 +4725,13 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="C234">
-        <v>12</v>
+        <v>9.8</v>
       </c>
       <c r="D234">
-        <v>8.700000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,13 +4739,13 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>3.8000000000000003</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="D235">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4687,13 +4753,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="C236">
-        <v>13.4</v>
+        <v>7</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4701,13 +4767,13 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="C237">
-        <v>11.200000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D237">
-        <v>8.6</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,13 +4781,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="C238">
-        <v>10.4</v>
+        <v>5.3</v>
       </c>
       <c r="D238">
-        <v>7.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,13 +4795,13 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="C239">
-        <v>9.9</v>
+        <v>5.2</v>
       </c>
       <c r="D239">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,13 +4809,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="C240">
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
       <c r="D240">
-        <v>6.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,13 +4823,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>4.7</v>
+        <v>-0.2</v>
       </c>
       <c r="C241">
-        <v>10.3</v>
+        <v>5.7</v>
       </c>
       <c r="D241">
-        <v>7.5</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4771,13 +4837,13 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>4.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C242">
-        <v>10.700000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="D242">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4785,13 +4851,13 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>5</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C243">
-        <v>12.1</v>
+        <v>9.6</v>
       </c>
       <c r="D243">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,13 +4865,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>5.3</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="C244">
-        <v>11.700000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="D244">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,13 +4879,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>5.6000000000000005</v>
+        <v>3.5</v>
       </c>
       <c r="C245">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="D245">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,13 +4893,13 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>5.6000000000000005</v>
+        <v>3.4</v>
       </c>
       <c r="C246">
-        <v>11.6</v>
+        <v>9.6</v>
       </c>
       <c r="D246">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4841,13 +4907,13 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C247">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D247">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4855,13 +4921,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="C248">
-        <v>9.1</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="D248">
-        <v>6.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4869,13 +4935,13 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>1.9000000000000001</v>
+        <v>-2.3000000000000003</v>
       </c>
       <c r="C249">
-        <v>8.2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="D249">
-        <v>5.1000000000000005</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,13 +4949,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>3.4</v>
+        <v>-1.1</v>
       </c>
       <c r="C250">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="D250">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,13 +4963,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.7000000000000001</v>
+        <v>4</v>
       </c>
       <c r="C251">
-        <v>5.4</v>
+        <v>9.5</v>
       </c>
       <c r="D251">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4911,13 +4977,13 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>-1.3</v>
+        <v>0.3</v>
       </c>
       <c r="C252">
-        <v>2.8000000000000003</v>
+        <v>11</v>
       </c>
       <c r="D252">
-        <v>0.7000000000000001</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4925,13 +4991,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="C253">
-        <v>5</v>
+        <v>11.6</v>
       </c>
       <c r="D253">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4939,13 +5005,13 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>-2.4</v>
+        <v>2.1</v>
       </c>
       <c r="C254">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="D254">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4953,13 +5019,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>1.6</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="C255">
-        <v>7</v>
+        <v>14.3</v>
       </c>
       <c r="D255">
-        <v>4.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,13 +5033,13 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>-0.5</v>
+        <v>9.5</v>
       </c>
       <c r="C256">
-        <v>5.7</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="D256">
-        <v>2.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,13 +5047,13 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>-1.6</v>
+        <v>1.2</v>
       </c>
       <c r="C257">
+        <v>5.8</v>
+      </c>
+      <c r="D257">
         <v>3.5</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4995,13 +5061,13 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="C258">
-        <v>5.3</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="D258">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5009,13 +5075,13 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="C259">
-        <v>4.8</v>
+        <v>7.5</v>
       </c>
       <c r="D259">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5023,13 +5089,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>1.4000000000000001</v>
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="D260">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5037,13 +5103,13 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="C261">
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="D261">
         <v>3.1</v>
-      </c>
-      <c r="D261">
-        <v>2.1</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5051,10 +5117,10 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>-0.2</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C262">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D262">
         <v>1.4000000000000001</v>
@@ -5065,13 +5131,13 @@
         <v>262</v>
       </c>
       <c r="B263">
+        <v>-2.8000000000000003</v>
+      </c>
+      <c r="C263">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="D263">
         <v>-0.5</v>
-      </c>
-      <c r="C263">
-        <v>2.9</v>
-      </c>
-      <c r="D263">
-        <v>1.2</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,13 +5145,13 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>-0.9</v>
+        <v>-3.2</v>
       </c>
       <c r="C264">
-        <v>2.3000000000000003</v>
+        <v>1.2</v>
       </c>
       <c r="D264">
-        <v>0.7000000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5093,13 +5159,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>-2.7</v>
+        <v>-3.6</v>
       </c>
       <c r="C265">
-        <v>1.4000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D265">
-        <v>-0.7000000000000001</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5107,13 +5173,13 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>-2.1</v>
+        <v>-2.8000000000000003</v>
       </c>
       <c r="C266">
-        <v>1.4000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D266">
-        <v>-0.3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,13 +5187,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>-2.1</v>
+        <v>-5.3</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="D267">
-        <v>-0.6</v>
+        <v>-3.3000000000000003</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,13 +5201,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>-3.5</v>
+        <v>-8.700000000000001</v>
       </c>
       <c r="C268">
-        <v>-0.5</v>
+        <v>-4.5</v>
       </c>
       <c r="D268">
-        <v>-2</v>
+        <v>-6.6000000000000005</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,13 +5215,13 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>-4.9</v>
+        <v>-9</v>
       </c>
       <c r="C269">
-        <v>-1.4000000000000001</v>
+        <v>-3.8000000000000003</v>
       </c>
       <c r="D269">
-        <v>-3.2</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5163,13 +5229,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>-4.1</v>
+        <v>-7.8</v>
       </c>
       <c r="C270">
-        <v>-0.5</v>
+        <v>-2.6</v>
       </c>
       <c r="D270">
-        <v>-2.3000000000000003</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5177,13 +5243,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>-2.8000000000000003</v>
+        <v>-8</v>
       </c>
       <c r="C271">
-        <v>1.3</v>
+        <v>-2.5</v>
       </c>
       <c r="D271">
-        <v>-0.8</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5191,13 +5257,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>-1.6</v>
+        <v>-5.4</v>
       </c>
       <c r="C272">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="D272">
-        <v>0.6</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,13 +5271,13 @@
         <v>272</v>
       </c>
       <c r="B273">
+        <v>-1.2</v>
+      </c>
+      <c r="C273">
+        <v>2.1</v>
+      </c>
+      <c r="D273">
         <v>0.5</v>
-      </c>
-      <c r="C273">
-        <v>4.5</v>
-      </c>
-      <c r="D273">
-        <v>2.5</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5219,13 +5285,13 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>2.7</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C274">
-        <v>7.1000000000000005</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D274">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5233,13 +5299,13 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="C275">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="D275">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5247,13 +5313,13 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="C276">
-        <v>5.4</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="D276">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5261,13 +5327,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>-2.2</v>
+        <v>3.2</v>
       </c>
       <c r="C277">
-        <v>1.4000000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="D277">
-        <v>-0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5275,13 +5341,13 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>-5.2</v>
+        <v>-2.1</v>
       </c>
       <c r="C278">
-        <v>-0.7000000000000001</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D278">
-        <v>-3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5289,13 +5355,13 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>-3.3000000000000003</v>
+        <v>-2.7</v>
       </c>
       <c r="C279">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D279">
-        <v>-1</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5303,13 +5369,13 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>-0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C280">
-        <v>3.8000000000000003</v>
+        <v>2.6</v>
       </c>
       <c r="D280">
-        <v>1.5</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5317,13 +5383,13 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C281">
-        <v>6.6000000000000005</v>
+        <v>9.6</v>
       </c>
       <c r="D281">
-        <v>3.8000000000000003</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,13 +5397,13 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>-5.1000000000000005</v>
+        <v>-0.1</v>
       </c>
       <c r="C282">
-        <v>2.6</v>
+        <v>9.6</v>
       </c>
       <c r="D282">
-        <v>-1.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5345,13 +5411,13 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>-6.8</v>
+        <v>-2.6</v>
       </c>
       <c r="C283">
-        <v>-2</v>
+        <v>-0.1</v>
       </c>
       <c r="D283">
-        <v>-4.4</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,13 +5425,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>-4.9</v>
+        <v>-4.4</v>
       </c>
       <c r="C284">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D284">
-        <v>-2.1</v>
+        <v>-1.9000000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5373,13 +5439,13 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>-1</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C285">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D285">
-        <v>0.9</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,13 +5453,13 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="C286">
-        <v>4</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="D286">
-        <v>2.2</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5401,13 +5467,13 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>2.3000000000000003</v>
+        <v>1.1</v>
       </c>
       <c r="C287">
-        <v>5.4</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D287">
-        <v>3.8000000000000003</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,13 +5481,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="C288">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="D288">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,13 +5495,13 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="C289">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D289">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5443,13 +5509,13 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C290">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5457,13 +5523,13 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>1.9000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="C291">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="D291">
-        <v>4.2</v>
+        <v>3.3000000000000003</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5471,13 +5537,13 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.3</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="C292">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="D292">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,13 +5551,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.1</v>
+        <v>-1.1</v>
       </c>
       <c r="C293">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="D293">
-        <v>2.3000000000000003</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,13 +5565,13 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>1.9000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C294">
-        <v>6.1000000000000005</v>
+        <v>5.9</v>
       </c>
       <c r="D294">
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,13 +5579,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>2.3000000000000003</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C295">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="D295">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5527,13 +5593,13 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>5.6000000000000005</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C296">
-        <v>11.1</v>
+        <v>8.3</v>
       </c>
       <c r="D296">
-        <v>8.3</v>
+        <v>5.1000000000000005</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5541,13 +5607,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="C297">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="D297">
-        <v>8.700000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5555,13 +5621,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="C298">
-        <v>9.9</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="D298">
-        <v>7.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,10 +5638,10 @@
         <v>1.2</v>
       </c>
       <c r="C299">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="D299">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5583,13 +5649,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>1.9000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="C300">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="D300">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5597,13 +5663,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>-3</v>
+        <v>-7.2</v>
       </c>
       <c r="C301">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="D301">
-        <v>1.4000000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,13 +5677,13 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>-4.9</v>
+        <v>-12</v>
       </c>
       <c r="C302">
-        <v>-2.1</v>
+        <v>-8.700000000000001</v>
       </c>
       <c r="D302">
-        <v>-3.5</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5625,13 +5691,13 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>-6.1000000000000005</v>
+        <v>-15.200000000000001</v>
       </c>
       <c r="C303">
-        <v>-2.9</v>
+        <v>-10.9</v>
       </c>
       <c r="D303">
-        <v>-4.5</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,13 +5705,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>-4.5</v>
+        <v>-14.3</v>
       </c>
       <c r="C304">
-        <v>0.6</v>
+        <v>-7.5</v>
       </c>
       <c r="D304">
-        <v>-2</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5653,13 +5719,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>-3.4</v>
+        <v>-13.700000000000001</v>
       </c>
       <c r="C305">
-        <v>-0.2</v>
+        <v>-10.4</v>
       </c>
       <c r="D305">
-        <v>-1.8</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,13 +5733,13 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>-5.4</v>
+        <v>-14.200000000000001</v>
       </c>
       <c r="C306">
-        <v>-1.4000000000000001</v>
+        <v>-8.8</v>
       </c>
       <c r="D306">
-        <v>-3.4</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5681,13 +5747,13 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>-5.2</v>
+        <v>-10.6</v>
       </c>
       <c r="C307">
-        <v>-0.5</v>
+        <v>-4.7</v>
       </c>
       <c r="D307">
-        <v>-2.8000000000000003</v>
+        <v>-7.6000000000000005</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5695,13 +5761,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>-3.3000000000000003</v>
+        <v>-6.1000000000000005</v>
       </c>
       <c r="C308">
-        <v>1.5</v>
+        <v>-2.4</v>
       </c>
       <c r="D308">
-        <v>-0.9</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,13 +5775,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>-1.8</v>
+        <v>-4.3</v>
       </c>
       <c r="C309">
-        <v>1.7</v>
+        <v>-1.7</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5723,13 +5789,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>-1.4000000000000001</v>
+        <v>-4.8</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="D310">
-        <v>0.3</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5737,13 +5803,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>-0.7000000000000001</v>
+        <v>-5.5</v>
       </c>
       <c r="C311">
-        <v>2.6</v>
+        <v>-0.5</v>
       </c>
       <c r="D311">
-        <v>0.9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5751,13 +5817,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>1.3</v>
+        <v>-5.3</v>
       </c>
       <c r="C312">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="D312">
-        <v>3.5</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5765,13 +5831,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>-1.5</v>
       </c>
       <c r="C313">
-        <v>8.6</v>
+        <v>2.5</v>
       </c>
       <c r="D313">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5779,13 +5845,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>4.6000000000000005</v>
+        <v>1</v>
       </c>
       <c r="C314">
-        <v>9.3</v>
+        <v>4.2</v>
       </c>
       <c r="D314">
-        <v>7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,13 +5859,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>2.8000000000000003</v>
+        <v>-1.3</v>
       </c>
       <c r="C315">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="D315">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,13 +5873,13 @@
         <v>315</v>
       </c>
       <c r="B316">
+        <v>-3.1</v>
+      </c>
+      <c r="C316">
         <v>1.2</v>
       </c>
-      <c r="C316">
-        <v>4.8</v>
-      </c>
       <c r="D316">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,13 +5887,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.3</v>
+        <v>-2.4</v>
       </c>
       <c r="C317">
-        <v>5.1000000000000005</v>
+        <v>1.8</v>
       </c>
       <c r="D317">
-        <v>2.7</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5835,13 +5901,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>-0.7000000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D318">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5849,13 +5915,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>-1.8</v>
+        <v>-3.8000000000000003</v>
       </c>
       <c r="C319">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D319">
-        <v>0.5</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5863,13 +5929,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>-2.4</v>
+        <v>-4.5</v>
       </c>
       <c r="C320">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D320">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5877,10 +5943,10 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>-3.3000000000000003</v>
+        <v>-4.8</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="D321">
         <v>-1.2</v>
@@ -5891,13 +5957,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>-2.6</v>
+        <v>-4</v>
       </c>
       <c r="C322">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D322">
-        <v>-0.3</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5905,13 +5971,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>-2.6</v>
+        <v>-4.8</v>
       </c>
       <c r="C323">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D323">
-        <v>-0.7000000000000001</v>
+        <v>-1.9000000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5919,13 +5985,13 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>-3.1</v>
+        <v>-1.6</v>
       </c>
       <c r="C324">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D324">
-        <v>-1.5</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5933,13 +5999,13 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>-3.4</v>
+        <v>-0.4</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="D325">
-        <v>-1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,13 +6013,13 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>-2.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C326">
-        <v>1.4000000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="D326">
-        <v>-0.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5961,13 +6027,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>-2.2</v>
+        <v>-1.9000000000000001</v>
       </c>
       <c r="C327">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D327">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,13 +6041,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>-1.1</v>
+        <v>-2.2</v>
       </c>
       <c r="C328">
-        <v>2.5</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="D328">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5989,13 +6055,13 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>-2.1</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="C329">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6003,13 +6069,13 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="C330">
-        <v>-0.2</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="D330">
-        <v>-2.1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,13 +6083,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>-5.8</v>
+        <v>-2.1</v>
       </c>
       <c r="C331">
-        <v>-3.2</v>
+        <v>-0.1</v>
       </c>
       <c r="D331">
-        <v>-4.5</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,13 +6097,13 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>-5.7</v>
+        <v>-7.3</v>
       </c>
       <c r="C332">
-        <v>-2.1</v>
+        <v>-2.5</v>
       </c>
       <c r="D332">
-        <v>-3.9</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,13 +6111,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>-6.7</v>
+        <v>-9.700000000000001</v>
       </c>
       <c r="C333">
-        <v>-1.9000000000000001</v>
+        <v>-4.1</v>
       </c>
       <c r="D333">
-        <v>-4.3</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6059,13 +6125,321 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>-8.9</v>
+        <v>-9.700000000000001</v>
       </c>
       <c r="C334">
-        <v>-3.8000000000000003</v>
+        <v>-4.2</v>
       </c>
       <c r="D334">
-        <v>-6.4</v>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>-10.6</v>
+      </c>
+      <c r="C335">
+        <v>-3.5</v>
+      </c>
+      <c r="D335">
+        <v>-7.1000000000000005</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>-6.5</v>
+      </c>
+      <c r="C336">
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="D336">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>-7.3</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>-4.9</v>
+      </c>
+      <c r="C338">
+        <v>-0.4</v>
+      </c>
+      <c r="D338">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>-7</v>
+      </c>
+      <c r="C339">
+        <v>-2.3000000000000003</v>
+      </c>
+      <c r="D339">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>-2.7</v>
+      </c>
+      <c r="C340">
+        <v>0.6</v>
+      </c>
+      <c r="D340">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>-7.5</v>
+      </c>
+      <c r="C341">
+        <v>-1.2</v>
+      </c>
+      <c r="D341">
+        <v>-4.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>-9.700000000000001</v>
+      </c>
+      <c r="C342">
+        <v>-4.4</v>
+      </c>
+      <c r="D342">
+        <v>-7.1000000000000005</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>-12.5</v>
+      </c>
+      <c r="C343">
+        <v>-3.1</v>
+      </c>
+      <c r="D343">
+        <v>-7.8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>-14.3</v>
+      </c>
+      <c r="C344">
+        <v>1.7</v>
+      </c>
+      <c r="D344">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="C345">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="D345">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>-1.6</v>
+      </c>
+      <c r="C346">
+        <v>1.2</v>
+      </c>
+      <c r="D346">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>-1.5</v>
+      </c>
+      <c r="C347">
+        <v>4.5</v>
+      </c>
+      <c r="D347">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>-8.1</v>
+      </c>
+      <c r="C348">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="D348">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>-11.3</v>
+      </c>
+      <c r="C349">
+        <v>-6.2</v>
+      </c>
+      <c r="D349">
+        <v>-8.8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>-10</v>
+      </c>
+      <c r="C350">
+        <v>-1.5</v>
+      </c>
+      <c r="D350">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>-4.2</v>
+      </c>
+      <c r="C351">
+        <v>3</v>
+      </c>
+      <c r="D351">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>8.8</v>
+      </c>
+      <c r="D352">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7</v>
+      </c>
+      <c r="C353">
+        <v>12.200000000000001</v>
+      </c>
+      <c r="D353">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>6</v>
+      </c>
+      <c r="D354">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>-1.5</v>
+      </c>
+      <c r="C355">
+        <v>5.4</v>
+      </c>
+      <c r="D355">
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>-3</v>
+      </c>
+      <c r="C356">
+        <v>0.3</v>
+      </c>
+      <c r="D356">
+        <v>-1.3</v>
       </c>
     </row>
   </sheetData>

--- a/xls/tmp-export.xlsx
+++ b/xls/tmp-export.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="object 11" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="object 4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t>date time</t>
   </si>
@@ -1079,6 +1079,18 @@
   </si>
   <si>
     <t>02.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>03.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>04.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>05.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>06.03.23 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D356"/>
+  <dimension ref="A1:D360"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7.4</v>
+        <v>-8.700000000000001</v>
       </c>
       <c r="C2">
-        <v>-1.2</v>
+        <v>-0.4</v>
       </c>
       <c r="D2">
-        <v>-4.3</v>
+        <v>-4.6000000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,13 +1503,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-6.8</v>
+        <v>-6.3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="D3">
-        <v>-1.9000000000000001</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,10 +1520,10 @@
         <v>-3.1</v>
       </c>
       <c r="C4">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="D4">
-        <v>-0.4</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,13 +1531,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-6.3</v>
+        <v>-5.8</v>
       </c>
       <c r="C5">
-        <v>-1.4000000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="D5">
-        <v>-3.8000000000000003</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,13 +1545,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-8.2</v>
+        <v>-8.4</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D6">
-        <v>-6.1000000000000005</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,13 +1559,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7.5</v>
+        <v>-7.6000000000000005</v>
       </c>
       <c r="C7">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
       <c r="D7">
-        <v>-4.6000000000000005</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,13 +1573,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7.1000000000000005</v>
+        <v>-7.2</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-2.2</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-5.2</v>
+        <v>-5.7</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,13 +1601,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-3.2</v>
+        <v>-2.5</v>
       </c>
       <c r="C10">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="D10">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,13 +1615,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="D11">
-        <v>3.8000000000000003</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,13 +1629,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-2.7</v>
+        <v>-1.7</v>
       </c>
       <c r="C12">
         <v>10.4</v>
       </c>
       <c r="D12">
-        <v>3.8000000000000003</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,13 +1643,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-3.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C13">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>3.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,13 +1657,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="C14">
-        <v>10.3</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="D14">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,13 +1671,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-1.1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>13.700000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="D15">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,13 +1685,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="C16">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="D16">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,13 +1699,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="C17">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,13 +1713,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="C18">
-        <v>15.200000000000001</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="D18">
-        <v>8.700000000000001</v>
+        <v>7.6000000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,13 +1727,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>11.200000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,13 +1741,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6.6000000000000005</v>
+        <v>6.8</v>
       </c>
       <c r="C20">
-        <v>16.9</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="D20">
-        <v>11.8</v>
+        <v>11.200000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,13 +1755,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10.1</v>
+        <v>7.9</v>
       </c>
       <c r="C21">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D21">
-        <v>15.700000000000001</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,13 +1769,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>11.200000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C22">
-        <v>23.3</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>17.2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,13 +1783,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9.3</v>
+        <v>7.5</v>
       </c>
       <c r="C23">
-        <v>17.2</v>
+        <v>14.3</v>
       </c>
       <c r="D23">
-        <v>13.200000000000001</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,10 +1800,10 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>7.6000000000000005</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D24">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,13 +1811,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="C25">
-        <v>9.5</v>
+        <v>8.8</v>
       </c>
       <c r="D25">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,13 +1825,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C26">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D26">
-        <v>8.2</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,13 +1839,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="C27">
-        <v>18.8</v>
+        <v>17.1</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,13 +1853,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="C28">
-        <v>18.2</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="D28">
-        <v>12.5</v>
+        <v>10.700000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,13 +1867,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>9.8</v>
+        <v>7.4</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="D29">
-        <v>14.4</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,13 +1881,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="C30">
-        <v>21.8</v>
+        <v>19.6</v>
       </c>
       <c r="D30">
-        <v>15.1</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,13 +1895,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>13.3</v>
+        <v>10.5</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="D31">
-        <v>18.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,13 +1909,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="C32">
-        <v>18.6</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="D32">
-        <v>13.200000000000001</v>
+        <v>9.700000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,13 +1923,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="C33">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="D33">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,13 +1937,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4.3</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="C34">
-        <v>10.700000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="D34">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,13 +1951,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="C35">
-        <v>16.8</v>
+        <v>14.9</v>
       </c>
       <c r="D35">
-        <v>11.6</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,13 +1965,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="C36">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="D36">
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,13 +1979,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7.4</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="C37">
-        <v>17.8</v>
+        <v>15.1</v>
       </c>
       <c r="D37">
-        <v>12.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,13 +1993,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="C38">
-        <v>17.1</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="D38">
-        <v>14.200000000000001</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,13 +2007,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="C39">
-        <v>21.400000000000002</v>
+        <v>17.6</v>
       </c>
       <c r="D39">
-        <v>16.6</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,13 +2021,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="C40">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
       <c r="D40">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,13 +2035,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="C41">
-        <v>14.8</v>
+        <v>13.1</v>
       </c>
       <c r="D41">
-        <v>9.4</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,13 +2049,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8.3</v>
+        <v>7.3</v>
       </c>
       <c r="C42">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,13 +2063,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="C43">
-        <v>17.5</v>
+        <v>16.4</v>
       </c>
       <c r="D43">
-        <v>11.200000000000001</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,13 +2077,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="C44">
-        <v>17.2</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="D44">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,13 +2091,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>9.8</v>
+        <v>11.9</v>
       </c>
       <c r="C45">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="D45">
-        <v>16.3</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,13 +2105,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="C46">
-        <v>24.2</v>
+        <v>24.900000000000002</v>
       </c>
       <c r="D46">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,13 +2119,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>11.4</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="C47">
-        <v>22.3</v>
+        <v>19.400000000000002</v>
       </c>
       <c r="D47">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,13 +2133,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="C48">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="D48">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,13 +2147,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8.6</v>
+        <v>12.8</v>
       </c>
       <c r="C49">
-        <v>19.6</v>
+        <v>19.400000000000002</v>
       </c>
       <c r="D49">
-        <v>14.1</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,13 +2161,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>9.3</v>
+        <v>9.1</v>
       </c>
       <c r="C50">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="D50">
-        <v>12.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,13 +2175,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="D51">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,13 +2189,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="C52">
-        <v>16.3</v>
+        <v>14.5</v>
       </c>
       <c r="D52">
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,13 +2203,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5.2</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="C53">
-        <v>17.1</v>
+        <v>15.9</v>
       </c>
       <c r="D53">
-        <v>11.200000000000001</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,13 +2217,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="C54">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
       <c r="D54">
-        <v>12.200000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,10 +2234,10 @@
         <v>9.5</v>
       </c>
       <c r="C55">
-        <v>17.2</v>
+        <v>16.6</v>
       </c>
       <c r="D55">
-        <v>13.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,13 +2245,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="D56">
-        <v>10.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,13 +2259,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="C57">
-        <v>17.2</v>
+        <v>16.6</v>
       </c>
       <c r="D57">
-        <v>10.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,13 +2273,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="C58">
-        <v>19.5</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="D58">
-        <v>12</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,13 +2287,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7.8</v>
+        <v>9.9</v>
       </c>
       <c r="C59">
-        <v>22.8</v>
+        <v>21.6</v>
       </c>
       <c r="D59">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,13 +2301,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="C60">
-        <v>14.200000000000001</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,13 +2315,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2.3000000000000003</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>15.8</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,13 +2329,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="D62">
-        <v>15.200000000000001</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,7 +2346,7 @@
         <v>12.9</v>
       </c>
       <c r="C63">
-        <v>24.400000000000002</v>
+        <v>24.3</v>
       </c>
       <c r="D63">
         <v>18.6</v>
@@ -2345,13 +2357,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>10.4</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="C64">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D64">
-        <v>13.200000000000001</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,13 +2371,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>9.200000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="C65">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="D65">
-        <v>14.200000000000001</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,13 +2385,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="C66">
-        <v>18.400000000000002</v>
+        <v>18.1</v>
       </c>
       <c r="D66">
-        <v>13.200000000000001</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,13 +2399,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7.3</v>
+        <v>10.4</v>
       </c>
       <c r="C67">
-        <v>18.400000000000002</v>
+        <v>17.7</v>
       </c>
       <c r="D67">
-        <v>12.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,13 +2413,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>8.2</v>
+        <v>9.5</v>
       </c>
       <c r="C68">
-        <v>16.3</v>
+        <v>14.4</v>
       </c>
       <c r="D68">
-        <v>12.200000000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,13 +2427,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>9.200000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C69">
-        <v>13.700000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="D69">
-        <v>11.4</v>
+        <v>11.200000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,10 +2441,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="C70">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="D70">
         <v>14.8</v>
@@ -2443,13 +2455,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C71">
-        <v>20.8</v>
+        <v>23.2</v>
       </c>
       <c r="D71">
-        <v>15.4</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,13 +2469,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>18.6</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="D72">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,13 +2483,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>8.6</v>
+        <v>9.3</v>
       </c>
       <c r="C73">
-        <v>17.8</v>
+        <v>16.8</v>
       </c>
       <c r="D73">
-        <v>13.200000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,13 +2497,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>6.8</v>
+        <v>9.3</v>
       </c>
       <c r="C74">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="D74">
-        <v>13.200000000000001</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,13 +2511,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
       <c r="C75">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="D75">
-        <v>14.8</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,13 +2525,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
       <c r="C76">
-        <v>24.3</v>
+        <v>22.8</v>
       </c>
       <c r="D76">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,13 +2539,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>22.900000000000002</v>
+        <v>22.1</v>
       </c>
       <c r="D77">
-        <v>17.2</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,13 +2553,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>12.3</v>
+        <v>13.3</v>
       </c>
       <c r="C78">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="D78">
-        <v>18.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2558,10 +2570,10 @@
         <v>13.9</v>
       </c>
       <c r="C79">
-        <v>25.3</v>
+        <v>23.900000000000002</v>
       </c>
       <c r="D79">
-        <v>19.6</v>
+        <v>18.900000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,13 +2581,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>11.5</v>
+        <v>13.3</v>
       </c>
       <c r="C80">
-        <v>27.1</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="D80">
-        <v>19.3</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,13 +2595,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>15.8</v>
+        <v>18.1</v>
       </c>
       <c r="C81">
-        <v>28.400000000000002</v>
+        <v>30.3</v>
       </c>
       <c r="D81">
-        <v>22.1</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,13 +2609,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>17.6</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="C82">
-        <v>28.5</v>
+        <v>29.6</v>
       </c>
       <c r="D82">
-        <v>23</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,13 +2623,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>15.700000000000001</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>30</v>
+        <v>30.8</v>
       </c>
       <c r="D83">
-        <v>22.8</v>
+        <v>24.400000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,13 +2637,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>16.7</v>
+        <v>18.8</v>
       </c>
       <c r="C84">
-        <v>30.900000000000002</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="D84">
-        <v>23.8</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,13 +2651,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>16.1</v>
+        <v>17.8</v>
       </c>
       <c r="C85">
-        <v>28.8</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="D85">
-        <v>22.5</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,13 +2665,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>15.6</v>
+        <v>17.6</v>
       </c>
       <c r="C86">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="D86">
-        <v>21.6</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,13 +2679,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>13.1</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="C87">
-        <v>25.7</v>
+        <v>24.7</v>
       </c>
       <c r="D87">
-        <v>19.400000000000002</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,13 +2693,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>12.6</v>
+        <v>15.1</v>
       </c>
       <c r="C88">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="D88">
-        <v>19.7</v>
+        <v>20.400000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,13 +2707,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>13.6</v>
+        <v>16.2</v>
       </c>
       <c r="C89">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,13 +2721,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="C90">
-        <v>27.900000000000002</v>
+        <v>27.3</v>
       </c>
       <c r="D90">
-        <v>21.2</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,13 +2735,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>13.9</v>
+        <v>16.7</v>
       </c>
       <c r="C91">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="D91">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,13 +2749,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>15.700000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="C92">
-        <v>31.900000000000002</v>
+        <v>30.1</v>
       </c>
       <c r="D92">
-        <v>23.8</v>
+        <v>24.400000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,10 +2763,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>18.2</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="C93">
-        <v>31.900000000000002</v>
+        <v>30</v>
       </c>
       <c r="D93">
         <v>25</v>
@@ -2765,13 +2777,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>16.6</v>
+        <v>18.6</v>
       </c>
       <c r="C94">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="D94">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,13 +2791,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>16.2</v>
+        <v>19.3</v>
       </c>
       <c r="C95">
-        <v>31.900000000000002</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="D95">
-        <v>24</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,13 +2805,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>16.5</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="C96">
-        <v>25.2</v>
+        <v>21.2</v>
       </c>
       <c r="D96">
-        <v>20.8</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,13 +2819,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="C97">
-        <v>24.7</v>
+        <v>23.900000000000002</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,13 +2833,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>12.8</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C98">
-        <v>27.1</v>
+        <v>25.7</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,13 +2847,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>15.200000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="C99">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="D99">
-        <v>21.400000000000002</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,13 +2861,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>14.700000000000001</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C100">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="D100">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,13 +2875,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>16.6</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="C101">
-        <v>31.6</v>
+        <v>30.6</v>
       </c>
       <c r="D101">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,10 +2889,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>17.900000000000002</v>
+        <v>19.6</v>
       </c>
       <c r="C102">
-        <v>32.8</v>
+        <v>31</v>
       </c>
       <c r="D102">
         <v>25.3</v>
@@ -2891,13 +2903,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>16.8</v>
+        <v>14.9</v>
       </c>
       <c r="C103">
-        <v>27.1</v>
+        <v>23.900000000000002</v>
       </c>
       <c r="D103">
-        <v>22</v>
+        <v>19.400000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,13 +2917,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>13.4</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="C104">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
       <c r="D104">
-        <v>18.400000000000002</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,13 +2931,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>11.8</v>
+        <v>13.1</v>
       </c>
       <c r="C105">
-        <v>26.400000000000002</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="D105">
-        <v>19.1</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,13 +2945,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>14.6</v>
+        <v>15.8</v>
       </c>
       <c r="C106">
-        <v>27</v>
+        <v>23.6</v>
       </c>
       <c r="D106">
-        <v>20.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,13 +2959,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>15.3</v>
+        <v>17</v>
       </c>
       <c r="C107">
-        <v>30.1</v>
+        <v>28.7</v>
       </c>
       <c r="D107">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,13 +2973,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>17.400000000000002</v>
+        <v>20.1</v>
       </c>
       <c r="C108">
-        <v>31.2</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="D108">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,13 +2987,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>15.6</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>33.2</v>
+        <v>31.400000000000002</v>
       </c>
       <c r="D109">
-        <v>24.400000000000002</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,13 +3001,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="C110">
-        <v>29.6</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="D110">
-        <v>24</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,13 +3015,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>14.700000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="C111">
-        <v>28.3</v>
+        <v>27.400000000000002</v>
       </c>
       <c r="D111">
-        <v>21.5</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,13 +3029,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>14.700000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="C112">
-        <v>28.900000000000002</v>
+        <v>28</v>
       </c>
       <c r="D112">
-        <v>21.8</v>
+        <v>22.900000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,13 +3043,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>9.200000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="C113">
-        <v>24.900000000000002</v>
+        <v>24.1</v>
       </c>
       <c r="D113">
-        <v>17</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,13 +3057,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>12.700000000000001</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="C114">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="D114">
-        <v>20.400000000000002</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,13 +3071,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>15.4</v>
+        <v>17.8</v>
       </c>
       <c r="C115">
-        <v>32</v>
+        <v>30.3</v>
       </c>
       <c r="D115">
-        <v>23.7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,13 +3085,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>18.400000000000002</v>
+        <v>22</v>
       </c>
       <c r="C116">
-        <v>32.5</v>
+        <v>31.400000000000002</v>
       </c>
       <c r="D116">
-        <v>25.400000000000002</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,13 +3099,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>17.8</v>
+        <v>21.8</v>
       </c>
       <c r="C117">
-        <v>33.2</v>
+        <v>32.6</v>
       </c>
       <c r="D117">
-        <v>25.5</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,13 +3113,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>17.2</v>
+        <v>20.900000000000002</v>
       </c>
       <c r="C118">
-        <v>33</v>
+        <v>32.4</v>
       </c>
       <c r="D118">
-        <v>25.1</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,13 +3127,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>17.6</v>
+        <v>21.3</v>
       </c>
       <c r="C119">
-        <v>32.7</v>
+        <v>31.5</v>
       </c>
       <c r="D119">
-        <v>25.2</v>
+        <v>26.400000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,13 +3141,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>18.3</v>
+        <v>22.3</v>
       </c>
       <c r="C120">
-        <v>34.1</v>
+        <v>33</v>
       </c>
       <c r="D120">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,13 +3155,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>19.400000000000002</v>
+        <v>19.8</v>
       </c>
       <c r="C121">
-        <v>33.1</v>
+        <v>31.400000000000002</v>
       </c>
       <c r="D121">
-        <v>26.2</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,13 +3169,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>20.6</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="C122">
-        <v>27.400000000000002</v>
+        <v>22.2</v>
       </c>
       <c r="D122">
-        <v>24</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,13 +3183,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>15.700000000000001</v>
+        <v>16.4</v>
       </c>
       <c r="C123">
-        <v>28.400000000000002</v>
+        <v>25.7</v>
       </c>
       <c r="D123">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,13 +3197,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>15.3</v>
+        <v>18.1</v>
       </c>
       <c r="C124">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D124">
-        <v>22.6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,13 +3211,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="C125">
-        <v>24.900000000000002</v>
+        <v>23.7</v>
       </c>
       <c r="D125">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,13 +3225,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>13.200000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="C126">
-        <v>30</v>
+        <v>28.7</v>
       </c>
       <c r="D126">
-        <v>21.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,13 +3239,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="C127">
-        <v>32.2</v>
+        <v>30.8</v>
       </c>
       <c r="D127">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,13 +3253,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>16.2</v>
+        <v>19.1</v>
       </c>
       <c r="C128">
-        <v>31.7</v>
+        <v>29.8</v>
       </c>
       <c r="D128">
-        <v>24</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,13 +3267,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>16.7</v>
+        <v>16.1</v>
       </c>
       <c r="C129">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="D129">
-        <v>21.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,13 +3281,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>12.200000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="C130">
-        <v>27.1</v>
+        <v>25.900000000000002</v>
       </c>
       <c r="D130">
-        <v>19.6</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,13 +3295,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>14.1</v>
+        <v>17.8</v>
       </c>
       <c r="C131">
-        <v>28.400000000000002</v>
+        <v>27.400000000000002</v>
       </c>
       <c r="D131">
-        <v>21.2</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,13 +3309,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>14.200000000000001</v>
+        <v>15</v>
       </c>
       <c r="C132">
-        <v>23.8</v>
+        <v>22.5</v>
       </c>
       <c r="D132">
-        <v>19</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,13 +3323,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>13.6</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C133">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D133">
-        <v>18.6</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,13 +3337,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>12.1</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="C134">
-        <v>24.400000000000002</v>
+        <v>22.7</v>
       </c>
       <c r="D134">
-        <v>18.2</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,13 +3351,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>14.3</v>
+        <v>16.2</v>
       </c>
       <c r="C135">
-        <v>28.3</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="D135">
-        <v>21.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,13 +3365,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>17.7</v>
+        <v>18.8</v>
       </c>
       <c r="C136">
-        <v>30.8</v>
+        <v>28.7</v>
       </c>
       <c r="D136">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,13 +3379,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>16.1</v>
+        <v>17.1</v>
       </c>
       <c r="C137">
-        <v>28.1</v>
+        <v>25.900000000000002</v>
       </c>
       <c r="D137">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,13 +3393,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="C138">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="D138">
-        <v>23.3</v>
+        <v>23.400000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,13 +3407,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>18.900000000000002</v>
+        <v>21.2</v>
       </c>
       <c r="C139">
-        <v>33.2</v>
+        <v>31.8</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,13 +3421,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>20.2</v>
+        <v>20.900000000000002</v>
       </c>
       <c r="C140">
-        <v>32.2</v>
+        <v>30.7</v>
       </c>
       <c r="D140">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,13 +3435,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>18.1</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="C141">
-        <v>30.900000000000002</v>
+        <v>29.6</v>
       </c>
       <c r="D141">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,13 +3449,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>17.1</v>
+        <v>20.3</v>
       </c>
       <c r="C142">
-        <v>31.900000000000002</v>
+        <v>31.7</v>
       </c>
       <c r="D142">
-        <v>24.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,13 +3463,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>17.900000000000002</v>
+        <v>21.7</v>
       </c>
       <c r="C143">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="D143">
-        <v>25.900000000000002</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,13 +3477,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
       <c r="C144">
-        <v>32.7</v>
+        <v>27.5</v>
       </c>
       <c r="D144">
-        <v>26.900000000000002</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,13 +3491,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>18.7</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="C145">
-        <v>31.3</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="D145">
-        <v>25</v>
+        <v>24.900000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,13 +3505,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>19.1</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="C146">
-        <v>32</v>
+        <v>30.1</v>
       </c>
       <c r="D146">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,13 +3519,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>19.400000000000002</v>
+        <v>21</v>
       </c>
       <c r="C147">
-        <v>25.400000000000002</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="D147">
-        <v>22.400000000000002</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,13 +3533,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>19.6</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="C148">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="D148">
-        <v>26.400000000000002</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,13 +3547,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>18.900000000000002</v>
+        <v>23.3</v>
       </c>
       <c r="C149">
-        <v>34.5</v>
+        <v>33.2</v>
       </c>
       <c r="D149">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,13 +3561,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>20.3</v>
+        <v>24</v>
       </c>
       <c r="C150">
         <v>35</v>
       </c>
       <c r="D150">
-        <v>27.6</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,13 +3575,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="C151">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D151">
-        <v>27.1</v>
+        <v>26.900000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,13 +3589,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C152">
-        <v>35.2</v>
+        <v>34.6</v>
       </c>
       <c r="D152">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,13 +3603,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>23.3</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="C153">
-        <v>34.800000000000004</v>
+        <v>34.7</v>
       </c>
       <c r="D153">
-        <v>29</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,13 +3617,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>24.3</v>
+        <v>23.900000000000002</v>
       </c>
       <c r="C154">
-        <v>34.1</v>
+        <v>30.8</v>
       </c>
       <c r="D154">
-        <v>29.2</v>
+        <v>27.400000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,13 +3631,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>23.8</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="C155">
-        <v>34.4</v>
+        <v>32.2</v>
       </c>
       <c r="D155">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,13 +3645,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>23.6</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="C156">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="D156">
-        <v>29</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,13 +3659,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>22.6</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="C157">
-        <v>37.1</v>
+        <v>36.7</v>
       </c>
       <c r="D157">
-        <v>29.8</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,13 +3673,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>24.5</v>
+        <v>21.8</v>
       </c>
       <c r="C158">
-        <v>34.5</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="D158">
-        <v>29.5</v>
+        <v>26.400000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,13 +3687,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="C159">
-        <v>35</v>
+        <v>31.1</v>
       </c>
       <c r="D159">
-        <v>28.2</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,13 +3701,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="C160">
-        <v>32.7</v>
+        <v>30.5</v>
       </c>
       <c r="D160">
-        <v>27.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,13 +3715,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>19</v>
+        <v>20.3</v>
       </c>
       <c r="C161">
-        <v>30.8</v>
+        <v>30.1</v>
       </c>
       <c r="D161">
-        <v>24.900000000000002</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,13 +3729,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>18.7</v>
+        <v>21.1</v>
       </c>
       <c r="C162">
-        <v>26.7</v>
+        <v>24.900000000000002</v>
       </c>
       <c r="D162">
-        <v>22.7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,13 +3743,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>19.5</v>
+        <v>19.400000000000002</v>
       </c>
       <c r="C163">
-        <v>29.900000000000002</v>
+        <v>28.3</v>
       </c>
       <c r="D163">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,13 +3757,13 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="C164">
-        <v>33.2</v>
+        <v>31.8</v>
       </c>
       <c r="D164">
-        <v>26</v>
+        <v>25.400000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,10 +3771,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="C165">
-        <v>33.5</v>
+        <v>32.9</v>
       </c>
       <c r="D165">
         <v>27</v>
@@ -3773,13 +3785,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="C166">
-        <v>32.7</v>
+        <v>31.7</v>
       </c>
       <c r="D166">
-        <v>26.400000000000002</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,13 +3799,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>19.6</v>
+        <v>20.8</v>
       </c>
       <c r="C167">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="D167">
-        <v>26</v>
+        <v>26.400000000000002</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,13 +3813,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>19.8</v>
+        <v>21.1</v>
       </c>
       <c r="C168">
-        <v>31.2</v>
+        <v>30.5</v>
       </c>
       <c r="D168">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,10 +3827,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>19.1</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="C169">
-        <v>32.7</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="D169">
         <v>25.900000000000002</v>
@@ -3829,13 +3841,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>21.900000000000002</v>
+        <v>21.1</v>
       </c>
       <c r="C170">
-        <v>31.5</v>
+        <v>30.3</v>
       </c>
       <c r="D170">
-        <v>26.7</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,13 +3855,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>20.400000000000002</v>
+        <v>20.7</v>
       </c>
       <c r="C171">
-        <v>32.9</v>
+        <v>31.7</v>
       </c>
       <c r="D171">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,13 +3869,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>15.5</v>
+        <v>19.2</v>
       </c>
       <c r="C172">
-        <v>33.4</v>
+        <v>32.3</v>
       </c>
       <c r="D172">
-        <v>24.400000000000002</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,13 +3883,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>17.6</v>
+        <v>20.1</v>
       </c>
       <c r="C173">
-        <v>33.3</v>
+        <v>32.2</v>
       </c>
       <c r="D173">
-        <v>25.400000000000002</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,13 +3897,13 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>18.7</v>
+        <v>16.9</v>
       </c>
       <c r="C174">
-        <v>25.400000000000002</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="D174">
-        <v>22</v>
+        <v>21.900000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,13 +3911,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C175">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="D175">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,13 +3925,13 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>11.5</v>
+        <v>13.1</v>
       </c>
       <c r="C176">
-        <v>23.400000000000002</v>
+        <v>24.3</v>
       </c>
       <c r="D176">
-        <v>17.400000000000002</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,13 +3939,13 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>9.8</v>
+        <v>10.5</v>
       </c>
       <c r="C177">
-        <v>16.7</v>
+        <v>19.2</v>
       </c>
       <c r="D177">
-        <v>13.200000000000001</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,13 +3953,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>6</v>
+        <v>9.3</v>
       </c>
       <c r="C178">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D178">
-        <v>12.6</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,13 +3967,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>8.2</v>
       </c>
       <c r="C179">
-        <v>17.1</v>
+        <v>16.5</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,13 +3981,13 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="C180">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="D180">
-        <v>12.4</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,13 +3995,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7.7</v>
+        <v>9.3</v>
       </c>
       <c r="C181">
-        <v>19.900000000000002</v>
+        <v>19.2</v>
       </c>
       <c r="D181">
-        <v>13.8</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,13 +4009,13 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>9.700000000000001</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="C182">
-        <v>19.900000000000002</v>
+        <v>20.8</v>
       </c>
       <c r="D182">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,13 +4023,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>5.6000000000000005</v>
+        <v>9.6</v>
       </c>
       <c r="C183">
-        <v>18.900000000000002</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="D183">
-        <v>12.200000000000001</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,13 +4037,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>8</v>
+        <v>11.3</v>
       </c>
       <c r="C184">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="D184">
-        <v>14.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4039,13 +4051,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>12.700000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="C185">
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
       <c r="D185">
-        <v>14.4</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4053,13 +4065,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="C186">
-        <v>20.900000000000002</v>
+        <v>20.1</v>
       </c>
       <c r="D186">
-        <v>17</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4067,13 +4079,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>12.5</v>
+        <v>11.8</v>
       </c>
       <c r="C187">
-        <v>17.900000000000002</v>
+        <v>16.7</v>
       </c>
       <c r="D187">
-        <v>15.200000000000001</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4081,13 +4093,13 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="C188">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="D188">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,13 +4107,13 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>17.1</v>
+        <v>16.5</v>
       </c>
       <c r="C189">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="D189">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,13 +4121,13 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="C190">
-        <v>23.400000000000002</v>
+        <v>23.2</v>
       </c>
       <c r="D190">
-        <v>19</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4123,13 +4135,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>17.900000000000002</v>
+        <v>18.3</v>
       </c>
       <c r="C191">
-        <v>29.900000000000002</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="D191">
-        <v>23.900000000000002</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,13 +4149,13 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C192">
-        <v>22.2</v>
+        <v>19.5</v>
       </c>
       <c r="D192">
-        <v>16.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,13 +4163,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>10.200000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="C193">
-        <v>22.400000000000002</v>
+        <v>21.5</v>
       </c>
       <c r="D193">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,13 +4177,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="C194">
-        <v>21.7</v>
+        <v>17.8</v>
       </c>
       <c r="D194">
-        <v>16.2</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,13 +4191,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="C195">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="D195">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,13 +4205,13 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>8.3</v>
+        <v>8.1</v>
       </c>
       <c r="C196">
-        <v>14.700000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="D196">
-        <v>11.5</v>
+        <v>11.700000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,13 +4219,13 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="C197">
-        <v>16.3</v>
+        <v>14.1</v>
       </c>
       <c r="D197">
-        <v>12.200000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,13 +4233,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="C198">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="D198">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,13 +4247,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>9.8</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="C199">
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="D199">
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,13 +4261,13 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>13.9</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="C200">
-        <v>20.6</v>
+        <v>19.8</v>
       </c>
       <c r="D200">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,13 +4275,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>15.3</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C201">
-        <v>20.400000000000002</v>
+        <v>19</v>
       </c>
       <c r="D201">
-        <v>17.8</v>
+        <v>17.400000000000002</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,13 +4289,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>13.4</v>
+        <v>14.1</v>
       </c>
       <c r="C202">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="D202">
-        <v>17.400000000000002</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4291,13 +4303,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="C203">
-        <v>24.1</v>
+        <v>22.7</v>
       </c>
       <c r="D203">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,13 +4317,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="C204">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="D204">
-        <v>20.400000000000002</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,13 +4331,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="C205">
-        <v>25.6</v>
+        <v>22.7</v>
       </c>
       <c r="D205">
-        <v>21</v>
+        <v>19.400000000000002</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4333,13 +4345,13 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>10.4</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="C206">
-        <v>18.400000000000002</v>
+        <v>16.5</v>
       </c>
       <c r="D206">
-        <v>14.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,13 +4359,13 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="C207">
-        <v>18.6</v>
+        <v>16.5</v>
       </c>
       <c r="D207">
-        <v>14.4</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,13 +4373,13 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="C208">
-        <v>16.1</v>
+        <v>15.1</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4375,13 +4387,13 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="C209">
-        <v>16.9</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="D209">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,13 +4401,13 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="C210">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="D210">
-        <v>14.200000000000001</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,13 +4415,13 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>8.2</v>
+        <v>10.3</v>
       </c>
       <c r="C211">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="D211">
-        <v>14.200000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4417,13 +4429,13 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>9.6</v>
+        <v>11.1</v>
       </c>
       <c r="C212">
-        <v>19.1</v>
+        <v>18.5</v>
       </c>
       <c r="D212">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,13 +4443,13 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="C213">
-        <v>15.9</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="D213">
-        <v>13.4</v>
+        <v>12.700000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,13 +4457,13 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="C214">
-        <v>10.700000000000001</v>
+        <v>11</v>
       </c>
       <c r="D214">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,10 +4471,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="C215">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="D215">
         <v>10.200000000000001</v>
@@ -4473,10 +4485,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C216">
-        <v>12.700000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="D216">
         <v>8.4</v>
@@ -4487,13 +4499,13 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C217">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="D217">
-        <v>7.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4501,13 +4513,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C218">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D218">
-        <v>6.6000000000000005</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,13 +4527,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C219">
-        <v>10.8</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="D219">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,13 +4541,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>3.8000000000000003</v>
+        <v>5.7</v>
       </c>
       <c r="C220">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="D220">
-        <v>8.6</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4543,13 +4555,13 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>6.1000000000000005</v>
+        <v>6.3</v>
       </c>
       <c r="C221">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D221">
-        <v>10.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4557,13 +4569,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>8.3</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="C222">
-        <v>15.6</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,13 +4583,13 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>8.700000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="C223">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
       <c r="D223">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4585,13 +4597,13 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="C224">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="D224">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4599,13 +4611,13 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="C225">
-        <v>10</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="D225">
-        <v>6.1000000000000005</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4613,13 +4625,13 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>5.6000000000000005</v>
+        <v>6.8</v>
       </c>
       <c r="C226">
-        <v>12.3</v>
+        <v>11.4</v>
       </c>
       <c r="D226">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4627,13 +4639,13 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>8.700000000000001</v>
+        <v>9</v>
       </c>
       <c r="C227">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="D227">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,13 +4653,13 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C228">
-        <v>14.200000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="D228">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,10 +4667,10 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="C229">
-        <v>11.1</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="D229">
         <v>10.5</v>
@@ -4669,13 +4681,13 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="C230">
-        <v>11.200000000000001</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="D230">
-        <v>9.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,13 +4695,13 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="C231">
-        <v>7.6000000000000005</v>
+        <v>10.8</v>
       </c>
       <c r="D231">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,13 +4709,13 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C232">
-        <v>10.3</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="D232">
-        <v>8.4</v>
+        <v>9.700000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,13 +4723,13 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="C233">
-        <v>13.6</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="D233">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4725,13 +4737,13 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>2.2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C234">
         <v>9.8</v>
       </c>
       <c r="D234">
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,13 +4751,13 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C235">
-        <v>6.4</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="D235">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4753,13 +4765,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>1.8</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="C236">
-        <v>7</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="D236">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,13 +4779,13 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="C237">
-        <v>8.4</v>
+        <v>9.3</v>
       </c>
       <c r="D237">
-        <v>5.6000000000000005</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,13 +4793,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="C238">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="D238">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,13 +4807,13 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="C239">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="D239">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,13 +4821,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="C240">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D240">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,13 +4835,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>-0.2</v>
+        <v>1.1</v>
       </c>
       <c r="C241">
-        <v>5.7</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D241">
-        <v>2.8000000000000003</v>
+        <v>3.3000000000000003</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4837,13 +4849,13 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>-0.3</v>
+        <v>1.2</v>
       </c>
       <c r="C242">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="D242">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,13 +4863,13 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>2.8000000000000003</v>
+        <v>3.4</v>
       </c>
       <c r="C243">
-        <v>9.6</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="D243">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,13 +4877,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>4.6000000000000005</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="C244">
-        <v>11.3</v>
+        <v>9.8</v>
       </c>
       <c r="D244">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,13 +4891,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>3.5</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="C245">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="D245">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4893,13 +4905,13 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="C246">
-        <v>9.6</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="D246">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,13 +4919,13 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="C247">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D247">
-        <v>9.4</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4921,13 +4933,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.9</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C248">
-        <v>7.1000000000000005</v>
+        <v>7.2</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,13 +4947,13 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-2.3000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C249">
-        <v>2.8000000000000003</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="D249">
-        <v>0.3</v>
+        <v>2.3000000000000003</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,13 +4961,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>-1.1</v>
+        <v>0.6</v>
       </c>
       <c r="C250">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D250">
-        <v>2.2</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,13 +4975,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="C251">
-        <v>9.5</v>
+        <v>9.3</v>
       </c>
       <c r="D251">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4977,13 +4989,13 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.3</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C252">
-        <v>11</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="D252">
-        <v>5.6000000000000005</v>
+        <v>6.1000000000000005</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,13 +5003,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="C253">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="D253">
-        <v>5.8</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,13 +5017,13 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="C254">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="D254">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,10 +5031,10 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>6.6000000000000005</v>
+        <v>7.4</v>
       </c>
       <c r="C255">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="D255">
         <v>10.5</v>
@@ -5033,13 +5045,13 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="C256">
-        <v>13.200000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="D256">
-        <v>11.3</v>
+        <v>7.6000000000000005</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,13 +5059,13 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C257">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D257">
-        <v>3.5</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,13 +5073,13 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="C258">
-        <v>6.6000000000000005</v>
+        <v>8.1</v>
       </c>
       <c r="D258">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,13 +5087,13 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C259">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="D259">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,13 +5101,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="C260">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="D260">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,13 +5115,13 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="C261">
-        <v>3.8000000000000003</v>
+        <v>5</v>
       </c>
       <c r="D261">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,13 +5129,13 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>-0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C262">
         <v>3.5</v>
       </c>
       <c r="D262">
-        <v>1.4000000000000001</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5131,13 +5143,13 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>-2.8000000000000003</v>
+        <v>-1.1</v>
       </c>
       <c r="C263">
-        <v>1.9000000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="D263">
-        <v>-0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5145,13 +5157,13 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>-3.2</v>
+        <v>-1.8</v>
       </c>
       <c r="C264">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D264">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5159,13 +5171,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>-3.6</v>
+        <v>-1.7</v>
       </c>
       <c r="C265">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>-1.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,13 +5185,13 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>-2.8000000000000003</v>
+        <v>-1.3</v>
       </c>
       <c r="C266">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="D266">
-        <v>-1.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,13 +5199,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>-5.3</v>
+        <v>-4.1</v>
       </c>
       <c r="C267">
-        <v>-1.4000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="D267">
-        <v>-3.3000000000000003</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,13 +5213,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>-8.700000000000001</v>
+        <v>-7</v>
       </c>
       <c r="C268">
-        <v>-4.5</v>
+        <v>-3.4</v>
       </c>
       <c r="D268">
-        <v>-6.6000000000000005</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5215,13 +5227,13 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>-9</v>
+        <v>-7.5</v>
       </c>
       <c r="C269">
-        <v>-3.8000000000000003</v>
+        <v>-2.8000000000000003</v>
       </c>
       <c r="D269">
-        <v>-6.4</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,13 +5241,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>-7.8</v>
+        <v>-6.4</v>
       </c>
       <c r="C270">
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="D270">
-        <v>-5.2</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,13 +5255,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>-8</v>
+        <v>-6.8</v>
       </c>
       <c r="C271">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D271">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5257,13 +5269,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>-5.4</v>
+        <v>-4.1</v>
       </c>
       <c r="C272">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D272">
-        <v>-2.6</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,13 +5283,13 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>-1.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C273">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D273">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5285,13 +5297,13 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>1.9000000000000001</v>
+        <v>2</v>
       </c>
       <c r="C274">
-        <v>5.6000000000000005</v>
+        <v>6</v>
       </c>
       <c r="D274">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,13 +5311,13 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C275">
-        <v>8.4</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="D275">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5313,13 +5325,13 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="C276">
         <v>6.1000000000000005</v>
       </c>
       <c r="D276">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,13 +5339,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>3.2</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="C277">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,13 +5353,13 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>-2.1</v>
+        <v>-1.2</v>
       </c>
       <c r="C278">
-        <v>3.8000000000000003</v>
+        <v>1.3</v>
       </c>
       <c r="D278">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,13 +5367,13 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>-2.7</v>
+        <v>-1.7</v>
       </c>
       <c r="C279">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="D279">
-        <v>-0.7000000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,13 +5381,13 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C280">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D280">
-        <v>1.4000000000000001</v>
+        <v>1.9000000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5383,13 +5395,13 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C281">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="D281">
-        <v>6.3</v>
+        <v>6.1000000000000005</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5397,13 +5409,13 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>-0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="C282">
-        <v>9.6</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="D282">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5411,13 +5423,13 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>-2.6</v>
+        <v>-3.1</v>
       </c>
       <c r="C283">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D283">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,13 +5437,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>-4.4</v>
+        <v>-3.2</v>
       </c>
       <c r="C284">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D284">
-        <v>-1.9000000000000001</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,13 +5451,13 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>-0.7000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="C285">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D285">
-        <v>1.4000000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,13 +5465,13 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C286">
-        <v>6.1000000000000005</v>
+        <v>5</v>
       </c>
       <c r="D286">
-        <v>3.8000000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5470,10 +5482,10 @@
         <v>1.1</v>
       </c>
       <c r="C287">
-        <v>5.6000000000000005</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="D287">
-        <v>3.4</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,13 +5493,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="C288">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D288">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,13 +5507,13 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>1.3</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C289">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="D289">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5509,13 +5521,13 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="C290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D290">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,13 +5535,13 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="C291">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D291">
-        <v>3.3000000000000003</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,13 +5549,13 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>1.4000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C292">
-        <v>5.7</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="D292">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,10 +5563,10 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="C293">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D293">
         <v>0.9</v>
@@ -5565,13 +5577,13 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="C294">
-        <v>5.9</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D294">
-        <v>3.6</v>
+        <v>3.3000000000000003</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,13 +5591,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>1.9000000000000001</v>
+        <v>2</v>
       </c>
       <c r="C295">
-        <v>6.8</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="D295">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5593,13 +5605,13 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>1.9000000000000001</v>
+        <v>2</v>
       </c>
       <c r="C296">
-        <v>8.3</v>
+        <v>7.8</v>
       </c>
       <c r="D296">
-        <v>5.1000000000000005</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,13 +5619,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C297">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="D297">
-        <v>8.6</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,13 +5633,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C298">
-        <v>11.200000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="D298">
-        <v>8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,13 +5647,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C299">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="D299">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,10 +5661,10 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="C300">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D300">
         <v>1.6</v>
@@ -5663,13 +5675,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>-7.2</v>
+        <v>-5.7</v>
       </c>
       <c r="C301">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="D301">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,13 +5689,13 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>-12</v>
+        <v>-9.6</v>
       </c>
       <c r="C302">
-        <v>-8.700000000000001</v>
+        <v>-7</v>
       </c>
       <c r="D302">
-        <v>-10.4</v>
+        <v>-8.3</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,13 +5703,13 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>-15.200000000000001</v>
+        <v>-12.3</v>
       </c>
       <c r="C303">
-        <v>-10.9</v>
+        <v>-8.8</v>
       </c>
       <c r="D303">
-        <v>-13.1</v>
+        <v>-10.6</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,13 +5717,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>-14.3</v>
+        <v>-11.4</v>
       </c>
       <c r="C304">
-        <v>-7.5</v>
+        <v>-6.7</v>
       </c>
       <c r="D304">
-        <v>-10.9</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,13 +5731,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>-13.700000000000001</v>
+        <v>-11.9</v>
       </c>
       <c r="C305">
-        <v>-10.4</v>
+        <v>-8.8</v>
       </c>
       <c r="D305">
-        <v>-12.1</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,13 +5745,13 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>-14.200000000000001</v>
+        <v>-12.4</v>
       </c>
       <c r="C306">
-        <v>-8.8</v>
+        <v>-7.8</v>
       </c>
       <c r="D306">
-        <v>-11.5</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5747,13 +5759,13 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>-10.6</v>
+        <v>-9.700000000000001</v>
       </c>
       <c r="C307">
-        <v>-4.7</v>
+        <v>-4.6000000000000005</v>
       </c>
       <c r="D307">
-        <v>-7.6000000000000005</v>
+        <v>-7.1000000000000005</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,13 +5773,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>-6.1000000000000005</v>
+        <v>-5.5</v>
       </c>
       <c r="C308">
-        <v>-2.4</v>
+        <v>-1.2</v>
       </c>
       <c r="D308">
-        <v>-4.3</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,13 +5787,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>-4.3</v>
+        <v>-3.2</v>
       </c>
       <c r="C309">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="D309">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,13 +5801,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>-4.8</v>
+        <v>-3.2</v>
       </c>
       <c r="C310">
-        <v>-0.5</v>
+        <v>-1.3</v>
       </c>
       <c r="D310">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,13 +5815,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>-5.5</v>
+        <v>-4.2</v>
       </c>
       <c r="C311">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="D311">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5817,13 +5829,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>-5.3</v>
+        <v>-4.1</v>
       </c>
       <c r="C312">
-        <v>1.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D312">
-        <v>-2.1</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5831,13 +5843,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>-1.5</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="C313">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="D313">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5845,10 +5857,10 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C314">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D314">
         <v>2.6</v>
@@ -5859,13 +5871,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>-1.3</v>
+        <v>0.1</v>
       </c>
       <c r="C315">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D315">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,13 +5885,13 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>-3.1</v>
+        <v>-1</v>
       </c>
       <c r="C316">
         <v>1.2</v>
       </c>
       <c r="D316">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,13 +5899,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>-2.4</v>
+        <v>-1.2</v>
       </c>
       <c r="C317">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="D317">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,13 +5913,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>-2.7</v>
+        <v>-1.3</v>
       </c>
       <c r="C318">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D318">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,13 +5927,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>-3.8000000000000003</v>
+        <v>-1.9000000000000001</v>
       </c>
       <c r="C319">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D319">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,13 +5941,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>-4.5</v>
+        <v>-2.1</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D320">
-        <v>-1.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,13 +5955,13 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>-4.8</v>
+        <v>-3.4</v>
       </c>
       <c r="C321">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="D321">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,13 +5969,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>-4</v>
+        <v>-3.1</v>
       </c>
       <c r="C322">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="D322">
-        <v>-0.7000000000000001</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,13 +5983,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>-4.8</v>
+        <v>-2.7</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D323">
-        <v>-1.9000000000000001</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5985,10 +5997,10 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="C324">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D324">
         <v>-0.4</v>
@@ -5999,13 +6011,13 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="C325">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="D325">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,13 +6025,13 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C326">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="D326">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,13 +6039,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>-1.9000000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="C327">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="D327">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,13 +6053,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="C328">
-        <v>2.8000000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="D328">
-        <v>0.3</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6055,13 +6067,13 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>-1.4000000000000001</v>
+        <v>-1.6</v>
       </c>
       <c r="C329">
-        <v>4.4</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D329">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,13 +6081,13 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="C330">
-        <v>1.9000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D330">
-        <v>-0.1</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6083,13 +6095,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="C331">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D331">
-        <v>-1.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6097,13 +6109,13 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>-7.3</v>
+        <v>-5.8</v>
       </c>
       <c r="C332">
-        <v>-2.5</v>
+        <v>-1.6</v>
       </c>
       <c r="D332">
-        <v>-4.9</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,13 +6123,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>-9.700000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="C333">
-        <v>-4.1</v>
+        <v>-3.7</v>
       </c>
       <c r="D333">
-        <v>-6.9</v>
+        <v>-6.1000000000000005</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,13 +6137,13 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>-9.700000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="C334">
-        <v>-4.2</v>
+        <v>-3.4</v>
       </c>
       <c r="D334">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6139,13 +6151,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>-10.6</v>
+        <v>-8.700000000000001</v>
       </c>
       <c r="C335">
-        <v>-3.5</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="D335">
-        <v>-7.1000000000000005</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6153,13 +6165,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="C336">
-        <v>-1.4000000000000001</v>
+        <v>-2.1</v>
       </c>
       <c r="D336">
-        <v>-3.9</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6167,13 +6179,13 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>-7.3</v>
+        <v>-6.7</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="D337">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,13 +6193,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>-4.9</v>
+        <v>-5.3</v>
       </c>
       <c r="C338">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="D338">
-        <v>-2.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,13 +6207,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>-7</v>
+        <v>-7.4</v>
       </c>
       <c r="C339">
-        <v>-2.3000000000000003</v>
+        <v>-2.6</v>
       </c>
       <c r="D339">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,13 +6221,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>-2.7</v>
+        <v>-3</v>
       </c>
       <c r="C340">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D340">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,13 +6235,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>-7.5</v>
+        <v>-5.7</v>
       </c>
       <c r="C341">
         <v>-1.2</v>
       </c>
       <c r="D341">
-        <v>-4.4</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6237,13 +6249,13 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>-9.700000000000001</v>
+        <v>-8.700000000000001</v>
       </c>
       <c r="C342">
-        <v>-4.4</v>
+        <v>-4.2</v>
       </c>
       <c r="D342">
-        <v>-7.1000000000000005</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,13 +6263,13 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>-12.5</v>
+        <v>-9.3</v>
       </c>
       <c r="C343">
-        <v>-3.1</v>
+        <v>-2</v>
       </c>
       <c r="D343">
-        <v>-7.8</v>
+        <v>-5.6000000000000005</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,13 +6277,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>-14.3</v>
+        <v>-8</v>
       </c>
       <c r="C344">
         <v>1.7</v>
       </c>
       <c r="D344">
-        <v>-6.3</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,13 +6291,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>-0.7000000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="C345">
-        <v>2.3000000000000003</v>
+        <v>2.2</v>
       </c>
       <c r="D345">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6293,13 +6305,13 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="C346">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D346">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6307,7 +6319,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="C347">
         <v>4.5</v>
@@ -6321,13 +6333,13 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>-8.1</v>
+        <v>-5</v>
       </c>
       <c r="C348">
-        <v>1.9000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D348">
-        <v>-3.1</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6335,13 +6347,13 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>-11.3</v>
+        <v>-8.700000000000001</v>
       </c>
       <c r="C349">
-        <v>-6.2</v>
+        <v>-4.1</v>
       </c>
       <c r="D349">
-        <v>-8.8</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,13 +6361,13 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>-10</v>
+        <v>-8.1</v>
       </c>
       <c r="C350">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="D350">
-        <v>-5.8</v>
+        <v>-4.6000000000000005</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6363,13 +6375,13 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>-4.2</v>
+        <v>-2</v>
       </c>
       <c r="C351">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D351">
-        <v>-0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,13 +6389,13 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="C352">
-        <v>8.8</v>
+        <v>9.4</v>
       </c>
       <c r="D352">
-        <v>5.9</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6391,13 +6403,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="C353">
-        <v>12.200000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="D353">
-        <v>9.6</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6405,13 +6417,13 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="C354">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="D354">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,13 +6431,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="C355">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="D355">
-        <v>1.9000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,13 +6445,69 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C356">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="D356">
-        <v>-1.3</v>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>-0.2</v>
+      </c>
+      <c r="C357">
+        <v>4.7</v>
+      </c>
+      <c r="D357">
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>-0.8</v>
+      </c>
+      <c r="C358">
+        <v>3.6</v>
+      </c>
+      <c r="D358">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>-1.2</v>
+      </c>
+      <c r="C359">
+        <v>6.8</v>
+      </c>
+      <c r="D359">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>1.2</v>
+      </c>
+      <c r="C360">
+        <v>6.9</v>
+      </c>
+      <c r="D360">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/xls/tmp-export.xlsx
+++ b/xls/tmp-export.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="object 4" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="object 25" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
   <si>
     <t>date time</t>
   </si>
@@ -1091,6 +1091,237 @@
   </si>
   <si>
     <t>06.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>07.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>08.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>09.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>10.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>11.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>12.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>13.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>14.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>15.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>16.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>17.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>18.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>19.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>20.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>21.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>22.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>23.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>24.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>25.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>26.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>27.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>28.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>29.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>30.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>31.03.23 00:00:00</t>
+  </si>
+  <si>
+    <t>01.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>02.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>03.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>04.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>05.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>06.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>07.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>08.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>09.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>10.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>11.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>12.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>13.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>14.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>15.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>16.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>17.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>18.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>19.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>20.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>21.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>22.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>23.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>24.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>25.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>26.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>27.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>28.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>29.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>30.04.23 00:00:00</t>
+  </si>
+  <si>
+    <t>01.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>02.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>03.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>04.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>05.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>06.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>07.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>08.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>09.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>10.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>11.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>12.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>13.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>14.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>15.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>16.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>17.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>18.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>19.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>20.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>21.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>22.05.23 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D360"/>
+  <dimension ref="A1:D437"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-8.700000000000001</v>
+        <v>-3.9</v>
       </c>
       <c r="C2">
-        <v>-0.4</v>
+        <v>2.1</v>
       </c>
       <c r="D2">
-        <v>-4.6000000000000005</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,13 +1734,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-6.3</v>
+        <v>-4</v>
       </c>
       <c r="C3">
-        <v>2.8000000000000003</v>
+        <v>4.3</v>
       </c>
       <c r="D3">
-        <v>-1.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,13 +1748,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-3.1</v>
+        <v>-2.4</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>7.9</v>
       </c>
       <c r="D4">
-        <v>0.7000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,13 +1762,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-5.8</v>
+        <v>-2.7</v>
       </c>
       <c r="C5">
-        <v>-1.3</v>
+        <v>3.9</v>
       </c>
       <c r="D5">
-        <v>-3.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,13 +1776,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-8.4</v>
+        <v>-5.4</v>
       </c>
       <c r="C6">
-        <v>-3</v>
+        <v>1.2</v>
       </c>
       <c r="D6">
-        <v>-5.7</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,13 +1790,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7.6000000000000005</v>
+        <v>-6.1000000000000005</v>
       </c>
       <c r="C7">
-        <v>-2.1</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>-4.8</v>
+        <v>-2.3000000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,13 +1804,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7.2</v>
+        <v>-5.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-2.6</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-5.7</v>
+        <v>-3.8000000000000003</v>
       </c>
       <c r="C9">
-        <v>4.4</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
-        <v>-0.6</v>
+        <v>1.9000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,13 +1832,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="D10">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,13 +1846,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>7.8</v>
+        <v>12.4</v>
       </c>
       <c r="D11">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,13 +1860,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.7</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>10.4</v>
+        <v>14.1</v>
       </c>
       <c r="D12">
-        <v>4.4</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,13 +1874,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.1</v>
+        <v>1.5</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11.3</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,13 +1888,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>9.700000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="D14">
-        <v>4.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,13 +1902,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>12.9</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="D15">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,13 +1916,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
       <c r="C16">
-        <v>9.1</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,13 +1930,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-2.4</v>
+        <v>-0.8</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="D17">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,13 +1944,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>13.700000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="D18">
-        <v>7.6000000000000005</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,13 +1958,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="C19">
-        <v>17.3</v>
+        <v>13.5</v>
       </c>
       <c r="D19">
-        <v>11.200000000000001</v>
+        <v>9.700000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,13 +1972,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6.8</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="C20">
-        <v>15.700000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="D20">
-        <v>11.200000000000001</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,13 +1986,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="C21">
-        <v>21.2</v>
+        <v>15.4</v>
       </c>
       <c r="D21">
-        <v>14.6</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,13 +2000,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9.5</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="D22">
-        <v>14.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1783,13 +2014,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="C23">
-        <v>14.3</v>
+        <v>5.9</v>
       </c>
       <c r="D23">
-        <v>10.9</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,13 +2028,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>-1.1</v>
       </c>
       <c r="C24">
-        <v>5.6000000000000005</v>
+        <v>5.7</v>
       </c>
       <c r="D24">
-        <v>4.3</v>
+        <v>2.3000000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,13 +2042,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="C25">
-        <v>8.8</v>
+        <v>8.9</v>
       </c>
       <c r="D25">
-        <v>5.2</v>
+        <v>4.6000000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,13 +2056,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="C26">
         <v>13.4</v>
       </c>
       <c r="D26">
-        <v>8.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,13 +2070,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="C27">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="D27">
-        <v>11.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,13 +2084,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="C28">
-        <v>15.700000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="D28">
-        <v>10.700000000000001</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1867,13 +2098,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7.4</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="C29">
-        <v>18.400000000000002</v>
+        <v>16.5</v>
       </c>
       <c r="D29">
-        <v>12.9</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1881,13 +2112,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="C30">
-        <v>19.6</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="D30">
-        <v>13.200000000000001</v>
+        <v>9.700000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1895,13 +2126,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>10.5</v>
+        <v>3.4</v>
       </c>
       <c r="C31">
-        <v>21.400000000000002</v>
+        <v>10.4</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,13 +2140,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="C32">
-        <v>15.200000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D32">
-        <v>9.700000000000001</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,13 +2154,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="C33">
-        <v>5.8</v>
+        <v>11.3</v>
       </c>
       <c r="D33">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,13 +2168,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3.8000000000000003</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="C34">
-        <v>9.8</v>
+        <v>14.3</v>
       </c>
       <c r="D34">
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1951,13 +2182,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5.3</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="C35">
-        <v>14.9</v>
+        <v>16.8</v>
       </c>
       <c r="D35">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,13 +2196,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C36">
-        <v>14.8</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="D36">
-        <v>10.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,13 +2210,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7.1000000000000005</v>
+        <v>2.9</v>
       </c>
       <c r="C37">
-        <v>15.1</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="D37">
-        <v>11.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +2224,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>10.6</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>17.400000000000002</v>
+        <v>8.1</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,13 +2238,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>10.9</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="C39">
-        <v>17.6</v>
+        <v>10.3</v>
       </c>
       <c r="D39">
-        <v>14.200000000000001</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,13 +2252,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="C40">
-        <v>13.1</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="D40">
-        <v>9.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,13 +2266,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="C41">
-        <v>13.1</v>
+        <v>10.1</v>
       </c>
       <c r="D41">
-        <v>8.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,13 +2280,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
       <c r="C42">
-        <v>12.9</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="D42">
-        <v>10.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,13 +2294,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="C43">
-        <v>16.4</v>
+        <v>13.4</v>
       </c>
       <c r="D43">
-        <v>10.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2077,13 +2308,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>10.3</v>
+        <v>6.7</v>
       </c>
       <c r="C44">
-        <v>20.400000000000002</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>15.4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,13 +2322,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>11.9</v>
+        <v>10.8</v>
       </c>
       <c r="C45">
-        <v>23.6</v>
+        <v>21.5</v>
       </c>
       <c r="D45">
-        <v>17.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2105,13 +2336,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>14.4</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="C46">
-        <v>24.900000000000002</v>
+        <v>19.5</v>
       </c>
       <c r="D46">
-        <v>19.6</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,13 +2350,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>13.200000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="C47">
-        <v>19.400000000000002</v>
+        <v>16.3</v>
       </c>
       <c r="D47">
-        <v>16.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,13 +2364,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>10.6</v>
+        <v>7.7</v>
       </c>
       <c r="C48">
-        <v>18.7</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>14.6</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,13 +2378,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>12.8</v>
+        <v>6.9</v>
       </c>
       <c r="C49">
-        <v>19.400000000000002</v>
+        <v>15.3</v>
       </c>
       <c r="D49">
-        <v>16.1</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2161,13 +2392,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="C50">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,13 +2406,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C51">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="D51">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,13 +2420,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="C52">
-        <v>14.5</v>
+        <v>17.7</v>
       </c>
       <c r="D52">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2203,13 +2434,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7.6000000000000005</v>
+        <v>8.3</v>
       </c>
       <c r="C53">
-        <v>15.9</v>
+        <v>18.6</v>
       </c>
       <c r="D53">
-        <v>11.8</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2217,13 +2448,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>8.6</v>
+        <v>8.2</v>
       </c>
       <c r="C54">
-        <v>17.3</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,13 +2462,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="C55">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,13 +2476,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="C56">
-        <v>15.3</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="D56">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,13 +2490,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7.3</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="C57">
-        <v>16.6</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,13 +2504,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8.4</v>
+        <v>8.8</v>
       </c>
       <c r="C58">
-        <v>18.400000000000002</v>
+        <v>20.3</v>
       </c>
       <c r="D58">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,13 +2518,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="C59">
-        <v>21.6</v>
+        <v>19.2</v>
       </c>
       <c r="D59">
-        <v>15.8</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,10 +2535,10 @@
         <v>5.9</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2315,13 +2546,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="C61">
-        <v>15.8</v>
+        <v>19.7</v>
       </c>
       <c r="D61">
-        <v>10.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2329,13 +2560,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>8.4</v>
+        <v>10.3</v>
       </c>
       <c r="C62">
-        <v>22.5</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="D62">
-        <v>15.4</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2343,13 +2574,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="C63">
-        <v>24.3</v>
+        <v>22.3</v>
       </c>
       <c r="D63">
-        <v>18.6</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,13 +2588,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>11.200000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="C64">
-        <v>15.8</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,13 +2602,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>10.3</v>
+        <v>8.8</v>
       </c>
       <c r="C65">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="D65">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,13 +2616,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>9.5</v>
+        <v>8.2</v>
       </c>
       <c r="C66">
-        <v>18.1</v>
+        <v>19.5</v>
       </c>
       <c r="D66">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,13 +2630,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>10.4</v>
+        <v>8.8</v>
       </c>
       <c r="C67">
-        <v>17.7</v>
+        <v>19.6</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,13 +2644,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>9.5</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="C68">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,13 +2658,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>8.1</v>
+        <v>5.8</v>
       </c>
       <c r="C69">
-        <v>14.3</v>
+        <v>19.8</v>
       </c>
       <c r="D69">
-        <v>11.200000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2441,13 +2672,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>21.1</v>
+        <v>23.5</v>
       </c>
       <c r="D70">
-        <v>14.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,13 +2686,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C71">
-        <v>23.2</v>
+        <v>24.3</v>
       </c>
       <c r="D71">
-        <v>17.8</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,13 +2700,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>10.6</v>
       </c>
       <c r="C72">
-        <v>18.900000000000002</v>
+        <v>16.7</v>
       </c>
       <c r="D72">
-        <v>15.4</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,13 +2714,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>9.3</v>
+        <v>7.9</v>
       </c>
       <c r="C73">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,13 +2728,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>9.3</v>
+        <v>7.3</v>
       </c>
       <c r="C74">
-        <v>19.1</v>
+        <v>20.2</v>
       </c>
       <c r="D74">
-        <v>14.200000000000001</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,13 +2742,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>10.1</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="C75">
-        <v>21.1</v>
+        <v>23.2</v>
       </c>
       <c r="D75">
-        <v>15.6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,13 +2756,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="C76">
-        <v>22.8</v>
+        <v>20.8</v>
       </c>
       <c r="D76">
-        <v>17.2</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,13 +2770,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="C77">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="D77">
-        <v>16.6</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,13 +2784,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>13.3</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>24.8</v>
+        <v>19.8</v>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,13 +2798,13 @@
         <v>78</v>
       </c>
       <c r="B79">
+        <v>8.9</v>
+      </c>
+      <c r="C79">
+        <v>18.900000000000002</v>
+      </c>
+      <c r="D79">
         <v>13.9</v>
-      </c>
-      <c r="C79">
-        <v>23.900000000000002</v>
-      </c>
-      <c r="D79">
-        <v>18.900000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2812,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>13.3</v>
+        <v>10.3</v>
       </c>
       <c r="C80">
-        <v>27.900000000000002</v>
+        <v>19.7</v>
       </c>
       <c r="D80">
-        <v>20.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,13 +2826,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>18.1</v>
+        <v>13.4</v>
       </c>
       <c r="C81">
-        <v>30.3</v>
+        <v>20.7</v>
       </c>
       <c r="D81">
-        <v>24.2</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,13 +2840,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>17.900000000000002</v>
+        <v>13.4</v>
       </c>
       <c r="C82">
-        <v>29.6</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="D82">
-        <v>23.8</v>
+        <v>19.900000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,13 +2854,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="C83">
-        <v>30.8</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="D83">
-        <v>24.400000000000002</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,13 +2868,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>18.8</v>
+        <v>14.3</v>
       </c>
       <c r="C84">
-        <v>30.400000000000002</v>
+        <v>25</v>
       </c>
       <c r="D84">
-        <v>24.6</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2882,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>17.8</v>
+        <v>13.3</v>
       </c>
       <c r="C85">
-        <v>28.400000000000002</v>
+        <v>24.7</v>
       </c>
       <c r="D85">
-        <v>23.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,13 +2896,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>17.6</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="C86">
-        <v>26.6</v>
+        <v>22.1</v>
       </c>
       <c r="D86">
-        <v>22.1</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2910,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>14.700000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="C87">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="D87">
-        <v>19.7</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2924,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="C88">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="D88">
-        <v>20.400000000000002</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,13 +2938,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="D89">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,13 +2952,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>17.7</v>
+        <v>16.4</v>
       </c>
       <c r="C90">
-        <v>27.3</v>
+        <v>28.5</v>
       </c>
       <c r="D90">
-        <v>22.5</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,13 +2966,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>16.7</v>
+        <v>15.6</v>
       </c>
       <c r="C91">
-        <v>29.5</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="D91">
-        <v>23.1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,13 +2980,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>18.6</v>
+        <v>16.1</v>
       </c>
       <c r="C92">
-        <v>30.1</v>
+        <v>28.3</v>
       </c>
       <c r="D92">
-        <v>24.400000000000002</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,13 +2994,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>19.900000000000002</v>
+        <v>16.3</v>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="D93">
-        <v>25</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,13 +3008,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>18.6</v>
+        <v>15.3</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D94">
-        <v>24.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,13 +3022,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>19.3</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="C95">
-        <v>30.900000000000002</v>
+        <v>24.6</v>
       </c>
       <c r="D95">
-        <v>25.1</v>
+        <v>19.900000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,13 +3036,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>15.200000000000001</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="C96">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="D96">
-        <v>18.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,13 +3050,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>12.4</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="C97">
-        <v>23.900000000000002</v>
+        <v>23.8</v>
       </c>
       <c r="D97">
-        <v>18.2</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,13 +3064,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>15.700000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="C98">
-        <v>25.7</v>
+        <v>23.3</v>
       </c>
       <c r="D98">
-        <v>20.7</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,13 +3078,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>17.8</v>
+        <v>12.9</v>
       </c>
       <c r="C99">
-        <v>26.6</v>
+        <v>23.8</v>
       </c>
       <c r="D99">
-        <v>22.2</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,13 +3092,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>15.700000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="D100">
-        <v>21.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2875,13 +3106,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>17.900000000000002</v>
+        <v>16.2</v>
       </c>
       <c r="C101">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="D101">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2889,13 +3120,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>19.6</v>
+        <v>15.6</v>
       </c>
       <c r="C102">
-        <v>31</v>
+        <v>26.5</v>
       </c>
       <c r="D102">
-        <v>25.3</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2903,13 +3134,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>14.9</v>
+        <v>11.9</v>
       </c>
       <c r="C103">
-        <v>23.900000000000002</v>
+        <v>20.7</v>
       </c>
       <c r="D103">
-        <v>19.400000000000002</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2917,13 +3148,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>14.200000000000001</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="C104">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="D104">
-        <v>18.2</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2931,13 +3162,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="C105">
-        <v>23.400000000000002</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="D105">
-        <v>18.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,13 +3176,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>15.8</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>23.6</v>
+        <v>26.1</v>
       </c>
       <c r="D106">
-        <v>19.7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,13 +3190,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>17</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C107">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="D107">
-        <v>22.8</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,13 +3204,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>20.1</v>
+        <v>17.3</v>
       </c>
       <c r="C108">
-        <v>30.400000000000002</v>
+        <v>29.7</v>
       </c>
       <c r="D108">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,13 +3218,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C109">
-        <v>31.400000000000002</v>
+        <v>31.8</v>
       </c>
       <c r="D109">
-        <v>24.7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,13 +3232,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>20.6</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>30.900000000000002</v>
+        <v>32.1</v>
       </c>
       <c r="D110">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,13 +3246,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>19.1</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="C111">
-        <v>27.400000000000002</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="D111">
-        <v>23.2</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3029,13 +3260,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>17.8</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="C112">
-        <v>28</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="D112">
-        <v>22.900000000000002</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3043,13 +3274,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>14.3</v>
+        <v>16.2</v>
       </c>
       <c r="C113">
-        <v>24.1</v>
+        <v>27.400000000000002</v>
       </c>
       <c r="D113">
-        <v>19.2</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3057,13 +3288,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>14.700000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="C114">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D114">
-        <v>21</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3071,13 +3302,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="C115">
         <v>30.3</v>
       </c>
       <c r="D115">
-        <v>24</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3085,13 +3316,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C116">
-        <v>31.400000000000002</v>
+        <v>31.6</v>
       </c>
       <c r="D116">
-        <v>26.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3099,13 +3330,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>21.8</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="C117">
-        <v>32.6</v>
+        <v>29.6</v>
       </c>
       <c r="D117">
-        <v>27.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3113,13 +3344,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>20.900000000000002</v>
+        <v>16.6</v>
       </c>
       <c r="C118">
-        <v>32.4</v>
+        <v>26.8</v>
       </c>
       <c r="D118">
-        <v>26.6</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3127,13 +3358,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>21.3</v>
+        <v>15.8</v>
       </c>
       <c r="C119">
-        <v>31.5</v>
+        <v>27.7</v>
       </c>
       <c r="D119">
-        <v>26.400000000000002</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3141,13 +3372,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>22.3</v>
+        <v>16.5</v>
       </c>
       <c r="C120">
-        <v>33</v>
+        <v>26.8</v>
       </c>
       <c r="D120">
-        <v>27.6</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3155,13 +3386,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>19.8</v>
+        <v>15</v>
       </c>
       <c r="C121">
-        <v>31.400000000000002</v>
+        <v>25.1</v>
       </c>
       <c r="D121">
-        <v>25.6</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3169,13 +3400,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>18.900000000000002</v>
+        <v>14.5</v>
       </c>
       <c r="C122">
-        <v>22.2</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="D122">
-        <v>20.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3183,13 +3414,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>16.4</v>
+        <v>11.6</v>
       </c>
       <c r="C123">
-        <v>25.7</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="D123">
-        <v>21</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3197,13 +3428,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>18.1</v>
+        <v>13.4</v>
       </c>
       <c r="C124">
-        <v>28</v>
+        <v>22.400000000000002</v>
       </c>
       <c r="D124">
-        <v>23</v>
+        <v>17.900000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3211,13 +3442,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>17.3</v>
+        <v>14.3</v>
       </c>
       <c r="C125">
-        <v>23.7</v>
+        <v>26</v>
       </c>
       <c r="D125">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3225,13 +3456,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>28.7</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="D126">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3239,13 +3470,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>20.6</v>
+        <v>14.4</v>
       </c>
       <c r="C127">
-        <v>30.8</v>
+        <v>24.8</v>
       </c>
       <c r="D127">
-        <v>25.7</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3253,13 +3484,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>19.1</v>
+        <v>13.6</v>
       </c>
       <c r="C128">
-        <v>29.8</v>
+        <v>21.900000000000002</v>
       </c>
       <c r="D128">
-        <v>24.5</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3267,13 +3498,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>16.1</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="C129">
-        <v>24</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="D129">
-        <v>20</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3281,13 +3512,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>15.1</v>
+        <v>13.1</v>
       </c>
       <c r="C130">
-        <v>25.900000000000002</v>
+        <v>24.5</v>
       </c>
       <c r="D130">
-        <v>20.5</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3295,13 +3526,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>17.8</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="C131">
-        <v>27.400000000000002</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="D131">
-        <v>22.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3309,13 +3540,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>15</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="C132">
-        <v>22.5</v>
+        <v>25.2</v>
       </c>
       <c r="D132">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3323,13 +3554,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>15.700000000000001</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="C133">
-        <v>23.7</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="D133">
-        <v>19.7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3337,13 +3568,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>14.200000000000001</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="C134">
-        <v>22.7</v>
+        <v>29.1</v>
       </c>
       <c r="D134">
-        <v>18.400000000000002</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3351,13 +3582,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>16.2</v>
+        <v>17.3</v>
       </c>
       <c r="C135">
-        <v>27.900000000000002</v>
+        <v>27.3</v>
       </c>
       <c r="D135">
-        <v>22</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3365,13 +3596,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>18.8</v>
+        <v>16.1</v>
       </c>
       <c r="C136">
-        <v>28.7</v>
+        <v>25.5</v>
       </c>
       <c r="D136">
-        <v>23.8</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3379,13 +3610,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>17.1</v>
+        <v>15</v>
       </c>
       <c r="C137">
-        <v>25.900000000000002</v>
+        <v>27</v>
       </c>
       <c r="D137">
-        <v>21.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3393,13 +3624,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>17.8</v>
+        <v>16.7</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>26.5</v>
       </c>
       <c r="D138">
-        <v>23.400000000000002</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3407,13 +3638,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>21.2</v>
+        <v>16.8</v>
       </c>
       <c r="C139">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="D139">
-        <v>26.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3421,13 +3652,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>20.900000000000002</v>
+        <v>16.8</v>
       </c>
       <c r="C140">
-        <v>30.7</v>
+        <v>27.7</v>
       </c>
       <c r="D140">
-        <v>25.8</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3435,13 +3666,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>19.900000000000002</v>
+        <v>16.9</v>
       </c>
       <c r="C141">
-        <v>29.6</v>
+        <v>28.7</v>
       </c>
       <c r="D141">
-        <v>24.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3449,13 +3680,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>20.3</v>
+        <v>17.5</v>
       </c>
       <c r="C142">
-        <v>31.7</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="D142">
-        <v>26</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3463,13 +3694,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>21.7</v>
+        <v>17.2</v>
       </c>
       <c r="C143">
-        <v>33.6</v>
+        <v>25.400000000000002</v>
       </c>
       <c r="D143">
-        <v>27.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3477,13 +3708,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>21.8</v>
+        <v>17</v>
       </c>
       <c r="C144">
-        <v>27.5</v>
+        <v>24.8</v>
       </c>
       <c r="D144">
-        <v>24.6</v>
+        <v>20.900000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3491,13 +3722,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>19.900000000000002</v>
+        <v>16.1</v>
       </c>
       <c r="C145">
-        <v>29.900000000000002</v>
+        <v>25.6</v>
       </c>
       <c r="D145">
-        <v>24.900000000000002</v>
+        <v>20.900000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3505,13 +3736,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>20.400000000000002</v>
+        <v>16.7</v>
       </c>
       <c r="C146">
-        <v>30.1</v>
+        <v>26.6</v>
       </c>
       <c r="D146">
-        <v>25.2</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3519,13 +3750,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>21</v>
+        <v>17.6</v>
       </c>
       <c r="C147">
-        <v>26.400000000000002</v>
+        <v>27.400000000000002</v>
       </c>
       <c r="D147">
-        <v>23.7</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3533,13 +3764,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>21.400000000000002</v>
+        <v>18.1</v>
       </c>
       <c r="C148">
-        <v>33.6</v>
+        <v>30.5</v>
       </c>
       <c r="D148">
-        <v>27.5</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3547,13 +3778,13 @@
         <v>148</v>
       </c>
       <c r="B149">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="C149">
+        <v>28.3</v>
+      </c>
+      <c r="D149">
         <v>23.3</v>
-      </c>
-      <c r="C149">
-        <v>33.2</v>
-      </c>
-      <c r="D149">
-        <v>28.2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3561,13 +3792,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>24</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="C150">
-        <v>35</v>
+        <v>27.7</v>
       </c>
       <c r="D150">
-        <v>29.5</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3575,13 +3806,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="C151">
-        <v>34.6</v>
+        <v>26.2</v>
       </c>
       <c r="D151">
-        <v>26.900000000000002</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3589,13 +3820,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>20.7</v>
+        <v>16.8</v>
       </c>
       <c r="C152">
-        <v>34.6</v>
+        <v>26.3</v>
       </c>
       <c r="D152">
-        <v>27.6</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3603,13 +3834,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>24.400000000000002</v>
+        <v>17.1</v>
       </c>
       <c r="C153">
-        <v>34.7</v>
+        <v>26.8</v>
       </c>
       <c r="D153">
-        <v>29.6</v>
+        <v>21.900000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,13 +3848,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>23.900000000000002</v>
+        <v>18.3</v>
       </c>
       <c r="C154">
-        <v>30.8</v>
+        <v>26.1</v>
       </c>
       <c r="D154">
-        <v>27.400000000000002</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3631,13 +3862,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>23.400000000000002</v>
+        <v>19.1</v>
       </c>
       <c r="C155">
-        <v>32.2</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="D155">
-        <v>27.8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,13 +3876,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>23.400000000000002</v>
+        <v>19.5</v>
       </c>
       <c r="C156">
-        <v>34.9</v>
+        <v>29</v>
       </c>
       <c r="D156">
-        <v>29.2</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3659,13 +3890,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>24.400000000000002</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="C157">
-        <v>36.7</v>
+        <v>29</v>
       </c>
       <c r="D157">
-        <v>30.6</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3673,13 +3904,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>21.8</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="C158">
-        <v>30.900000000000002</v>
+        <v>26.2</v>
       </c>
       <c r="D158">
-        <v>26.400000000000002</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3687,13 +3918,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>20.6</v>
+        <v>18.3</v>
       </c>
       <c r="C159">
-        <v>31.1</v>
+        <v>26.8</v>
       </c>
       <c r="D159">
-        <v>25.8</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3701,13 +3932,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>21.6</v>
+        <v>18.5</v>
       </c>
       <c r="C160">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="D160">
-        <v>26</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3715,13 +3946,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>20.3</v>
+        <v>18.5</v>
       </c>
       <c r="C161">
-        <v>30.1</v>
+        <v>28.7</v>
       </c>
       <c r="D161">
-        <v>25.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3729,13 +3960,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>21.1</v>
+        <v>18.1</v>
       </c>
       <c r="C162">
-        <v>24.900000000000002</v>
+        <v>26.3</v>
       </c>
       <c r="D162">
-        <v>23</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3743,13 +3974,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>19.400000000000002</v>
+        <v>17.7</v>
       </c>
       <c r="C163">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="D163">
-        <v>23.8</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3757,13 +3988,13 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>19</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="C164">
-        <v>31.8</v>
+        <v>29.3</v>
       </c>
       <c r="D164">
-        <v>25.400000000000002</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,13 +4002,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>21.2</v>
+        <v>19.1</v>
       </c>
       <c r="C165">
-        <v>32.9</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="D165">
-        <v>27</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,13 +4016,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>20.8</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="C166">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
       <c r="D166">
-        <v>26.2</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3799,13 +4030,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>20.8</v>
+        <v>17.8</v>
       </c>
       <c r="C167">
-        <v>32.1</v>
+        <v>31.5</v>
       </c>
       <c r="D167">
-        <v>26.400000000000002</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3813,13 +4044,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>21.1</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="C168">
-        <v>30.5</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="D168">
-        <v>25.8</v>
+        <v>23.900000000000002</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3827,13 +4058,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>21.400000000000002</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="C169">
-        <v>30.400000000000002</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="D169">
-        <v>25.900000000000002</v>
+        <v>23.900000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,13 +4072,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>21.1</v>
+        <v>17.7</v>
       </c>
       <c r="C170">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
       <c r="D170">
-        <v>25.7</v>
+        <v>23.400000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3855,13 +4086,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>20.7</v>
+        <v>17.5</v>
       </c>
       <c r="C171">
-        <v>31.7</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="D171">
-        <v>26.2</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3869,13 +4100,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>19.2</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="C172">
-        <v>32.3</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="D172">
-        <v>25.8</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3883,13 +4114,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>20.1</v>
+        <v>16.2</v>
       </c>
       <c r="C173">
-        <v>32.2</v>
+        <v>25.400000000000002</v>
       </c>
       <c r="D173">
-        <v>26.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3897,13 +4128,13 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>16.9</v>
+        <v>13.9</v>
       </c>
       <c r="C174">
-        <v>26.900000000000002</v>
+        <v>22</v>
       </c>
       <c r="D174">
-        <v>21.900000000000002</v>
+        <v>17.900000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3911,13 +4142,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>13.1</v>
+        <v>10.5</v>
       </c>
       <c r="C175">
-        <v>23.1</v>
+        <v>20.5</v>
       </c>
       <c r="D175">
-        <v>18.1</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3925,13 +4156,13 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>13.1</v>
+        <v>11.6</v>
       </c>
       <c r="C176">
-        <v>24.3</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="D176">
-        <v>18.7</v>
+        <v>14.700000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3939,13 +4170,13 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>10.5</v>
+        <v>9.8</v>
       </c>
       <c r="C177">
-        <v>19.2</v>
+        <v>18.6</v>
       </c>
       <c r="D177">
-        <v>14.8</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3953,13 +4184,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>9.3</v>
+        <v>9.8</v>
       </c>
       <c r="C178">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D178">
-        <v>14.200000000000001</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3967,13 +4198,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>8.2</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="C179">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="D179">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3981,13 +4212,13 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="C180">
-        <v>16.8</v>
+        <v>18.5</v>
       </c>
       <c r="D180">
-        <v>13.200000000000001</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3995,13 +4226,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>9.3</v>
+        <v>8.9</v>
       </c>
       <c r="C181">
-        <v>19.2</v>
+        <v>21</v>
       </c>
       <c r="D181">
-        <v>14.200000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4009,13 +4240,13 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>10.200000000000001</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="C182">
-        <v>20.8</v>
+        <v>18</v>
       </c>
       <c r="D182">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4023,13 +4254,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="C183">
-        <v>19.900000000000002</v>
+        <v>16.9</v>
       </c>
       <c r="D183">
-        <v>14.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,10 +4271,10 @@
         <v>11.3</v>
       </c>
       <c r="C184">
-        <v>21</v>
+        <v>17.3</v>
       </c>
       <c r="D184">
-        <v>16.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4051,13 +4282,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C185">
-        <v>17.2</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="D185">
-        <v>14.200000000000001</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,13 +4296,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>13.6</v>
+        <v>10.3</v>
       </c>
       <c r="C186">
-        <v>20.1</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="D186">
-        <v>16.8</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4079,13 +4310,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="C187">
-        <v>16.7</v>
+        <v>18.7</v>
       </c>
       <c r="D187">
-        <v>14.200000000000001</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4093,13 +4324,13 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>14.9</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="C188">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="D188">
-        <v>18.7</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4107,13 +4338,13 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>16.5</v>
+        <v>14.3</v>
       </c>
       <c r="C189">
-        <v>24.1</v>
+        <v>20.6</v>
       </c>
       <c r="D189">
-        <v>20.3</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,13 +4352,13 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>15.3</v>
+        <v>12.6</v>
       </c>
       <c r="C190">
-        <v>23.2</v>
+        <v>18.2</v>
       </c>
       <c r="D190">
-        <v>19.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4135,13 +4366,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="C191">
-        <v>28.900000000000002</v>
+        <v>18.8</v>
       </c>
       <c r="D191">
-        <v>23.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4149,13 +4380,13 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="C192">
-        <v>19.5</v>
+        <v>15.8</v>
       </c>
       <c r="D192">
-        <v>15</v>
+        <v>12.200000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4163,13 +4394,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>12.1</v>
+        <v>7.8</v>
       </c>
       <c r="C193">
-        <v>21.5</v>
+        <v>14.9</v>
       </c>
       <c r="D193">
-        <v>16.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4177,13 +4408,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="C194">
-        <v>17.8</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="D194">
-        <v>13.200000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4191,13 +4422,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="C195">
-        <v>18.6</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="D195">
-        <v>13.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4205,13 +4436,13 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="C196">
-        <v>15.3</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="D196">
-        <v>11.700000000000001</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4219,13 +4450,13 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="C197">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="D197">
-        <v>11</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4233,13 +4464,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="C198">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D198">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4247,13 +4478,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>10.700000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="C199">
-        <v>20.8</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="D199">
-        <v>15.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4261,13 +4492,13 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>12.700000000000001</v>
+        <v>12</v>
       </c>
       <c r="C200">
-        <v>19.8</v>
+        <v>17.1</v>
       </c>
       <c r="D200">
-        <v>16.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4275,13 +4506,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>15.700000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="C201">
-        <v>19</v>
+        <v>17.1</v>
       </c>
       <c r="D201">
-        <v>17.400000000000002</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4289,13 +4520,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>14.1</v>
+        <v>10.5</v>
       </c>
       <c r="C202">
-        <v>21.2</v>
+        <v>19.3</v>
       </c>
       <c r="D202">
-        <v>17.6</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4303,13 +4534,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="C203">
-        <v>22.7</v>
+        <v>20.6</v>
       </c>
       <c r="D203">
-        <v>17.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4317,13 +4548,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>15.1</v>
+        <v>13.5</v>
       </c>
       <c r="C204">
-        <v>24.6</v>
+        <v>21.1</v>
       </c>
       <c r="D204">
-        <v>19.8</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4331,13 +4562,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>16.2</v>
+        <v>11.4</v>
       </c>
       <c r="C205">
-        <v>22.7</v>
+        <v>17</v>
       </c>
       <c r="D205">
-        <v>19.400000000000002</v>
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4345,13 +4576,13 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>9.700000000000001</v>
+        <v>8.8</v>
       </c>
       <c r="C206">
-        <v>16.5</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="D206">
-        <v>13.1</v>
+        <v>11.200000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4359,13 +4590,13 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="C207">
-        <v>16.5</v>
+        <v>13.1</v>
       </c>
       <c r="D207">
-        <v>12.8</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4373,13 +4604,13 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="C208">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D208">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4387,13 +4618,13 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="C209">
-        <v>17.400000000000002</v>
+        <v>19.400000000000002</v>
       </c>
       <c r="D209">
-        <v>12.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4401,13 +4632,13 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="C210">
-        <v>19.6</v>
+        <v>18.6</v>
       </c>
       <c r="D210">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4415,13 +4646,13 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>10.3</v>
+        <v>7.8</v>
       </c>
       <c r="C211">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="D211">
-        <v>15</v>
+        <v>13.700000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4429,13 +4660,13 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>11.1</v>
+        <v>7.8</v>
       </c>
       <c r="C212">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="D212">
-        <v>14.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4443,13 +4674,13 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>10.200000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="C213">
-        <v>15.200000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="D213">
-        <v>12.700000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4457,13 +4688,13 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>9.6</v>
+        <v>4.9</v>
       </c>
       <c r="C214">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D214">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4471,13 +4702,13 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="C215">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="D215">
-        <v>10.200000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4485,13 +4716,13 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="C216">
-        <v>12.6</v>
+        <v>13.9</v>
       </c>
       <c r="D216">
-        <v>8.4</v>
+        <v>9.700000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4499,13 +4730,13 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="C217">
-        <v>11.6</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4513,13 +4744,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="C218">
-        <v>11.3</v>
+        <v>13.6</v>
       </c>
       <c r="D218">
-        <v>7.1000000000000005</v>
+        <v>9.200000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4527,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="C219">
-        <v>11.200000000000001</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="D219">
-        <v>7.2</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4541,13 +4772,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="C220">
-        <v>13.8</v>
+        <v>17.2</v>
       </c>
       <c r="D220">
-        <v>9.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4555,13 +4786,13 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>6.3</v>
+        <v>8.3</v>
       </c>
       <c r="C221">
-        <v>15.6</v>
+        <v>18.7</v>
       </c>
       <c r="D221">
-        <v>11</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4569,13 +4800,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>7.6000000000000005</v>
+        <v>9.1</v>
       </c>
       <c r="C222">
-        <v>15.700000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="D222">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,13 +4814,13 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>8.3</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="C223">
-        <v>12.9</v>
+        <v>13.8</v>
       </c>
       <c r="D223">
-        <v>10.6</v>
+        <v>10.700000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4597,13 +4828,13 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>6.2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C224">
-        <v>9.4</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="D224">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4611,13 +4842,13 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="C225">
-        <v>10.700000000000001</v>
+        <v>13</v>
       </c>
       <c r="D225">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4625,13 +4856,13 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>6.8</v>
+        <v>8.8</v>
       </c>
       <c r="C226">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
       <c r="D226">
-        <v>9.1</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4639,13 +4870,13 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="C227">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="D227">
-        <v>10.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4653,13 +4884,13 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="C228">
-        <v>13.1</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="D228">
-        <v>10.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4667,13 +4898,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>9.9</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="C229">
-        <v>11.200000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="D229">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4681,13 +4912,13 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>8.9</v>
+        <v>8.3</v>
       </c>
       <c r="C230">
-        <v>11.700000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="D230">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4695,13 +4926,13 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="C231">
-        <v>10.8</v>
+        <v>14</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4709,13 +4940,13 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="C232">
-        <v>12.700000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="D232">
-        <v>9.700000000000001</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4726,10 +4957,10 @@
         <v>10.1</v>
       </c>
       <c r="C233">
-        <v>14.200000000000001</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="D233">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4737,13 +4968,13 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>2.8000000000000003</v>
+        <v>5.4</v>
       </c>
       <c r="C234">
-        <v>9.8</v>
+        <v>12</v>
       </c>
       <c r="D234">
-        <v>6.3</v>
+        <v>8.700000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,13 +4982,13 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1.3</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="C235">
-        <v>7.1000000000000005</v>
+        <v>11.5</v>
       </c>
       <c r="D235">
-        <v>4.2</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4765,13 +4996,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>3.3000000000000003</v>
+        <v>6.7</v>
       </c>
       <c r="C236">
-        <v>10.200000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="D236">
-        <v>6.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4779,13 +5010,13 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C237">
-        <v>9.3</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="D237">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4793,13 +5024,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="C238">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="D238">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4807,13 +5038,13 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>3.8000000000000003</v>
+        <v>4.9</v>
       </c>
       <c r="C239">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="D239">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4821,13 +5052,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="C240">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="D240">
-        <v>4.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,13 +5066,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="C241">
-        <v>5.6000000000000005</v>
+        <v>10.3</v>
       </c>
       <c r="D241">
-        <v>3.3000000000000003</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4849,13 +5080,13 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="C242">
-        <v>7.9</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="D242">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4863,13 +5094,13 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="C243">
-        <v>9.200000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="D243">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,13 +5108,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>3.8000000000000003</v>
+        <v>5.3</v>
       </c>
       <c r="C244">
-        <v>9.8</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="D244">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,13 +5122,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>3.8000000000000003</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="C245">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="D245">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4905,13 +5136,13 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>4.2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="C246">
-        <v>9.200000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="D246">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4919,13 +5150,13 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="C247">
         <v>11.9</v>
       </c>
       <c r="D247">
-        <v>8.8</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4933,13 +5164,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>2.8000000000000003</v>
+        <v>3.6</v>
       </c>
       <c r="C248">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4947,13 +5178,13 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C249">
-        <v>4.6000000000000005</v>
+        <v>8.2</v>
       </c>
       <c r="D249">
-        <v>2.3000000000000003</v>
+        <v>5.1000000000000005</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4961,13 +5192,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="C250">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="D250">
-        <v>2.8000000000000003</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4975,13 +5206,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>4.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C251">
-        <v>9.3</v>
+        <v>5.4</v>
       </c>
       <c r="D251">
-        <v>7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4989,13 +5220,13 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>1.9000000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="C252">
-        <v>10.200000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="D252">
-        <v>6.1000000000000005</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5003,13 +5234,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>2.2</v>
+        <v>-1.6</v>
       </c>
       <c r="C253">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D253">
-        <v>7.1000000000000005</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5017,13 +5248,13 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="C254">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="D254">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5031,13 +5262,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="C255">
-        <v>13.6</v>
+        <v>7</v>
       </c>
       <c r="D255">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5045,13 +5276,13 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>4.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C256">
-        <v>11.1</v>
+        <v>5.7</v>
       </c>
       <c r="D256">
-        <v>7.6000000000000005</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5059,13 +5290,13 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="C257">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="D257">
-        <v>3.8000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,13 +5304,13 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="C258">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="D258">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5087,13 +5318,13 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C259">
-        <v>8.6</v>
+        <v>4.8</v>
       </c>
       <c r="D259">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5101,13 +5332,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>4.3</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="C260">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="D260">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5115,13 +5346,13 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="C261">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="D261">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5129,13 +5360,13 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="C262">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D262">
-        <v>2.2</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5143,13 +5374,13 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>-1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C263">
         <v>2.9</v>
       </c>
       <c r="D263">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5157,13 +5388,13 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>-1.8</v>
+        <v>-0.9</v>
       </c>
       <c r="C264">
-        <v>1.8</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5171,13 +5402,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>-1.7</v>
+        <v>-2.7</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D265">
-        <v>0.1</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5185,13 +5416,13 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>-1.3</v>
+        <v>-2.1</v>
       </c>
       <c r="C266">
-        <v>1.5</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D266">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5199,13 +5430,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>-4.1</v>
+        <v>-2.1</v>
       </c>
       <c r="C267">
-        <v>-0.8</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>-2.5</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5213,13 +5444,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>-7</v>
+        <v>-3.5</v>
       </c>
       <c r="C268">
-        <v>-3.4</v>
+        <v>-0.5</v>
       </c>
       <c r="D268">
-        <v>-5.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5227,13 +5458,13 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>-7.5</v>
+        <v>-4.9</v>
       </c>
       <c r="C269">
-        <v>-2.8000000000000003</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="D269">
-        <v>-5.2</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5241,13 +5472,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>-6.4</v>
+        <v>-4.1</v>
       </c>
       <c r="C270">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="D270">
-        <v>-4.2</v>
+        <v>-2.3000000000000003</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5255,13 +5486,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>-6.8</v>
+        <v>-2.8000000000000003</v>
       </c>
       <c r="C271">
-        <v>-3.5</v>
+        <v>1.3</v>
       </c>
       <c r="D271">
-        <v>-5.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5269,13 +5500,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>-4.1</v>
+        <v>-1.6</v>
       </c>
       <c r="C272">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="D272">
-        <v>-1.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5283,13 +5514,13 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C273">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,13 +5528,13 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="C274">
-        <v>6</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="D274">
-        <v>4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5311,13 +5542,13 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="C275">
-        <v>7.6000000000000005</v>
+        <v>8</v>
       </c>
       <c r="D275">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5325,13 +5556,13 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="C276">
-        <v>6.1000000000000005</v>
+        <v>5.4</v>
       </c>
       <c r="D276">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5339,13 +5570,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>2.3000000000000003</v>
+        <v>-2.2</v>
       </c>
       <c r="C277">
-        <v>4.9</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D277">
-        <v>3.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5353,13 +5584,13 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>-1.2</v>
+        <v>-5.2</v>
       </c>
       <c r="C278">
-        <v>1.3</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="D278">
-        <v>0.1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5367,13 +5598,13 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>-1.7</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="C279">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5381,13 +5612,13 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="C280">
-        <v>3.1</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D280">
-        <v>1.9000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5395,13 +5626,13 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>8.6</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="D281">
-        <v>6.1000000000000005</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5409,13 +5640,13 @@
         <v>281</v>
       </c>
       <c r="B282">
+        <v>-5.1000000000000005</v>
+      </c>
+      <c r="C282">
+        <v>2.6</v>
+      </c>
+      <c r="D282">
         <v>-1.3</v>
-      </c>
-      <c r="C282">
-        <v>8.700000000000001</v>
-      </c>
-      <c r="D282">
-        <v>3.7</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5423,13 +5654,13 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>-3.1</v>
+        <v>-6.8</v>
       </c>
       <c r="C283">
-        <v>-0.2</v>
+        <v>-2</v>
       </c>
       <c r="D283">
-        <v>-1.6</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5437,13 +5668,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>-3.2</v>
+        <v>-4.9</v>
       </c>
       <c r="C284">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D284">
-        <v>-1.2</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5451,13 +5682,13 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="C285">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D285">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5465,13 +5696,13 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C286">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D286">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5479,13 +5710,13 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>1.1</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="C287">
-        <v>4.6000000000000005</v>
+        <v>5.4</v>
       </c>
       <c r="D287">
-        <v>2.8000000000000003</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5493,13 +5724,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="C288">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="D288">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5507,13 +5738,13 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>2.8000000000000003</v>
+        <v>2.9</v>
       </c>
       <c r="C289">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D289">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,13 +5752,13 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="C290">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D290">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,13 +5766,13 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>2.7</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C291">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="D291">
-        <v>3.8000000000000003</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,13 +5780,13 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C292">
-        <v>5.1000000000000005</v>
+        <v>4</v>
       </c>
       <c r="D292">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5563,13 +5794,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>-0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C293">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="D293">
-        <v>0.9</v>
+        <v>2.3000000000000003</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5577,13 +5808,13 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C294">
-        <v>5.6000000000000005</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="D294">
-        <v>3.3000000000000003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5591,13 +5822,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>2</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="C295">
-        <v>6.1000000000000005</v>
+        <v>7.3</v>
       </c>
       <c r="D295">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5605,13 +5836,13 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>2</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="C296">
-        <v>7.8</v>
+        <v>11.1</v>
       </c>
       <c r="D296">
-        <v>4.9</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5619,13 +5850,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="C297">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="D297">
-        <v>8.2</v>
+        <v>8.700000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5633,10 +5864,10 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="C298">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="D298">
         <v>7.7</v>
@@ -5647,13 +5878,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="C299">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D299">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,13 +5892,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>-0.5</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="C300">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="D300">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5675,13 +5906,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>-5.7</v>
+        <v>-3</v>
       </c>
       <c r="C301">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="D301">
-        <v>-0.4</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5689,13 +5920,13 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>-9.6</v>
+        <v>-4.9</v>
       </c>
       <c r="C302">
-        <v>-7</v>
+        <v>-2.1</v>
       </c>
       <c r="D302">
-        <v>-8.3</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5703,13 +5934,13 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>-12.3</v>
+        <v>-6.1000000000000005</v>
       </c>
       <c r="C303">
-        <v>-8.8</v>
+        <v>-2.9</v>
       </c>
       <c r="D303">
-        <v>-10.6</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5717,13 +5948,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>-11.4</v>
+        <v>-4.5</v>
       </c>
       <c r="C304">
-        <v>-6.7</v>
+        <v>0.6</v>
       </c>
       <c r="D304">
-        <v>-9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5731,13 +5962,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>-11.9</v>
+        <v>-3.4</v>
       </c>
       <c r="C305">
-        <v>-8.8</v>
+        <v>-0.2</v>
       </c>
       <c r="D305">
-        <v>-10.3</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5745,13 +5976,13 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>-12.4</v>
+        <v>-5.4</v>
       </c>
       <c r="C306">
-        <v>-7.8</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="D306">
-        <v>-10.1</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,13 +5990,13 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>-9.700000000000001</v>
+        <v>-5.2</v>
       </c>
       <c r="C307">
-        <v>-4.6000000000000005</v>
+        <v>-0.5</v>
       </c>
       <c r="D307">
-        <v>-7.1000000000000005</v>
+        <v>-2.8000000000000003</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,13 +6004,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>-5.5</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="C308">
-        <v>-1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D308">
-        <v>-3.4</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5787,13 +6018,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>-3.2</v>
+        <v>-1.8</v>
       </c>
       <c r="C309">
-        <v>-1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D309">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5801,13 +6032,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>-3.2</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="C310">
-        <v>-1.3</v>
+        <v>2</v>
       </c>
       <c r="D310">
-        <v>-2.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5815,13 +6046,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>-4.2</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C311">
-        <v>-0.6</v>
+        <v>2.6</v>
       </c>
       <c r="D311">
-        <v>-2.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,13 +6060,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>-4.1</v>
+        <v>1.3</v>
       </c>
       <c r="C312">
-        <v>0.7000000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="D312">
-        <v>-1.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,13 +6074,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>-1.4000000000000001</v>
+        <v>4</v>
       </c>
       <c r="C313">
-        <v>1.7</v>
+        <v>8.6</v>
       </c>
       <c r="D313">
-        <v>0.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5857,13 +6088,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>1.2</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="C314">
-        <v>4</v>
+        <v>9.3</v>
       </c>
       <c r="D314">
-        <v>2.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5871,13 +6102,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>0.1</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C315">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="D315">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,13 +6116,13 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="C316">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="D316">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5899,13 +6130,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>-1.2</v>
+        <v>0.3</v>
       </c>
       <c r="C317">
-        <v>1.1</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="D317">
-        <v>-0.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5913,13 +6144,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>-1.3</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C318">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D318">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5927,13 +6158,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>-1.9000000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="C319">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5941,10 +6172,10 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="C320">
-        <v>1.4000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D320">
         <v>-0.4</v>
@@ -5955,13 +6186,13 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>-3.4</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="C321">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D321">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5969,13 +6200,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>-3.1</v>
+        <v>-2.6</v>
       </c>
       <c r="C322">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="D322">
-        <v>-0.9</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5983,13 +6214,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="C323">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="D323">
-        <v>-1.1</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5997,13 +6228,13 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>-1</v>
+        <v>-3.1</v>
       </c>
       <c r="C324">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D324">
-        <v>-0.4</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6011,13 +6242,13 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>-0.6</v>
+        <v>-3.4</v>
       </c>
       <c r="C325">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D325">
-        <v>0.5</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6025,13 +6256,13 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>-0.3</v>
+        <v>-2.2</v>
       </c>
       <c r="C326">
-        <v>0.9</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D326">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,13 +6270,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="C327">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D327">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6053,13 +6284,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>-2.4</v>
+        <v>-1.2</v>
       </c>
       <c r="C328">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="D328">
-        <v>-0.9</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6067,13 +6298,13 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="C329">
-        <v>3.8000000000000003</v>
+        <v>2.2</v>
       </c>
       <c r="D329">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6081,13 +6312,13 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-1.6</v>
+        <v>-3.6</v>
       </c>
       <c r="C330">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D330">
-        <v>-0.7000000000000001</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6095,13 +6326,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>-1.8</v>
+        <v>-4.8</v>
       </c>
       <c r="C331">
-        <v>0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="D331">
-        <v>-0.5</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6109,13 +6340,13 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>-5.8</v>
+        <v>-5.9</v>
       </c>
       <c r="C332">
-        <v>-1.6</v>
+        <v>-2.2</v>
       </c>
       <c r="D332">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6123,13 +6354,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>-8.6</v>
+        <v>-7.2</v>
       </c>
       <c r="C333">
-        <v>-3.7</v>
+        <v>-2.2</v>
       </c>
       <c r="D333">
-        <v>-6.1000000000000005</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6137,10 +6368,10 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>-8.6</v>
+        <v>-9</v>
       </c>
       <c r="C334">
-        <v>-3.4</v>
+        <v>-2.9</v>
       </c>
       <c r="D334">
         <v>-6</v>
@@ -6151,13 +6382,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>-8.700000000000001</v>
+        <v>-9.6</v>
       </c>
       <c r="C335">
-        <v>-3.3000000000000003</v>
+        <v>-2.3000000000000003</v>
       </c>
       <c r="D335">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6165,13 +6396,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>-6.7</v>
+        <v>-7.8</v>
       </c>
       <c r="C336">
-        <v>-2.1</v>
+        <v>-0.6</v>
       </c>
       <c r="D336">
-        <v>-4.4</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6179,13 +6410,13 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>-6.7</v>
+        <v>-5.7</v>
       </c>
       <c r="C337">
-        <v>-0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D337">
-        <v>-3.7</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6193,13 +6424,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>-5.3</v>
+        <v>-4</v>
       </c>
       <c r="C338">
-        <v>-0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D338">
-        <v>-3</v>
+        <v>-1.4000000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6207,13 +6438,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>-7.4</v>
+        <v>-5.8</v>
       </c>
       <c r="C339">
-        <v>-2.6</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D339">
-        <v>-5</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6221,13 +6452,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>-3</v>
+        <v>-0.2</v>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="D340">
-        <v>-1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6235,13 +6466,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>-5.7</v>
+        <v>-3.1</v>
       </c>
       <c r="C341">
-        <v>-1.2</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D341">
-        <v>-3.5</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6249,13 +6480,13 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>-8.700000000000001</v>
+        <v>-4</v>
       </c>
       <c r="C342">
-        <v>-4.2</v>
+        <v>1.8</v>
       </c>
       <c r="D342">
-        <v>-6.5</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6263,13 +6494,13 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>-9.3</v>
+        <v>-2.1</v>
       </c>
       <c r="C343">
-        <v>-2</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D343">
-        <v>-5.6000000000000005</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6277,13 +6508,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>1.7</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="D344">
-        <v>-3.1</v>
+        <v>3.3000000000000003</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6291,13 +6522,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>-1.3</v>
+        <v>1</v>
       </c>
       <c r="C345">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="D345">
-        <v>0.4</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,13 +6536,13 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="C346">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="D346">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6319,13 +6550,13 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>-1.6</v>
+        <v>2</v>
       </c>
       <c r="C347">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="D347">
-        <v>1.5</v>
+        <v>4.6000000000000005</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6333,13 +6564,13 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="C348">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D348">
-        <v>-1.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6347,13 +6578,13 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>-8.700000000000001</v>
+        <v>-4.9</v>
       </c>
       <c r="C349">
-        <v>-4.1</v>
+        <v>0</v>
       </c>
       <c r="D349">
-        <v>-6.4</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6361,13 +6592,13 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>-8.1</v>
+        <v>-3.2</v>
       </c>
       <c r="C350">
-        <v>-1</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D350">
-        <v>-4.6000000000000005</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6375,13 +6606,13 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>-2</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="C351">
-        <v>4.3</v>
+        <v>8.2</v>
       </c>
       <c r="D351">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6389,13 +6620,13 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="C352">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="D352">
-        <v>7.1000000000000005</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6403,13 +6634,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="C353">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="D353">
-        <v>8.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6417,13 +6648,13 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>-1.4000000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="C354">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="D354">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6431,13 +6662,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>-1.6</v>
+        <v>-2.5</v>
       </c>
       <c r="C355">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="D355">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6448,10 +6679,10 @@
         <v>-2</v>
       </c>
       <c r="C356">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D356">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,13 +6690,13 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>-0.2</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C357">
-        <v>4.7</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="D357">
-        <v>2.3000000000000003</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6473,13 +6704,13 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="C358">
-        <v>3.6</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="D358">
-        <v>1.4000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6487,13 +6718,13 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>-1.2</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="C359">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="D359">
-        <v>2.8000000000000003</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6501,13 +6732,1091 @@
         <v>359</v>
       </c>
       <c r="B360">
+        <v>-1.6</v>
+      </c>
+      <c r="C360">
+        <v>4</v>
+      </c>
+      <c r="D360">
         <v>1.2</v>
       </c>
-      <c r="C360">
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>0.1</v>
+      </c>
+      <c r="C361">
+        <v>6.2</v>
+      </c>
+      <c r="D361">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362">
+        <v>10</v>
+      </c>
+      <c r="D362">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>4</v>
+      </c>
+      <c r="C363">
+        <v>12.4</v>
+      </c>
+      <c r="D363">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>3.6</v>
+      </c>
+      <c r="C364">
+        <v>11.9</v>
+      </c>
+      <c r="D364">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>3.5</v>
+      </c>
+      <c r="C365">
+        <v>10.1</v>
+      </c>
+      <c r="D365">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>0.1</v>
+      </c>
+      <c r="C366">
         <v>6.9</v>
       </c>
-      <c r="D360">
+      <c r="D366">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>-0.5</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+      <c r="D367">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>2.5</v>
+      </c>
+      <c r="C368">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="D368">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>2.6</v>
+      </c>
+      <c r="C369">
+        <v>9.8</v>
+      </c>
+      <c r="D369">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>3.1</v>
+      </c>
+      <c r="C370">
+        <v>7.3</v>
+      </c>
+      <c r="D370">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>2.1</v>
+      </c>
+      <c r="C371">
+        <v>6.5</v>
+      </c>
+      <c r="D371">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="C372">
+        <v>8</v>
+      </c>
+      <c r="D372">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>1.8</v>
+      </c>
+      <c r="C373">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="D373">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>2.9</v>
+      </c>
+      <c r="C374">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="D374">
+        <v>7.1000000000000005</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="C375">
+        <v>11.9</v>
+      </c>
+      <c r="D375">
+        <v>8.700000000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>6.2</v>
+      </c>
+      <c r="C376">
+        <v>12.8</v>
+      </c>
+      <c r="D376">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>7.3</v>
+      </c>
+      <c r="C377">
+        <v>15.6</v>
+      </c>
+      <c r="D377">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="C378">
+        <v>15.1</v>
+      </c>
+      <c r="D378">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>7.5</v>
+      </c>
+      <c r="C379">
+        <v>12.3</v>
+      </c>
+      <c r="D379">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>7.5</v>
+      </c>
+      <c r="C380">
+        <v>12.700000000000001</v>
+      </c>
+      <c r="D380">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="C381">
+        <v>13</v>
+      </c>
+      <c r="D381">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>1.8</v>
+      </c>
+      <c r="C382">
+        <v>9.3</v>
+      </c>
+      <c r="D382">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>-1</v>
+      </c>
+      <c r="C383">
+        <v>4.8</v>
+      </c>
+      <c r="D383">
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>-1.7</v>
+      </c>
+      <c r="C384">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="D384">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>1.8</v>
+      </c>
+      <c r="C385">
+        <v>10</v>
+      </c>
+      <c r="D385">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>5.2</v>
+      </c>
+      <c r="C386">
+        <v>11.5</v>
+      </c>
+      <c r="D386">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="C387">
+        <v>11.1</v>
+      </c>
+      <c r="D387">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388">
         <v>4</v>
+      </c>
+      <c r="C388">
+        <v>7.7</v>
+      </c>
+      <c r="D388">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>2.1</v>
+      </c>
+      <c r="C389">
+        <v>8.6</v>
+      </c>
+      <c r="D389">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>3.9</v>
+      </c>
+      <c r="C390">
+        <v>10.4</v>
+      </c>
+      <c r="D390">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>4.1</v>
+      </c>
+      <c r="C391">
+        <v>9.4</v>
+      </c>
+      <c r="D391">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>4.3</v>
+      </c>
+      <c r="C392">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="D392">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>5</v>
+      </c>
+      <c r="C393">
+        <v>11.8</v>
+      </c>
+      <c r="D393">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>5.7</v>
+      </c>
+      <c r="C394">
+        <v>11.8</v>
+      </c>
+      <c r="D394">
+        <v>8.700000000000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="C395">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="D395">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="C396">
+        <v>14</v>
+      </c>
+      <c r="D396">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>7.9</v>
+      </c>
+      <c r="C397">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="D397">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>7.5</v>
+      </c>
+      <c r="C398">
+        <v>12.3</v>
+      </c>
+      <c r="D398">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>6.7</v>
+      </c>
+      <c r="C399">
+        <v>12.4</v>
+      </c>
+      <c r="D399">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>5.7</v>
+      </c>
+      <c r="C400">
+        <v>10.3</v>
+      </c>
+      <c r="D400">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="C401">
+        <v>13.9</v>
+      </c>
+      <c r="D401">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>6.2</v>
+      </c>
+      <c r="C402">
+        <v>13.1</v>
+      </c>
+      <c r="D402">
+        <v>9.700000000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>6.8</v>
+      </c>
+      <c r="C403">
+        <v>14</v>
+      </c>
+      <c r="D403">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>7.4</v>
+      </c>
+      <c r="C404">
+        <v>12.700000000000001</v>
+      </c>
+      <c r="D404">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="C405">
+        <v>12.3</v>
+      </c>
+      <c r="D405">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>6.7</v>
+      </c>
+      <c r="C406">
+        <v>12.6</v>
+      </c>
+      <c r="D406">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>6.4</v>
+      </c>
+      <c r="C407">
+        <v>14.4</v>
+      </c>
+      <c r="D407">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>7.7</v>
+      </c>
+      <c r="C408">
+        <v>16.5</v>
+      </c>
+      <c r="D408">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>7.9</v>
+      </c>
+      <c r="C409">
+        <v>17</v>
+      </c>
+      <c r="D409">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>8.4</v>
+      </c>
+      <c r="C410">
+        <v>15.4</v>
+      </c>
+      <c r="D410">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>6.8</v>
+      </c>
+      <c r="C411">
+        <v>14.3</v>
+      </c>
+      <c r="D411">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="C412">
+        <v>13.6</v>
+      </c>
+      <c r="D412">
+        <v>9.8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>5.3</v>
+      </c>
+      <c r="C413">
+        <v>12.8</v>
+      </c>
+      <c r="D413">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>5.4</v>
+      </c>
+      <c r="C414">
+        <v>13</v>
+      </c>
+      <c r="D414">
+        <v>9.200000000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>5.9</v>
+      </c>
+      <c r="C415">
+        <v>12.6</v>
+      </c>
+      <c r="D415">
+        <v>9.200000000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>5.7</v>
+      </c>
+      <c r="C416">
+        <v>13.700000000000001</v>
+      </c>
+      <c r="D416">
+        <v>9.700000000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>5.7</v>
+      </c>
+      <c r="C417">
+        <v>17.1</v>
+      </c>
+      <c r="D417">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>8.4</v>
+      </c>
+      <c r="C418">
+        <v>18.1</v>
+      </c>
+      <c r="D418">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>8.700000000000001</v>
+      </c>
+      <c r="C419">
+        <v>16.7</v>
+      </c>
+      <c r="D419">
+        <v>12.700000000000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>9</v>
+      </c>
+      <c r="C420">
+        <v>17.6</v>
+      </c>
+      <c r="D420">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>7.2</v>
+      </c>
+      <c r="C421">
+        <v>14.8</v>
+      </c>
+      <c r="D421">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>4.8</v>
+      </c>
+      <c r="C422">
+        <v>11.9</v>
+      </c>
+      <c r="D422">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>5.4</v>
+      </c>
+      <c r="C423">
+        <v>11.4</v>
+      </c>
+      <c r="D423">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>4.4</v>
+      </c>
+      <c r="C424">
+        <v>12.5</v>
+      </c>
+      <c r="D424">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>4.2</v>
+      </c>
+      <c r="C425">
+        <v>12.8</v>
+      </c>
+      <c r="D425">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="C426">
+        <v>14.8</v>
+      </c>
+      <c r="D426">
+        <v>9.700000000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="C427">
+        <v>16.9</v>
+      </c>
+      <c r="D427">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>9</v>
+      </c>
+      <c r="C428">
+        <v>18.2</v>
+      </c>
+      <c r="D428">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="C429">
+        <v>20.8</v>
+      </c>
+      <c r="D429">
+        <v>15.200000000000001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="C430">
+        <v>20.3</v>
+      </c>
+      <c r="D430">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>12</v>
+      </c>
+      <c r="C431">
+        <v>20.3</v>
+      </c>
+      <c r="D431">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>11.8</v>
+      </c>
+      <c r="C432">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="D432">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>11.8</v>
+      </c>
+      <c r="C433">
+        <v>20.6</v>
+      </c>
+      <c r="D433">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>13.1</v>
+      </c>
+      <c r="C434">
+        <v>21.8</v>
+      </c>
+      <c r="D434">
+        <v>17.400000000000002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>12.9</v>
+      </c>
+      <c r="C435">
+        <v>21.900000000000002</v>
+      </c>
+      <c r="D435">
+        <v>17.400000000000002</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>12.700000000000001</v>
+      </c>
+      <c r="C436">
+        <v>20.1</v>
+      </c>
+      <c r="D436">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>10.700000000000001</v>
+      </c>
+      <c r="C437">
+        <v>17.7</v>
+      </c>
+      <c r="D437">
+        <v>14.200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/xls/tmp-export.xlsx
+++ b/xls/tmp-export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
   <si>
     <t>date time</t>
   </si>
@@ -1322,6 +1322,48 @@
   </si>
   <si>
     <t>22.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>23.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>24.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>25.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>26.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>27.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>28.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>29.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>30.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>31.05.23 00:00:00</t>
+  </si>
+  <si>
+    <t>01.06.23 00:00:00</t>
+  </si>
+  <si>
+    <t>02.06.23 00:00:00</t>
+  </si>
+  <si>
+    <t>03.06.23 00:00:00</t>
+  </si>
+  <si>
+    <t>04.06.23 00:00:00</t>
+  </si>
+  <si>
+    <t>05.06.23 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D437"/>
+  <dimension ref="A1:D451"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5850,13 +5892,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>6.5</v>
+        <v>6.545833333333333</v>
       </c>
       <c r="C297">
-        <v>10.9</v>
+        <v>10.875</v>
       </c>
       <c r="D297">
-        <v>8.700000000000001</v>
+        <v>8.704166666666667</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5864,13 +5906,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>5.4</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="C298">
-        <v>9.9</v>
+        <v>9.929166666666667</v>
       </c>
       <c r="D298">
-        <v>7.7</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5878,13 +5920,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1.2</v>
+        <v>1.2208333333333334</v>
       </c>
       <c r="C299">
-        <v>5.8</v>
+        <v>5.808333333333334</v>
       </c>
       <c r="D299">
-        <v>3.5</v>
+        <v>3.516666666666667</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,13 +5934,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>1.9000000000000001</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="C300">
-        <v>6.8</v>
+        <v>6.841666666666668</v>
       </c>
       <c r="D300">
-        <v>4.3</v>
+        <v>4.3500000000000005</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5906,13 +5948,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>-3</v>
+        <v>-2.9875000000000003</v>
       </c>
       <c r="C301">
-        <v>5.8</v>
+        <v>5.804166666666667</v>
       </c>
       <c r="D301">
-        <v>1.4000000000000001</v>
+        <v>1.4041666666666668</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5920,13 +5962,13 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>-4.9</v>
+        <v>-4.929166666666666</v>
       </c>
       <c r="C302">
-        <v>-2.1</v>
+        <v>-2.1333333333333333</v>
       </c>
       <c r="D302">
-        <v>-3.5</v>
+        <v>-3.533333333333333</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5934,13 +5976,13 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>-6.1000000000000005</v>
+        <v>-6.066666666666666</v>
       </c>
       <c r="C303">
-        <v>-2.9</v>
+        <v>-2.8833333333333333</v>
       </c>
       <c r="D303">
-        <v>-4.5</v>
+        <v>-4.491666666666666</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5948,13 +5990,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>-4.5</v>
+        <v>-4.5375000000000005</v>
       </c>
       <c r="C304">
-        <v>0.6</v>
+        <v>0.6333333333333334</v>
       </c>
       <c r="D304">
-        <v>-2</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,13 +6004,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>-3.4</v>
+        <v>-3.420833333333334</v>
       </c>
       <c r="C305">
-        <v>-0.2</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="D305">
-        <v>-1.8</v>
+        <v>-1.8166666666666667</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5976,7 +6018,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>-5.4</v>
+        <v>-5.408333333333334</v>
       </c>
       <c r="C306">
         <v>-1.4000000000000001</v>
@@ -5990,13 +6032,13 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>-5.2</v>
+        <v>-5.15</v>
       </c>
       <c r="C307">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="D307">
-        <v>-2.8000000000000003</v>
+        <v>-2.8125</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6004,13 +6046,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>-3.3000000000000003</v>
+        <v>-3.295833333333334</v>
       </c>
       <c r="C308">
-        <v>1.5</v>
+        <v>1.4833333333333334</v>
       </c>
       <c r="D308">
-        <v>-0.9</v>
+        <v>-0.9125000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6018,13 +6060,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>-1.8</v>
+        <v>-1.7458333333333333</v>
       </c>
       <c r="C309">
-        <v>1.7</v>
+        <v>1.679166666666667</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>-0.04166666666666664</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6032,13 +6074,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>-1.4000000000000001</v>
+        <v>-1.3791666666666667</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>2.0375</v>
       </c>
       <c r="D310">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,13 +6088,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>-0.7000000000000001</v>
+        <v>-0.7416666666666667</v>
       </c>
       <c r="C311">
-        <v>2.6</v>
+        <v>2.5625</v>
       </c>
       <c r="D311">
-        <v>0.9</v>
+        <v>0.9083333333333333</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,13 +6102,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>1.3</v>
+        <v>1.2583333333333335</v>
       </c>
       <c r="C312">
-        <v>5.7</v>
+        <v>5.704166666666667</v>
       </c>
       <c r="D312">
-        <v>3.5</v>
+        <v>3.470833333333333</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,13 +6116,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>4.008333333333334</v>
       </c>
       <c r="C313">
-        <v>8.6</v>
+        <v>8.591666666666667</v>
       </c>
       <c r="D313">
-        <v>6.3</v>
+        <v>6.291666666666667</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6088,13 +6130,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>4.6000000000000005</v>
+        <v>4.645833333333333</v>
       </c>
       <c r="C314">
-        <v>9.3</v>
+        <v>9.295833333333333</v>
       </c>
       <c r="D314">
-        <v>7</v>
+        <v>6.9750000000000005</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,13 +6144,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>2.8000000000000003</v>
+        <v>2.8208333333333333</v>
       </c>
       <c r="C315">
-        <v>7.5</v>
+        <v>7.541666666666667</v>
       </c>
       <c r="D315">
-        <v>5.2</v>
+        <v>5.191666666666667</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6116,13 +6158,13 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>1.2</v>
+        <v>1.1708333333333334</v>
       </c>
       <c r="C316">
-        <v>4.8</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="D316">
-        <v>3</v>
+        <v>2.975</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6130,13 +6172,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.3</v>
+        <v>0.2625</v>
       </c>
       <c r="C317">
-        <v>5.1000000000000005</v>
+        <v>5.054166666666666</v>
       </c>
       <c r="D317">
-        <v>2.7</v>
+        <v>2.6750000000000003</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,13 +6186,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>-0.7000000000000001</v>
+        <v>-0.7125</v>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>4.0249999999999995</v>
       </c>
       <c r="D318">
-        <v>1.7</v>
+        <v>1.6624999999999999</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6158,13 +6200,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>-1.8</v>
+        <v>-1.7541666666666667</v>
       </c>
       <c r="C319">
-        <v>2.7</v>
+        <v>2.670833333333333</v>
       </c>
       <c r="D319">
-        <v>0.5</v>
+        <v>0.46249999999999997</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6172,13 +6214,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>-2.4</v>
+        <v>-2.4083333333333337</v>
       </c>
       <c r="C320">
-        <v>1.5</v>
+        <v>1.5208333333333333</v>
       </c>
       <c r="D320">
-        <v>-0.4</v>
+        <v>-0.43333333333333335</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6186,13 +6228,13 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>-3.3000000000000003</v>
+        <v>-3.279166666666667</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="D321">
-        <v>-1.2</v>
+        <v>-1.1500000000000001</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,13 +6242,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>-2.6</v>
+        <v>-2.6333333333333333</v>
       </c>
       <c r="C322">
-        <v>2.1</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="D322">
-        <v>-0.3</v>
+        <v>-0.2916666666666667</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6214,13 +6256,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>-2.6</v>
+        <v>-2.654166666666667</v>
       </c>
       <c r="C323">
-        <v>1.2</v>
+        <v>1.2416666666666667</v>
       </c>
       <c r="D323">
-        <v>-0.7000000000000001</v>
+        <v>-0.7166666666666667</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,13 +6270,13 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>-3.1</v>
+        <v>-3.1041666666666665</v>
       </c>
       <c r="C324">
-        <v>0.1</v>
+        <v>0.07916666666666668</v>
       </c>
       <c r="D324">
-        <v>-1.5</v>
+        <v>-1.5125000000000002</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6242,13 +6284,13 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>-3.4</v>
+        <v>-3.3666666666666667</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>1.0291666666666666</v>
       </c>
       <c r="D325">
-        <v>-1.2</v>
+        <v>-1.1458333333333333</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,13 +6298,13 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>-2.2</v>
+        <v>-2.15</v>
       </c>
       <c r="C326">
-        <v>1.4000000000000001</v>
+        <v>1.3791666666666667</v>
       </c>
       <c r="D326">
-        <v>-0.4</v>
+        <v>-0.37916666666666665</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,13 +6312,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>-2.2</v>
+        <v>-2.25</v>
       </c>
       <c r="C327">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="D327">
-        <v>-0.2</v>
+        <v>-0.24166666666666667</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6284,13 +6326,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>-1.2</v>
+        <v>-1.2125000000000001</v>
       </c>
       <c r="C328">
-        <v>2.7</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D328">
-        <v>0.7000000000000001</v>
+        <v>0.7458333333333335</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6298,13 +6340,13 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>-1.8</v>
+        <v>-1.8083333333333336</v>
       </c>
       <c r="C329">
-        <v>2.2</v>
+        <v>2.1708333333333334</v>
       </c>
       <c r="D329">
-        <v>0.2</v>
+        <v>0.17500000000000002</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,13 +6354,13 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-3.6</v>
+        <v>-3.579166666666667</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>0.03750000000000003</v>
       </c>
       <c r="D330">
-        <v>-1.8</v>
+        <v>-1.7750000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,13 +6368,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>-4.8</v>
+        <v>-4.7749999999999995</v>
       </c>
       <c r="C331">
-        <v>-1.6</v>
+        <v>-1.575</v>
       </c>
       <c r="D331">
-        <v>-3.2</v>
+        <v>-3.1875</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6340,13 +6382,13 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>-5.9</v>
+        <v>-5.9125000000000005</v>
       </c>
       <c r="C332">
-        <v>-2.2</v>
+        <v>-2.154166666666667</v>
       </c>
       <c r="D332">
-        <v>-4</v>
+        <v>-4.0375000000000005</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,13 +6396,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>-7.2</v>
+        <v>-7.1625000000000005</v>
       </c>
       <c r="C333">
-        <v>-2.2</v>
+        <v>-2.2208333333333337</v>
       </c>
       <c r="D333">
-        <v>-4.7</v>
+        <v>-4.695833333333334</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,13 +6410,13 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>-9</v>
+        <v>-9.029166666666667</v>
       </c>
       <c r="C334">
-        <v>-2.9</v>
+        <v>-2.9250000000000003</v>
       </c>
       <c r="D334">
-        <v>-6</v>
+        <v>-5.979166666666667</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,13 +6424,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>-9.6</v>
+        <v>-9.566666666666668</v>
       </c>
       <c r="C335">
-        <v>-2.3000000000000003</v>
+        <v>-2.25</v>
       </c>
       <c r="D335">
-        <v>-5.9</v>
+        <v>-5.916666666666667</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,13 +6438,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>-7.8</v>
+        <v>-7.833333333333333</v>
       </c>
       <c r="C336">
-        <v>-0.6</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="D336">
-        <v>-4.2</v>
+        <v>-4.208333333333333</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6410,13 +6452,13 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>-5.7</v>
+        <v>-5.675</v>
       </c>
       <c r="C337">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D337">
-        <v>-2.6</v>
+        <v>-2.5625</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6424,13 +6466,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>-4</v>
+        <v>-3.9916666666666667</v>
       </c>
       <c r="C338">
-        <v>1.1</v>
+        <v>1.0958333333333334</v>
       </c>
       <c r="D338">
-        <v>-1.4000000000000001</v>
+        <v>-1.4416666666666667</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,10 +6480,10 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>-5.8</v>
+        <v>-5.825</v>
       </c>
       <c r="C339">
-        <v>1.4000000000000001</v>
+        <v>1.4458333333333335</v>
       </c>
       <c r="D339">
         <v>-2.2</v>
@@ -6452,13 +6494,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>-0.2</v>
+        <v>-0.22083333333333335</v>
       </c>
       <c r="C340">
-        <v>2.7</v>
+        <v>2.6583333333333337</v>
       </c>
       <c r="D340">
-        <v>1.2</v>
+        <v>1.2166666666666666</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,13 +6508,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>-3.1</v>
+        <v>-3.0833333333333335</v>
       </c>
       <c r="C341">
-        <v>1.4000000000000001</v>
+        <v>1.3833333333333335</v>
       </c>
       <c r="D341">
-        <v>-0.8</v>
+        <v>-0.8458333333333333</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6480,13 +6522,13 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>-4</v>
+        <v>-4.0375000000000005</v>
       </c>
       <c r="C342">
-        <v>1.8</v>
+        <v>1.7874999999999999</v>
       </c>
       <c r="D342">
-        <v>-1.1</v>
+        <v>-1.1291666666666667</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6494,13 +6536,13 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>-2.1</v>
+        <v>-2.0708333333333333</v>
       </c>
       <c r="C343">
-        <v>3.8000000000000003</v>
+        <v>3.8041666666666667</v>
       </c>
       <c r="D343">
-        <v>0.9</v>
+        <v>0.8708333333333335</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6508,13 +6550,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>-0.024999999999999994</v>
       </c>
       <c r="C344">
-        <v>6.6000000000000005</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D344">
-        <v>3.3000000000000003</v>
+        <v>3.283333333333333</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,13 +6564,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="C345">
-        <v>4.5</v>
+        <v>4.529166666666667</v>
       </c>
       <c r="D345">
-        <v>2.8000000000000003</v>
+        <v>2.7624999999999997</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,13 +6578,13 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="C346">
-        <v>4.1</v>
+        <v>4.058333333333334</v>
       </c>
       <c r="D346">
-        <v>1.8</v>
+        <v>1.8125</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6553,10 +6595,10 @@
         <v>2</v>
       </c>
       <c r="C347">
-        <v>7.2</v>
+        <v>7.1625000000000005</v>
       </c>
       <c r="D347">
-        <v>4.6000000000000005</v>
+        <v>4.591666666666667</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,13 +6606,13 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>-2</v>
+        <v>-2.0416666666666665</v>
       </c>
       <c r="C348">
-        <v>3.2</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="D348">
-        <v>0.6</v>
+        <v>0.5624999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6578,13 +6620,13 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>-4.9</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="C349">
-        <v>0</v>
+        <v>0.033333333333333305</v>
       </c>
       <c r="D349">
-        <v>-2.4</v>
+        <v>-2.4125</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6592,13 +6634,13 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>-3.2</v>
+        <v>-3.1791666666666667</v>
       </c>
       <c r="C350">
-        <v>3.8000000000000003</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="D350">
-        <v>0.3</v>
+        <v>0.2791666666666666</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6606,13 +6648,13 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>1.4000000000000001</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="C351">
-        <v>8.2</v>
+        <v>8.195833333333333</v>
       </c>
       <c r="D351">
-        <v>4.8</v>
+        <v>4.770833333333333</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6623,10 +6665,10 @@
         <v>2.1</v>
       </c>
       <c r="C352">
-        <v>5.5</v>
+        <v>5.4750000000000005</v>
       </c>
       <c r="D352">
-        <v>3.8000000000000003</v>
+        <v>3.7916666666666665</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6634,13 +6676,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.5</v>
+        <v>0.5291666666666667</v>
       </c>
       <c r="C353">
-        <v>4</v>
+        <v>3.9625000000000004</v>
       </c>
       <c r="D353">
-        <v>2.2</v>
+        <v>2.254166666666667</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6648,13 +6690,13 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>-1.8</v>
+        <v>-1.7541666666666667</v>
       </c>
       <c r="C354">
-        <v>3.4</v>
+        <v>3.4375</v>
       </c>
       <c r="D354">
-        <v>0.8</v>
+        <v>0.8291666666666667</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6662,13 +6704,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>-2.5</v>
+        <v>-2.504166666666667</v>
       </c>
       <c r="C355">
-        <v>4.1</v>
+        <v>4.116666666666666</v>
       </c>
       <c r="D355">
-        <v>0.8</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6676,10 +6718,10 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>-2</v>
+        <v>-2.004166666666667</v>
       </c>
       <c r="C356">
-        <v>4</v>
+        <v>3.9916666666666667</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -6690,13 +6732,13 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>-0.7000000000000001</v>
+        <v>-0.7333333333333334</v>
       </c>
       <c r="C357">
-        <v>5.1000000000000005</v>
+        <v>5.145833333333333</v>
       </c>
       <c r="D357">
-        <v>2.2</v>
+        <v>2.2041666666666666</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6704,13 +6746,13 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>-0.6</v>
+        <v>-0.5666666666666668</v>
       </c>
       <c r="C358">
-        <v>6.1000000000000005</v>
+        <v>6.095833333333334</v>
       </c>
       <c r="D358">
-        <v>2.8000000000000003</v>
+        <v>2.7750000000000004</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,13 +6760,13 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>-1.4000000000000001</v>
+        <v>-1.3791666666666667</v>
       </c>
       <c r="C359">
-        <v>3.7</v>
+        <v>3.7416666666666667</v>
       </c>
       <c r="D359">
-        <v>1.2</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6732,13 +6774,13 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>-1.6</v>
+        <v>-1.616666666666667</v>
       </c>
       <c r="C360">
-        <v>4</v>
+        <v>4.008333333333334</v>
       </c>
       <c r="D360">
-        <v>1.2</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,13 +6788,13 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.1</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="C361">
-        <v>6.2</v>
+        <v>6.2250000000000005</v>
       </c>
       <c r="D361">
-        <v>3.2</v>
+        <v>3.1750000000000003</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,13 +6802,13 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>2.0083333333333333</v>
       </c>
       <c r="C362">
-        <v>10</v>
+        <v>10.041666666666666</v>
       </c>
       <c r="D362">
-        <v>6</v>
+        <v>6.020833333333333</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,13 +6816,13 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>4</v>
+        <v>3.983333333333334</v>
       </c>
       <c r="C363">
-        <v>12.4</v>
+        <v>12.395833333333334</v>
       </c>
       <c r="D363">
-        <v>8.2</v>
+        <v>8.1875</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6788,13 +6830,13 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>3.6</v>
+        <v>3.6458333333333335</v>
       </c>
       <c r="C364">
-        <v>11.9</v>
+        <v>11.9375</v>
       </c>
       <c r="D364">
-        <v>7.8</v>
+        <v>7.7875000000000005</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6802,13 +6844,13 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>3.5</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="C365">
-        <v>10.1</v>
+        <v>10.058333333333334</v>
       </c>
       <c r="D365">
-        <v>6.8</v>
+        <v>6.7875000000000005</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,13 +6858,13 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>0.1</v>
+        <v>0.05000000000000001</v>
       </c>
       <c r="C366">
-        <v>6.9</v>
+        <v>6.879166666666666</v>
       </c>
       <c r="D366">
-        <v>3.5</v>
+        <v>3.4625000000000004</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6830,13 +6872,13 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>-0.5</v>
+        <v>-0.4875</v>
       </c>
       <c r="C367">
-        <v>7</v>
+        <v>6.958333333333333</v>
       </c>
       <c r="D367">
-        <v>3.2</v>
+        <v>3.2416666666666667</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,13 +6886,13 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>2.5</v>
+        <v>2.4625</v>
       </c>
       <c r="C368">
         <v>11.200000000000001</v>
       </c>
       <c r="D368">
-        <v>6.8</v>
+        <v>6.825</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6858,13 +6900,13 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>2.6</v>
+        <v>2.629166666666667</v>
       </c>
       <c r="C369">
-        <v>9.8</v>
+        <v>9.7875</v>
       </c>
       <c r="D369">
-        <v>6.2</v>
+        <v>6.208333333333333</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6872,13 +6914,13 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>3.1</v>
+        <v>3.1208333333333336</v>
       </c>
       <c r="C370">
-        <v>7.3</v>
+        <v>7.3500000000000005</v>
       </c>
       <c r="D370">
-        <v>5.2</v>
+        <v>5.229166666666667</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6886,13 +6928,13 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>2.1</v>
+        <v>2.1416666666666666</v>
       </c>
       <c r="C371">
-        <v>6.5</v>
+        <v>6.5249999999999995</v>
       </c>
       <c r="D371">
-        <v>4.3</v>
+        <v>4.341666666666667</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,13 +6942,13 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>1.9000000000000001</v>
+        <v>1.8958333333333333</v>
       </c>
       <c r="C372">
-        <v>8</v>
+        <v>7.970833333333334</v>
       </c>
       <c r="D372">
-        <v>4.9</v>
+        <v>4.945833333333334</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6914,10 +6956,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>1.8</v>
+        <v>1.7833333333333334</v>
       </c>
       <c r="C373">
-        <v>9.200000000000001</v>
+        <v>9.220833333333333</v>
       </c>
       <c r="D373">
         <v>5.5</v>
@@ -6928,13 +6970,13 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>2.9</v>
+        <v>2.954166666666667</v>
       </c>
       <c r="C374">
-        <v>11.200000000000001</v>
+        <v>11.245833333333332</v>
       </c>
       <c r="D374">
-        <v>7.1000000000000005</v>
+        <v>7.091666666666668</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6942,13 +6984,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>5.6000000000000005</v>
+        <v>5.579166666666667</v>
       </c>
       <c r="C375">
-        <v>11.9</v>
+        <v>11.862499999999999</v>
       </c>
       <c r="D375">
-        <v>8.700000000000001</v>
+        <v>8.725</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6956,13 +6998,13 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>6.2</v>
+        <v>6.175</v>
       </c>
       <c r="C376">
-        <v>12.8</v>
+        <v>12.75</v>
       </c>
       <c r="D376">
-        <v>9.5</v>
+        <v>9.4625</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,13 +7012,13 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>7.3</v>
+        <v>7.325</v>
       </c>
       <c r="C377">
-        <v>15.6</v>
+        <v>15.575000000000001</v>
       </c>
       <c r="D377">
-        <v>11.5</v>
+        <v>11.454166666666667</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,13 +7026,13 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>9.200000000000001</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="C378">
-        <v>15.1</v>
+        <v>15.054166666666667</v>
       </c>
       <c r="D378">
-        <v>12.1</v>
+        <v>12.108333333333334</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,13 +7040,13 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>7.5</v>
+        <v>7.533333333333334</v>
       </c>
       <c r="C379">
-        <v>12.3</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="D379">
-        <v>9.9</v>
+        <v>9.929166666666667</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7012,13 +7054,13 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>7.5</v>
+        <v>7.470833333333334</v>
       </c>
       <c r="C380">
-        <v>12.700000000000001</v>
+        <v>12.674999999999999</v>
       </c>
       <c r="D380">
-        <v>10.1</v>
+        <v>10.070833333333335</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7026,13 +7068,13 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>5.6000000000000005</v>
+        <v>5.591666666666668</v>
       </c>
       <c r="C381">
-        <v>13</v>
+        <v>13.041666666666666</v>
       </c>
       <c r="D381">
-        <v>9.3</v>
+        <v>9.320833333333335</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7040,13 +7082,13 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>1.8</v>
+        <v>1.7583333333333335</v>
       </c>
       <c r="C382">
-        <v>9.3</v>
+        <v>9.3125</v>
       </c>
       <c r="D382">
-        <v>5.5</v>
+        <v>5.533333333333334</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7054,13 +7096,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>-1</v>
+        <v>-0.9666666666666667</v>
       </c>
       <c r="C383">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="D383">
-        <v>1.9000000000000001</v>
+        <v>1.9041666666666668</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,13 +7110,13 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>-1.7</v>
+        <v>-1.741666666666667</v>
       </c>
       <c r="C384">
-        <v>6.6000000000000005</v>
+        <v>6.629166666666666</v>
       </c>
       <c r="D384">
-        <v>2.4</v>
+        <v>2.4541666666666666</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,13 +7124,13 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>1.8</v>
+        <v>1.7583333333333335</v>
       </c>
       <c r="C385">
-        <v>10</v>
+        <v>9.983333333333334</v>
       </c>
       <c r="D385">
-        <v>5.9</v>
+        <v>5.870833333333334</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7096,13 +7138,13 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>5.2</v>
+        <v>5.241666666666666</v>
       </c>
       <c r="C386">
-        <v>11.5</v>
+        <v>11.504166666666668</v>
       </c>
       <c r="D386">
-        <v>8.4</v>
+        <v>8.366666666666667</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7110,13 +7152,13 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>5.6000000000000005</v>
+        <v>5.629166666666666</v>
       </c>
       <c r="C387">
-        <v>11.1</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="D387">
-        <v>8.4</v>
+        <v>8.366666666666667</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7124,13 +7166,13 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>4</v>
+        <v>3.9791666666666665</v>
       </c>
       <c r="C388">
-        <v>7.7</v>
+        <v>7.745833333333334</v>
       </c>
       <c r="D388">
-        <v>5.9</v>
+        <v>5.866666666666667</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7138,13 +7180,13 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>2.1</v>
+        <v>2.1458333333333335</v>
       </c>
       <c r="C389">
-        <v>8.6</v>
+        <v>8.595833333333333</v>
       </c>
       <c r="D389">
-        <v>5.4</v>
+        <v>5.3625</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,13 +7194,13 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>3.9</v>
+        <v>3.9375</v>
       </c>
       <c r="C390">
-        <v>10.4</v>
+        <v>10.370833333333334</v>
       </c>
       <c r="D390">
-        <v>7.2</v>
+        <v>7.166666666666667</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7166,13 +7208,13 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>4.1</v>
+        <v>4.116666666666666</v>
       </c>
       <c r="C391">
-        <v>9.4</v>
+        <v>9.370833333333334</v>
       </c>
       <c r="D391">
-        <v>6.7</v>
+        <v>6.741666666666667</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7183,10 +7225,10 @@
         <v>4.3</v>
       </c>
       <c r="C392">
-        <v>9.200000000000001</v>
+        <v>9.170833333333333</v>
       </c>
       <c r="D392">
-        <v>6.7</v>
+        <v>6.741666666666667</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,13 +7236,13 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>5</v>
+        <v>4.9750000000000005</v>
       </c>
       <c r="C393">
-        <v>11.8</v>
+        <v>11.804166666666667</v>
       </c>
       <c r="D393">
-        <v>8.4</v>
+        <v>8.383333333333335</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7208,13 +7250,13 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>5.7</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="C394">
-        <v>11.8</v>
+        <v>11.762500000000001</v>
       </c>
       <c r="D394">
-        <v>8.700000000000001</v>
+        <v>8.758333333333335</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7222,13 +7264,13 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>6.6000000000000005</v>
+        <v>6.612500000000001</v>
       </c>
       <c r="C395">
-        <v>13.200000000000001</v>
+        <v>13.2125</v>
       </c>
       <c r="D395">
-        <v>9.9</v>
+        <v>9.908333333333333</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,13 +7278,13 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>6.6000000000000005</v>
+        <v>6.570833333333334</v>
       </c>
       <c r="C396">
-        <v>14</v>
+        <v>14.025</v>
       </c>
       <c r="D396">
-        <v>10.3</v>
+        <v>10.295833333333333</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7250,13 +7292,13 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>7.9</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="C397">
-        <v>11.200000000000001</v>
+        <v>11.174999999999999</v>
       </c>
       <c r="D397">
-        <v>9.5</v>
+        <v>9.541666666666666</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7264,13 +7306,13 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>7.5</v>
+        <v>7.5375000000000005</v>
       </c>
       <c r="C398">
-        <v>12.3</v>
+        <v>12.266666666666666</v>
       </c>
       <c r="D398">
-        <v>9.9</v>
+        <v>9.904166666666667</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7281,10 +7323,10 @@
         <v>6.7</v>
       </c>
       <c r="C399">
-        <v>12.4</v>
+        <v>12.366666666666667</v>
       </c>
       <c r="D399">
-        <v>9.5</v>
+        <v>9.55</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,13 +7334,13 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>5.7</v>
+        <v>5.670833333333333</v>
       </c>
       <c r="C400">
-        <v>10.3</v>
+        <v>10.270833333333334</v>
       </c>
       <c r="D400">
-        <v>8</v>
+        <v>7.979166666666667</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,13 +7348,13 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>5.1000000000000005</v>
+        <v>5.066666666666667</v>
       </c>
       <c r="C401">
-        <v>13.9</v>
+        <v>13.941666666666668</v>
       </c>
       <c r="D401">
-        <v>9.5</v>
+        <v>9.495833333333334</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7320,13 +7362,13 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>6.2</v>
+        <v>6.254166666666666</v>
       </c>
       <c r="C402">
-        <v>13.1</v>
+        <v>13.116666666666667</v>
       </c>
       <c r="D402">
-        <v>9.700000000000001</v>
+        <v>9.683333333333334</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7334,10 +7376,10 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>6.8</v>
+        <v>6.7875000000000005</v>
       </c>
       <c r="C403">
-        <v>14</v>
+        <v>14.016666666666667</v>
       </c>
       <c r="D403">
         <v>10.4</v>
@@ -7348,13 +7390,13 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>7.4</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="C404">
-        <v>12.700000000000001</v>
+        <v>12.691666666666668</v>
       </c>
       <c r="D404">
-        <v>10</v>
+        <v>10.045833333333334</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7362,13 +7404,13 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>7.6000000000000005</v>
+        <v>7.5625</v>
       </c>
       <c r="C405">
-        <v>12.3</v>
+        <v>12.304166666666667</v>
       </c>
       <c r="D405">
-        <v>9.9</v>
+        <v>9.929166666666667</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7376,13 +7418,13 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>6.7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C406">
-        <v>12.6</v>
+        <v>12.558333333333332</v>
       </c>
       <c r="D406">
-        <v>9.6</v>
+        <v>9.604166666666666</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,13 +7432,13 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>6.4</v>
+        <v>6.429166666666667</v>
       </c>
       <c r="C407">
-        <v>14.4</v>
+        <v>14.424999999999999</v>
       </c>
       <c r="D407">
-        <v>10.4</v>
+        <v>10.4375</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,13 +7446,13 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>7.7</v>
+        <v>7.704166666666667</v>
       </c>
       <c r="C408">
-        <v>16.5</v>
+        <v>16.520833333333332</v>
       </c>
       <c r="D408">
-        <v>12.1</v>
+        <v>12.116666666666667</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7418,13 +7460,13 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>7.9</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="C409">
-        <v>17</v>
+        <v>17.0125</v>
       </c>
       <c r="D409">
-        <v>12.5</v>
+        <v>12.466666666666667</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7432,10 +7474,10 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>8.4</v>
+        <v>8.441666666666666</v>
       </c>
       <c r="C410">
-        <v>15.4</v>
+        <v>15.383333333333333</v>
       </c>
       <c r="D410">
         <v>11.9</v>
@@ -7446,13 +7488,13 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>6.8</v>
+        <v>6.820833333333333</v>
       </c>
       <c r="C411">
-        <v>14.3</v>
+        <v>14.320833333333333</v>
       </c>
       <c r="D411">
-        <v>10.6</v>
+        <v>10.575000000000001</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,13 +7502,13 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>6.1000000000000005</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="C412">
-        <v>13.6</v>
+        <v>13.570833333333333</v>
       </c>
       <c r="D412">
-        <v>9.8</v>
+        <v>9.8125</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7474,13 +7516,13 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>5.3</v>
+        <v>5.325</v>
       </c>
       <c r="C413">
-        <v>12.8</v>
+        <v>12.762500000000001</v>
       </c>
       <c r="D413">
-        <v>9</v>
+        <v>9.05</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,13 +7530,13 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>5.4</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="C414">
-        <v>13</v>
+        <v>13.008333333333333</v>
       </c>
       <c r="D414">
-        <v>9.200000000000001</v>
+        <v>9.225</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7502,13 +7544,13 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>5.9</v>
+        <v>5.879166666666666</v>
       </c>
       <c r="C415">
-        <v>12.6</v>
+        <v>12.604166666666666</v>
       </c>
       <c r="D415">
-        <v>9.200000000000001</v>
+        <v>9.233333333333334</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -7516,13 +7558,13 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>5.7</v>
+        <v>5.758333333333334</v>
       </c>
       <c r="C416">
-        <v>13.700000000000001</v>
+        <v>13.733333333333334</v>
       </c>
       <c r="D416">
-        <v>9.700000000000001</v>
+        <v>9.737499999999999</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7530,13 +7572,13 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>5.7</v>
+        <v>5.654166666666668</v>
       </c>
       <c r="C417">
-        <v>17.1</v>
+        <v>17.133333333333333</v>
       </c>
       <c r="D417">
-        <v>11.4</v>
+        <v>11.395833333333334</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7547,10 +7589,10 @@
         <v>8.4</v>
       </c>
       <c r="C418">
-        <v>18.1</v>
+        <v>18.129166666666666</v>
       </c>
       <c r="D418">
-        <v>13.3</v>
+        <v>13.266666666666666</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7558,13 +7600,13 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>8.700000000000001</v>
+        <v>8.716666666666667</v>
       </c>
       <c r="C419">
-        <v>16.7</v>
+        <v>16.729166666666668</v>
       </c>
       <c r="D419">
-        <v>12.700000000000001</v>
+        <v>12.725</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -7572,13 +7614,13 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>9</v>
+        <v>8.983333333333333</v>
       </c>
       <c r="C420">
-        <v>17.6</v>
+        <v>17.629166666666666</v>
       </c>
       <c r="D420">
-        <v>13.3</v>
+        <v>13.299999999999999</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -7586,13 +7628,13 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>7.2</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="C421">
-        <v>14.8</v>
+        <v>14.799999999999999</v>
       </c>
       <c r="D421">
-        <v>11</v>
+        <v>10.987499999999999</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -7600,13 +7642,13 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>4.8</v>
+        <v>4.816666666666667</v>
       </c>
       <c r="C422">
-        <v>11.9</v>
+        <v>11.9375</v>
       </c>
       <c r="D422">
-        <v>8.4</v>
+        <v>8.387500000000001</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,10 +7656,10 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>5.4</v>
+        <v>5.362500000000001</v>
       </c>
       <c r="C423">
-        <v>11.4</v>
+        <v>11.429166666666667</v>
       </c>
       <c r="D423">
         <v>8.4</v>
@@ -7628,13 +7670,13 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>4.4</v>
+        <v>4.4125000000000005</v>
       </c>
       <c r="C424">
-        <v>12.5</v>
+        <v>12.487499999999999</v>
       </c>
       <c r="D424">
-        <v>8.5</v>
+        <v>8.445833333333335</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -7642,13 +7684,13 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>4.2</v>
+        <v>4.191666666666667</v>
       </c>
       <c r="C425">
-        <v>12.8</v>
+        <v>12.783333333333333</v>
       </c>
       <c r="D425">
-        <v>8.5</v>
+        <v>8.475</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -7656,13 +7698,13 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>4.6000000000000005</v>
+        <v>4.641666666666667</v>
       </c>
       <c r="C426">
-        <v>14.8</v>
+        <v>14.745833333333335</v>
       </c>
       <c r="D426">
-        <v>9.700000000000001</v>
+        <v>9.7125</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -7670,13 +7712,13 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>6.1000000000000005</v>
+        <v>6.054166666666667</v>
       </c>
       <c r="C427">
-        <v>16.9</v>
+        <v>16.9125</v>
       </c>
       <c r="D427">
-        <v>11.5</v>
+        <v>11.491666666666667</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -7684,13 +7726,13 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>9</v>
+        <v>9.012500000000001</v>
       </c>
       <c r="C428">
-        <v>18.2</v>
+        <v>18.245833333333334</v>
       </c>
       <c r="D428">
-        <v>13.6</v>
+        <v>13.629166666666668</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -7698,13 +7740,13 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>9.700000000000001</v>
+        <v>9.6625</v>
       </c>
       <c r="C429">
-        <v>20.8</v>
+        <v>20.7625</v>
       </c>
       <c r="D429">
-        <v>15.200000000000001</v>
+        <v>15.220833333333333</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -7712,13 +7754,13 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>11.200000000000001</v>
+        <v>11.237499999999999</v>
       </c>
       <c r="C430">
-        <v>20.3</v>
+        <v>20.620833333333334</v>
       </c>
       <c r="D430">
-        <v>15.8</v>
+        <v>15.920833333333334</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -7726,13 +7768,13 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="C431">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="D431">
-        <v>16.2</v>
+        <v>16.358333333333334</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -7740,13 +7782,13 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>11.8</v>
+        <v>12.870833333333335</v>
       </c>
       <c r="C432">
-        <v>20.900000000000002</v>
+        <v>21.02916666666667</v>
       </c>
       <c r="D432">
-        <v>16.4</v>
+        <v>16.933333333333334</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -7754,13 +7796,13 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>11.8</v>
+        <v>12.108333333333334</v>
       </c>
       <c r="C433">
-        <v>20.6</v>
+        <v>21.258333333333336</v>
       </c>
       <c r="D433">
-        <v>16.2</v>
+        <v>16.683333333333334</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -7768,13 +7810,13 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>13.1</v>
+        <v>12.7125</v>
       </c>
       <c r="C434">
-        <v>21.8</v>
+        <v>22.504166666666666</v>
       </c>
       <c r="D434">
-        <v>17.400000000000002</v>
+        <v>17.6125</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -7782,13 +7824,13 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>12.9</v>
+        <v>12.558333333333332</v>
       </c>
       <c r="C435">
-        <v>21.900000000000002</v>
+        <v>22.875</v>
       </c>
       <c r="D435">
-        <v>17.400000000000002</v>
+        <v>17.720833333333335</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -7796,13 +7838,13 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>12.700000000000001</v>
+        <v>10.987499999999999</v>
       </c>
       <c r="C436">
-        <v>20.1</v>
+        <v>20.679166666666667</v>
       </c>
       <c r="D436">
-        <v>16.4</v>
+        <v>15.8375</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -7810,13 +7852,209 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>10.700000000000001</v>
+        <v>10.625</v>
       </c>
       <c r="C437">
-        <v>17.7</v>
+        <v>19.975</v>
       </c>
       <c r="D437">
-        <v>14.200000000000001</v>
+        <v>15.304166666666667</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>12.299999999999999</v>
+      </c>
+      <c r="C438">
+        <v>21.029166666666665</v>
+      </c>
+      <c r="D438">
+        <v>16.658333333333335</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>13.208333333333334</v>
+      </c>
+      <c r="C439">
+        <v>22.433333333333334</v>
+      </c>
+      <c r="D439">
+        <v>17.8125</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>14.458333333333334</v>
+      </c>
+      <c r="C440">
+        <v>23.170833333333334</v>
+      </c>
+      <c r="D440">
+        <v>18.816666666666666</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>13.641666666666667</v>
+      </c>
+      <c r="C441">
+        <v>23.262500000000003</v>
+      </c>
+      <c r="D441">
+        <v>18.445833333333333</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>13.579166666666666</v>
+      </c>
+      <c r="C442">
+        <v>20.995833333333334</v>
+      </c>
+      <c r="D442">
+        <v>17.283333333333335</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>11.445833333333333</v>
+      </c>
+      <c r="C443">
+        <v>20.645833333333332</v>
+      </c>
+      <c r="D443">
+        <v>16.0375</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>11.582916666666668</v>
+      </c>
+      <c r="C444">
+        <v>21.691666666666666</v>
+      </c>
+      <c r="D444">
+        <v>16.637291666666666</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>12.700833333333334</v>
+      </c>
+      <c r="C445">
+        <v>21.043333333333333</v>
+      </c>
+      <c r="D445">
+        <v>16.872083333333332</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>12.748750000000001</v>
+      </c>
+      <c r="C446">
+        <v>21.654583333333335</v>
+      </c>
+      <c r="D446">
+        <v>17.201666666666664</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>12.295833333333334</v>
+      </c>
+      <c r="C447">
+        <v>22.200833333333332</v>
+      </c>
+      <c r="D447">
+        <v>17.24833333333333</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>13.840833333333334</v>
+      </c>
+      <c r="C448">
+        <v>23.452083333333334</v>
+      </c>
+      <c r="D448">
+        <v>18.64645833333333</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>11.413333333333334</v>
+      </c>
+      <c r="C449">
+        <v>19.354583333333334</v>
+      </c>
+      <c r="D449">
+        <v>15.383958333333332</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>8.005</v>
+      </c>
+      <c r="C450">
+        <v>17.91208333333333</v>
+      </c>
+      <c r="D450">
+        <v>12.958541666666667</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>9.190833333333332</v>
+      </c>
+      <c r="C451">
+        <v>20.037499999999998</v>
+      </c>
+      <c r="D451">
+        <v>14.614166666666668</v>
       </c>
     </row>
   </sheetData>
